--- a/parametros.xlsx
+++ b/parametros.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4b42ecb6cf71bf9e/Documentos/UC docs/2022-1/ICS1113 - Optimización/Proyecto/BICIStreckennetz/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="264" documentId="11_AD4D2F04E46CFB4ACB3E201BA5D6D81A693EDF27" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F8756263-9289-4C8C-8247-FA1C94D3211B}"/>
+  <xr:revisionPtr revIDLastSave="266" documentId="11_AD4D2F04E46CFB4ACB3E201BA5D6D81A693EDF27" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BD2BAC7B-1566-40C4-AD23-C00D84CC5B0D}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-4965" windowWidth="29040" windowHeight="15840" tabRatio="722" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-4965" windowWidth="29040" windowHeight="15840" tabRatio="722" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Parametros generales" sheetId="5" r:id="rId1"/>
@@ -1018,20 +1018,10 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1072,6 +1062,25 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1132,10 +1141,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1155,18 +1161,6 @@
           <color indexed="64"/>
         </bottom>
       </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1199,6 +1193,12 @@
         </bottom>
       </border>
     </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1213,74 +1213,74 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{5971FE81-43A6-4F1A-8405-917F80AF47B3}" name="Tabla7" displayName="Tabla7" ref="B2:D4" totalsRowShown="0" headerRowDxfId="11" dataDxfId="6" tableBorderDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{5971FE81-43A6-4F1A-8405-917F80AF47B3}" name="Tabla7" displayName="Tabla7" ref="B2:D4" totalsRowShown="0" headerRowDxfId="43" dataDxfId="42" tableBorderDxfId="41">
   <autoFilter ref="B2:D4" xr:uid="{5971FE81-43A6-4F1A-8405-917F80AF47B3}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{C4646EA6-15E8-4F49-8660-8BC743BA6AEB}" name="P" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{BCC58997-8A28-4E33-A831-CAF6FFAA1D3D}" name="T" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{9DE2B7BB-01C5-4111-A209-1B469CE041D0}" name="S" dataDxfId="7"/>
+    <tableColumn id="1" xr3:uid="{C4646EA6-15E8-4F49-8660-8BC743BA6AEB}" name="P" dataDxfId="40"/>
+    <tableColumn id="2" xr3:uid="{BCC58997-8A28-4E33-A831-CAF6FFAA1D3D}" name="T" dataDxfId="39"/>
+    <tableColumn id="3" xr3:uid="{9DE2B7BB-01C5-4111-A209-1B469CE041D0}" name="S" dataDxfId="38"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9EBF1B6A-543F-48CE-914E-1AE3C5987315}" name="Tabla1" displayName="Tabla1" ref="B2:H10" totalsRowShown="0" headerRowDxfId="38" dataDxfId="37" tableBorderDxfId="43">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9EBF1B6A-543F-48CE-914E-1AE3C5987315}" name="Tabla1" displayName="Tabla1" ref="B2:H10" totalsRowShown="0" headerRowDxfId="37" dataDxfId="36" tableBorderDxfId="35">
   <autoFilter ref="B2:H10" xr:uid="{9EBF1B6A-543F-48CE-914E-1AE3C5987315}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{F3E98B7E-71ED-4323-A688-507E0E4D30F8}" name="c" dataDxfId="36"/>
-    <tableColumn id="2" xr3:uid="{69AA7FF1-F6AA-4D73-8D00-DAA5E4C8663A}" name="Referencia" dataDxfId="34"/>
-    <tableColumn id="3" xr3:uid="{FC18F7FD-2AF8-46E5-AD67-DBBF16CEE9A0}" name="Kc [$/m]" dataDxfId="35"/>
-    <tableColumn id="4" xr3:uid="{D95694F2-2899-491C-A596-9A285A37BA46}" name="Gc [$]" dataDxfId="42"/>
-    <tableColumn id="5" xr3:uid="{3ECED9B0-52C5-4131-8C26-E285B1072DC4}" name="Dc [$/m]" dataDxfId="41"/>
-    <tableColumn id="6" xr3:uid="{B5439923-DE56-4CB7-9948-3F44BAEC5334}" name="Uc [días/m]" dataDxfId="40"/>
-    <tableColumn id="7" xr3:uid="{66DA3E3E-93C5-4886-9FA3-D96E254E4154}" name="Jc [personas]" dataDxfId="39"/>
+    <tableColumn id="1" xr3:uid="{F3E98B7E-71ED-4323-A688-507E0E4D30F8}" name="c" dataDxfId="34"/>
+    <tableColumn id="2" xr3:uid="{69AA7FF1-F6AA-4D73-8D00-DAA5E4C8663A}" name="Referencia" dataDxfId="33"/>
+    <tableColumn id="3" xr3:uid="{FC18F7FD-2AF8-46E5-AD67-DBBF16CEE9A0}" name="Kc [$/m]" dataDxfId="32"/>
+    <tableColumn id="4" xr3:uid="{D95694F2-2899-491C-A596-9A285A37BA46}" name="Gc [$]" dataDxfId="31"/>
+    <tableColumn id="5" xr3:uid="{3ECED9B0-52C5-4131-8C26-E285B1072DC4}" name="Dc [$/m]" dataDxfId="30"/>
+    <tableColumn id="6" xr3:uid="{B5439923-DE56-4CB7-9948-3F44BAEC5334}" name="Uc [días/m]" dataDxfId="29"/>
+    <tableColumn id="7" xr3:uid="{66DA3E3E-93C5-4886-9FA3-D96E254E4154}" name="Jc [personas]" dataDxfId="28"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2A8CF024-17E2-4932-AE29-897F3F06695B}" name="Tabla2" displayName="Tabla2" ref="B2:G469" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25" tableBorderDxfId="33">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2A8CF024-17E2-4932-AE29-897F3F06695B}" name="Tabla2" displayName="Tabla2" ref="B2:G469" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26" tableBorderDxfId="25">
   <autoFilter ref="B2:G469" xr:uid="{2A8CF024-17E2-4932-AE29-897F3F06695B}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{8057DC41-0E5E-4281-A9E4-A586B2E82B5B}" name="Referencia" dataDxfId="32"/>
-    <tableColumn id="2" xr3:uid="{2FBF424D-2F6A-492A-B6D0-B1F455E70D5F}" name="n" dataDxfId="31"/>
-    <tableColumn id="3" xr3:uid="{9EA9F0A7-6F85-4F5A-B709-DBBEB8D0B145}" name="En" dataDxfId="30"/>
-    <tableColumn id="4" xr3:uid="{961C809F-A72E-4D1D-B80D-E6DD4ADCB1C9}" name="In" dataDxfId="29"/>
-    <tableColumn id="5" xr3:uid="{CCFD3E71-1EE7-4D11-A5C5-C8187509C6BF}" name="Ln" dataDxfId="28"/>
-    <tableColumn id="6" xr3:uid="{6203E591-F1CF-4148-9439-2379766711BE}" name="An" dataDxfId="27"/>
+    <tableColumn id="1" xr3:uid="{8057DC41-0E5E-4281-A9E4-A586B2E82B5B}" name="Referencia" dataDxfId="24"/>
+    <tableColumn id="2" xr3:uid="{2FBF424D-2F6A-492A-B6D0-B1F455E70D5F}" name="n" dataDxfId="23"/>
+    <tableColumn id="3" xr3:uid="{9EA9F0A7-6F85-4F5A-B709-DBBEB8D0B145}" name="En" dataDxfId="22"/>
+    <tableColumn id="4" xr3:uid="{961C809F-A72E-4D1D-B80D-E6DD4ADCB1C9}" name="In" dataDxfId="21"/>
+    <tableColumn id="5" xr3:uid="{CCFD3E71-1EE7-4D11-A5C5-C8187509C6BF}" name="Ln" dataDxfId="20"/>
+    <tableColumn id="6" xr3:uid="{6203E591-F1CF-4148-9439-2379766711BE}" name="An" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{862B27E5-2D44-4A5B-8F8B-16A9DCA3A3B1}" name="Tabla8" displayName="Tabla8" ref="B2:D182" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0" tableBorderDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{862B27E5-2D44-4A5B-8F8B-16A9DCA3A3B1}" name="Tabla8" displayName="Tabla8" ref="B2:D182" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18" tableBorderDxfId="17">
   <autoFilter ref="B2:D182" xr:uid="{862B27E5-2D44-4A5B-8F8B-16A9DCA3A3B1}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{98FE0935-E7DA-471F-A97E-C92405B802C1}" name="Dia de la semana" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{D9E09358-C5D7-4873-B32F-1F7CD3693B13}" name="t" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{3F3267B9-EF8E-4102-8D89-C3F4DFE6DF27}" name="Ot" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{98FE0935-E7DA-471F-A97E-C92405B802C1}" name="Dia de la semana" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{D9E09358-C5D7-4873-B32F-1F7CD3693B13}" name="t" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{3F3267B9-EF8E-4102-8D89-C3F4DFE6DF27}" name="Ot" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{88664100-7612-42F1-9C59-FF959EFFD2B7}" name="Tabla5" displayName="Tabla5" ref="B2:K469" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23" tableBorderDxfId="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{88664100-7612-42F1-9C59-FF959EFFD2B7}" name="Tabla5" displayName="Tabla5" ref="B2:K469" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12" tableBorderDxfId="11">
   <autoFilter ref="B2:K469" xr:uid="{88664100-7612-42F1-9C59-FF959EFFD2B7}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{C2BCA3DE-A822-4011-9A45-9A478D0C13FB}" name="Referencia" dataDxfId="21"/>
-    <tableColumn id="2" xr3:uid="{DFC92D2B-A5E7-48FA-878B-9C271085C627}" name="calle" dataDxfId="20"/>
-    <tableColumn id="3" xr3:uid="{F6969306-72AD-4295-A677-F1CD3D712354}" name="1" dataDxfId="19"/>
-    <tableColumn id="4" xr3:uid="{4608FC47-CC61-4C76-9C38-0C657C173AE1}" name="2" dataDxfId="18"/>
-    <tableColumn id="5" xr3:uid="{40DA8E0B-9A93-417E-A6DC-599C0C422FC4}" name="3" dataDxfId="17"/>
-    <tableColumn id="6" xr3:uid="{07300A1E-E462-4C41-AC0E-44B39BEF54A3}" name="4" dataDxfId="16"/>
-    <tableColumn id="7" xr3:uid="{5B1D248D-79B2-47E7-96A6-1C192C00525D}" name="5" dataDxfId="15"/>
-    <tableColumn id="8" xr3:uid="{04AC6036-2005-414E-B3B2-23BC04CDA514}" name="6" dataDxfId="14"/>
-    <tableColumn id="9" xr3:uid="{D40CD1F9-347C-4476-A9C2-75D110668527}" name="7" dataDxfId="13"/>
-    <tableColumn id="10" xr3:uid="{84CDA245-7F68-4FE1-9614-DAB683985A88}" name="8" dataDxfId="12"/>
+    <tableColumn id="1" xr3:uid="{C2BCA3DE-A822-4011-9A45-9A478D0C13FB}" name="Referencia" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{DFC92D2B-A5E7-48FA-878B-9C271085C627}" name="calle" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{F6969306-72AD-4295-A677-F1CD3D712354}" name="1" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{4608FC47-CC61-4C76-9C38-0C657C173AE1}" name="2" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{40DA8E0B-9A93-417E-A6DC-599C0C422FC4}" name="3" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{07300A1E-E462-4C41-AC0E-44B39BEF54A3}" name="4" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{5B1D248D-79B2-47E7-96A6-1C192C00525D}" name="5" dataDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{04AC6036-2005-414E-B3B2-23BC04CDA514}" name="6" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{D40CD1F9-347C-4476-A9C2-75D110668527}" name="7" dataDxfId="2"/>
+    <tableColumn id="10" xr3:uid="{84CDA245-7F68-4FE1-9614-DAB683985A88}" name="8" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1826,8 +1826,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B4921FE-0515-4240-9072-541F4458CC70}">
   <dimension ref="B2:G469"/>
   <sheetViews>
-    <sheetView topLeftCell="A440" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3:G469"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1875,7 +1875,9 @@
       <c r="F3" s="1">
         <v>254.54545450000001</v>
       </c>
-      <c r="G3" s="1"/>
+      <c r="G3" s="1">
+        <v>34</v>
+      </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
@@ -1893,7 +1895,9 @@
       <c r="F4" s="1">
         <v>254.54545450000001</v>
       </c>
-      <c r="G4" s="1"/>
+      <c r="G4" s="1">
+        <v>33</v>
+      </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
@@ -1911,7 +1915,9 @@
       <c r="F5" s="1">
         <v>254.54545450000001</v>
       </c>
-      <c r="G5" s="1"/>
+      <c r="G5" s="1">
+        <v>11</v>
+      </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
@@ -1929,7 +1935,9 @@
       <c r="F6" s="1">
         <v>254.54545450000001</v>
       </c>
-      <c r="G6" s="1"/>
+      <c r="G6" s="1">
+        <v>29</v>
+      </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
@@ -1947,7 +1955,9 @@
       <c r="F7" s="1">
         <v>254.54545450000001</v>
       </c>
-      <c r="G7" s="1"/>
+      <c r="G7" s="1">
+        <v>78</v>
+      </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
@@ -1965,7 +1975,9 @@
       <c r="F8" s="1">
         <v>254.54545450000001</v>
       </c>
-      <c r="G8" s="1"/>
+      <c r="G8" s="1">
+        <v>22</v>
+      </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
@@ -1983,7 +1995,9 @@
       <c r="F9" s="1">
         <v>254.54545450000001</v>
       </c>
-      <c r="G9" s="1"/>
+      <c r="G9" s="1">
+        <v>50</v>
+      </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
@@ -2001,7 +2015,9 @@
       <c r="F10" s="1">
         <v>254.54545450000001</v>
       </c>
-      <c r="G10" s="1"/>
+      <c r="G10" s="1">
+        <v>6</v>
+      </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
@@ -2019,7 +2035,9 @@
       <c r="F11" s="1">
         <v>254.54545450000001</v>
       </c>
-      <c r="G11" s="1"/>
+      <c r="G11" s="1">
+        <v>21</v>
+      </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
@@ -2037,7 +2055,9 @@
       <c r="F12" s="1">
         <v>254.54545450000001</v>
       </c>
-      <c r="G12" s="1"/>
+      <c r="G12" s="1">
+        <v>65</v>
+      </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
@@ -2055,7 +2075,9 @@
       <c r="F13" s="1">
         <v>254.54545450000001</v>
       </c>
-      <c r="G13" s="1"/>
+      <c r="G13" s="1">
+        <v>43</v>
+      </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
@@ -2073,7 +2095,9 @@
       <c r="F14" s="1">
         <v>254.54545450000001</v>
       </c>
-      <c r="G14" s="1"/>
+      <c r="G14" s="1">
+        <v>74</v>
+      </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
@@ -2091,7 +2115,9 @@
       <c r="F15" s="1">
         <v>254.54545450000001</v>
       </c>
-      <c r="G15" s="1"/>
+      <c r="G15" s="1">
+        <v>12</v>
+      </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
@@ -2109,7 +2135,9 @@
       <c r="F16" s="1">
         <v>254.54545450000001</v>
       </c>
-      <c r="G16" s="1"/>
+      <c r="G16" s="1">
+        <v>38</v>
+      </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
@@ -2127,7 +2155,9 @@
       <c r="F17" s="1">
         <v>254.54545450000001</v>
       </c>
-      <c r="G17" s="1"/>
+      <c r="G17" s="1">
+        <v>66</v>
+      </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
@@ -2145,7 +2175,9 @@
       <c r="F18" s="1">
         <v>254.54545450000001</v>
       </c>
-      <c r="G18" s="1"/>
+      <c r="G18" s="1">
+        <v>26</v>
+      </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
@@ -2163,7 +2195,9 @@
       <c r="F19" s="1">
         <v>254.54545450000001</v>
       </c>
-      <c r="G19" s="1"/>
+      <c r="G19" s="1">
+        <v>30</v>
+      </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
@@ -2181,7 +2215,9 @@
       <c r="F20" s="1">
         <v>254.54545450000001</v>
       </c>
-      <c r="G20" s="1"/>
+      <c r="G20" s="1">
+        <v>17</v>
+      </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
@@ -2199,7 +2235,9 @@
       <c r="F21" s="1">
         <v>254.54545450000001</v>
       </c>
-      <c r="G21" s="1"/>
+      <c r="G21" s="1">
+        <v>27</v>
+      </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
@@ -2217,7 +2255,9 @@
       <c r="F22" s="1">
         <v>254.54545450000001</v>
       </c>
-      <c r="G22" s="1"/>
+      <c r="G22" s="1">
+        <v>30</v>
+      </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
@@ -2235,7 +2275,9 @@
       <c r="F23" s="1">
         <v>254.54545450000001</v>
       </c>
-      <c r="G23" s="1"/>
+      <c r="G23" s="1">
+        <v>78</v>
+      </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
@@ -2253,7 +2295,9 @@
       <c r="F24" s="1">
         <v>254.54545450000001</v>
       </c>
-      <c r="G24" s="1"/>
+      <c r="G24" s="1">
+        <v>23</v>
+      </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
@@ -2271,7 +2315,9 @@
       <c r="F25" s="1">
         <v>259.09090909999998</v>
       </c>
-      <c r="G25" s="1"/>
+      <c r="G25" s="1">
+        <v>19</v>
+      </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
@@ -2289,7 +2335,9 @@
       <c r="F26" s="1">
         <v>259.09090909999998</v>
       </c>
-      <c r="G26" s="1"/>
+      <c r="G26" s="1">
+        <v>78</v>
+      </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
@@ -2307,7 +2355,9 @@
       <c r="F27" s="1">
         <v>259.09090909999998</v>
       </c>
-      <c r="G27" s="1"/>
+      <c r="G27" s="1">
+        <v>18</v>
+      </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
@@ -2325,7 +2375,9 @@
       <c r="F28" s="1">
         <v>259.09090909999998</v>
       </c>
-      <c r="G28" s="1"/>
+      <c r="G28" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
@@ -2343,7 +2395,9 @@
       <c r="F29" s="1">
         <v>259.09090909999998</v>
       </c>
-      <c r="G29" s="1"/>
+      <c r="G29" s="1">
+        <v>70</v>
+      </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
@@ -2361,7 +2415,9 @@
       <c r="F30" s="1">
         <v>259.09090909999998</v>
       </c>
-      <c r="G30" s="1"/>
+      <c r="G30" s="1">
+        <v>6</v>
+      </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
@@ -2379,7 +2435,9 @@
       <c r="F31" s="1">
         <v>259.09090909999998</v>
       </c>
-      <c r="G31" s="1"/>
+      <c r="G31" s="1">
+        <v>24</v>
+      </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
@@ -2397,7 +2455,9 @@
       <c r="F32" s="1">
         <v>259.09090909999998</v>
       </c>
-      <c r="G32" s="1"/>
+      <c r="G32" s="1">
+        <v>55</v>
+      </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="1" t="s">
@@ -2415,7 +2475,9 @@
       <c r="F33" s="1">
         <v>259.09090909999998</v>
       </c>
-      <c r="G33" s="1"/>
+      <c r="G33" s="1">
+        <v>75</v>
+      </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
@@ -2433,7 +2495,9 @@
       <c r="F34" s="1">
         <v>259.09090909999998</v>
       </c>
-      <c r="G34" s="1"/>
+      <c r="G34" s="1">
+        <v>64</v>
+      </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
@@ -2451,7 +2515,9 @@
       <c r="F35" s="1">
         <v>259.09090909999998</v>
       </c>
-      <c r="G35" s="1"/>
+      <c r="G35" s="1">
+        <v>63</v>
+      </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" s="1" t="s">
@@ -2469,7 +2535,9 @@
       <c r="F36" s="1">
         <v>237.5</v>
       </c>
-      <c r="G36" s="1"/>
+      <c r="G36" s="1">
+        <v>34</v>
+      </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37" s="1" t="s">
@@ -2487,7 +2555,9 @@
       <c r="F37" s="1">
         <v>237.5</v>
       </c>
-      <c r="G37" s="1"/>
+      <c r="G37" s="1">
+        <v>68</v>
+      </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B38" s="1" t="s">
@@ -2505,7 +2575,9 @@
       <c r="F38" s="1">
         <v>237.5</v>
       </c>
-      <c r="G38" s="1"/>
+      <c r="G38" s="1">
+        <v>41</v>
+      </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B39" s="1" t="s">
@@ -2523,7 +2595,9 @@
       <c r="F39" s="1">
         <v>237.5</v>
       </c>
-      <c r="G39" s="1"/>
+      <c r="G39" s="1">
+        <v>51</v>
+      </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
@@ -2541,7 +2615,9 @@
       <c r="F40" s="1">
         <v>237.5</v>
       </c>
-      <c r="G40" s="1"/>
+      <c r="G40" s="1">
+        <v>49</v>
+      </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
@@ -2559,7 +2635,9 @@
       <c r="F41" s="1">
         <v>237.5</v>
       </c>
-      <c r="G41" s="1"/>
+      <c r="G41" s="1">
+        <v>12</v>
+      </c>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
@@ -2577,7 +2655,9 @@
       <c r="F42" s="1">
         <v>237.5</v>
       </c>
-      <c r="G42" s="1"/>
+      <c r="G42" s="1">
+        <v>19</v>
+      </c>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
@@ -2595,7 +2675,9 @@
       <c r="F43" s="1">
         <v>237.5</v>
       </c>
-      <c r="G43" s="1"/>
+      <c r="G43" s="1">
+        <v>7</v>
+      </c>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B44" s="1" t="s">
@@ -2613,7 +2695,9 @@
       <c r="F44" s="1">
         <v>237.5</v>
       </c>
-      <c r="G44" s="1"/>
+      <c r="G44" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B45" s="1" t="s">
@@ -2631,7 +2715,9 @@
       <c r="F45" s="1">
         <v>237.5</v>
       </c>
-      <c r="G45" s="1"/>
+      <c r="G45" s="1">
+        <v>63</v>
+      </c>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B46" s="1" t="s">
@@ -2649,7 +2735,9 @@
       <c r="F46" s="1">
         <v>237.5</v>
       </c>
-      <c r="G46" s="1"/>
+      <c r="G46" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B47" s="1" t="s">
@@ -2667,7 +2755,9 @@
       <c r="F47" s="1">
         <v>237.5</v>
       </c>
-      <c r="G47" s="1"/>
+      <c r="G47" s="1">
+        <v>11</v>
+      </c>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B48" s="1" t="s">
@@ -2685,7 +2775,9 @@
       <c r="F48" s="1">
         <v>241.66666670000001</v>
       </c>
-      <c r="G48" s="1"/>
+      <c r="G48" s="1">
+        <v>77</v>
+      </c>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B49" s="1" t="s">
@@ -2703,7 +2795,9 @@
       <c r="F49" s="1">
         <v>241.66666670000001</v>
       </c>
-      <c r="G49" s="1"/>
+      <c r="G49" s="1">
+        <v>18</v>
+      </c>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B50" s="1" t="s">
@@ -2721,7 +2815,9 @@
       <c r="F50" s="1">
         <v>241.66666670000001</v>
       </c>
-      <c r="G50" s="1"/>
+      <c r="G50" s="1">
+        <v>12</v>
+      </c>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B51" s="1" t="s">
@@ -2739,7 +2835,9 @@
       <c r="F51" s="1">
         <v>241.66666670000001</v>
       </c>
-      <c r="G51" s="1"/>
+      <c r="G51" s="1">
+        <v>17</v>
+      </c>
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B52" s="1" t="s">
@@ -2757,7 +2855,9 @@
       <c r="F52" s="1">
         <v>241.66666670000001</v>
       </c>
-      <c r="G52" s="1"/>
+      <c r="G52" s="1">
+        <v>55</v>
+      </c>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B53" s="1" t="s">
@@ -2775,7 +2875,9 @@
       <c r="F53" s="1">
         <v>241.66666670000001</v>
       </c>
-      <c r="G53" s="1"/>
+      <c r="G53" s="1">
+        <v>52</v>
+      </c>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B54" s="1" t="s">
@@ -2793,7 +2895,9 @@
       <c r="F54" s="1">
         <v>241.66666670000001</v>
       </c>
-      <c r="G54" s="1"/>
+      <c r="G54" s="1">
+        <v>34</v>
+      </c>
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B55" s="1" t="s">
@@ -2811,7 +2915,9 @@
       <c r="F55" s="1">
         <v>241.66666670000001</v>
       </c>
-      <c r="G55" s="1"/>
+      <c r="G55" s="1">
+        <v>68</v>
+      </c>
     </row>
     <row r="56" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B56" s="1" t="s">
@@ -2829,7 +2935,9 @@
       <c r="F56" s="1">
         <v>241.66666670000001</v>
       </c>
-      <c r="G56" s="1"/>
+      <c r="G56" s="1">
+        <v>11</v>
+      </c>
     </row>
     <row r="57" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B57" s="1" t="s">
@@ -2847,7 +2955,9 @@
       <c r="F57" s="1">
         <v>241.66666670000001</v>
       </c>
-      <c r="G57" s="1"/>
+      <c r="G57" s="1">
+        <v>6</v>
+      </c>
     </row>
     <row r="58" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B58" s="1" t="s">
@@ -2865,7 +2975,9 @@
       <c r="F58" s="1">
         <v>241.66666670000001</v>
       </c>
-      <c r="G58" s="1"/>
+      <c r="G58" s="1">
+        <v>30</v>
+      </c>
     </row>
     <row r="59" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B59" s="1" t="s">
@@ -2883,7 +2995,9 @@
       <c r="F59" s="1">
         <v>241.66666670000001</v>
       </c>
-      <c r="G59" s="1"/>
+      <c r="G59" s="1">
+        <v>36</v>
+      </c>
     </row>
     <row r="60" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B60" s="1" t="s">
@@ -2901,7 +3015,9 @@
       <c r="F60" s="1">
         <v>263.63636359999998</v>
       </c>
-      <c r="G60" s="1"/>
+      <c r="G60" s="1">
+        <v>51</v>
+      </c>
     </row>
     <row r="61" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B61" s="1" t="s">
@@ -2919,7 +3035,9 @@
       <c r="F61" s="1">
         <v>263.63636359999998</v>
       </c>
-      <c r="G61" s="1"/>
+      <c r="G61" s="1">
+        <v>38</v>
+      </c>
     </row>
     <row r="62" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B62" s="1" t="s">
@@ -2937,7 +3055,9 @@
       <c r="F62" s="1">
         <v>263.63636359999998</v>
       </c>
-      <c r="G62" s="1"/>
+      <c r="G62" s="1">
+        <v>58</v>
+      </c>
     </row>
     <row r="63" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B63" s="1" t="s">
@@ -2955,7 +3075,9 @@
       <c r="F63" s="1">
         <v>263.63636359999998</v>
       </c>
-      <c r="G63" s="1"/>
+      <c r="G63" s="1">
+        <v>79</v>
+      </c>
     </row>
     <row r="64" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B64" s="1" t="s">
@@ -2973,7 +3095,9 @@
       <c r="F64" s="1">
         <v>263.63636359999998</v>
       </c>
-      <c r="G64" s="1"/>
+      <c r="G64" s="1">
+        <v>69</v>
+      </c>
     </row>
     <row r="65" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B65" s="1" t="s">
@@ -2991,7 +3115,9 @@
       <c r="F65" s="1">
         <v>263.63636359999998</v>
       </c>
-      <c r="G65" s="1"/>
+      <c r="G65" s="1">
+        <v>40</v>
+      </c>
     </row>
     <row r="66" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B66" s="1" t="s">
@@ -3009,7 +3135,9 @@
       <c r="F66" s="1">
         <v>263.63636359999998</v>
       </c>
-      <c r="G66" s="1"/>
+      <c r="G66" s="1">
+        <v>67</v>
+      </c>
     </row>
     <row r="67" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B67" s="1" t="s">
@@ -3027,7 +3155,9 @@
       <c r="F67" s="1">
         <v>263.63636359999998</v>
       </c>
-      <c r="G67" s="1"/>
+      <c r="G67" s="1">
+        <v>35</v>
+      </c>
     </row>
     <row r="68" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B68" s="1" t="s">
@@ -3045,7 +3175,9 @@
       <c r="F68" s="1">
         <v>263.63636359999998</v>
       </c>
-      <c r="G68" s="1"/>
+      <c r="G68" s="1">
+        <v>49</v>
+      </c>
     </row>
     <row r="69" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B69" s="1" t="s">
@@ -3063,7 +3195,9 @@
       <c r="F69" s="1">
         <v>263.63636359999998</v>
       </c>
-      <c r="G69" s="1"/>
+      <c r="G69" s="1">
+        <v>65</v>
+      </c>
     </row>
     <row r="70" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B70" s="1" t="s">
@@ -3081,7 +3215,9 @@
       <c r="F70" s="1">
         <v>263.63636359999998</v>
       </c>
-      <c r="G70" s="1"/>
+      <c r="G70" s="1">
+        <v>28</v>
+      </c>
     </row>
     <row r="71" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B71" s="1" t="s">
@@ -3099,7 +3235,9 @@
       <c r="F71" s="1">
         <v>241.66666670000001</v>
       </c>
-      <c r="G71" s="1"/>
+      <c r="G71" s="1">
+        <v>9</v>
+      </c>
     </row>
     <row r="72" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B72" s="1" t="s">
@@ -3117,7 +3255,9 @@
       <c r="F72" s="1">
         <v>241.66666670000001</v>
       </c>
-      <c r="G72" s="1"/>
+      <c r="G72" s="1">
+        <v>47</v>
+      </c>
     </row>
     <row r="73" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B73" s="1" t="s">
@@ -3135,7 +3275,9 @@
       <c r="F73" s="1">
         <v>241.66666670000001</v>
       </c>
-      <c r="G73" s="1"/>
+      <c r="G73" s="1">
+        <v>73</v>
+      </c>
     </row>
     <row r="74" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B74" s="1" t="s">
@@ -3153,7 +3295,9 @@
       <c r="F74" s="1">
         <v>241.66666670000001</v>
       </c>
-      <c r="G74" s="1"/>
+      <c r="G74" s="1">
+        <v>29</v>
+      </c>
     </row>
     <row r="75" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B75" s="1" t="s">
@@ -3171,7 +3315,9 @@
       <c r="F75" s="1">
         <v>241.66666670000001</v>
       </c>
-      <c r="G75" s="1"/>
+      <c r="G75" s="1">
+        <v>22</v>
+      </c>
     </row>
     <row r="76" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B76" s="1" t="s">
@@ -3189,7 +3335,9 @@
       <c r="F76" s="1">
         <v>241.66666670000001</v>
       </c>
-      <c r="G76" s="1"/>
+      <c r="G76" s="1">
+        <v>55</v>
+      </c>
     </row>
     <row r="77" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B77" s="1" t="s">
@@ -3207,7 +3355,9 @@
       <c r="F77" s="1">
         <v>241.66666670000001</v>
       </c>
-      <c r="G77" s="1"/>
+      <c r="G77" s="1">
+        <v>13</v>
+      </c>
     </row>
     <row r="78" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B78" s="1" t="s">
@@ -3225,7 +3375,9 @@
       <c r="F78" s="1">
         <v>241.66666670000001</v>
       </c>
-      <c r="G78" s="1"/>
+      <c r="G78" s="1">
+        <v>74</v>
+      </c>
     </row>
     <row r="79" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B79" s="1" t="s">
@@ -3243,7 +3395,9 @@
       <c r="F79" s="1">
         <v>241.66666670000001</v>
       </c>
-      <c r="G79" s="1"/>
+      <c r="G79" s="1">
+        <v>51</v>
+      </c>
     </row>
     <row r="80" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B80" s="1" t="s">
@@ -3261,7 +3415,9 @@
       <c r="F80" s="1">
         <v>241.66666670000001</v>
       </c>
-      <c r="G80" s="1"/>
+      <c r="G80" s="1">
+        <v>63</v>
+      </c>
     </row>
     <row r="81" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B81" s="1" t="s">
@@ -3279,7 +3435,9 @@
       <c r="F81" s="1">
         <v>241.66666670000001</v>
       </c>
-      <c r="G81" s="1"/>
+      <c r="G81" s="1">
+        <v>19</v>
+      </c>
     </row>
     <row r="82" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B82" s="1" t="s">
@@ -3297,7 +3455,9 @@
       <c r="F82" s="1">
         <v>241.66666670000001</v>
       </c>
-      <c r="G82" s="1"/>
+      <c r="G82" s="1">
+        <v>62</v>
+      </c>
     </row>
     <row r="83" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B83" s="1" t="s">
@@ -3315,7 +3475,9 @@
       <c r="F83" s="1">
         <v>272.72727270000001</v>
       </c>
-      <c r="G83" s="1"/>
+      <c r="G83" s="1">
+        <v>11</v>
+      </c>
     </row>
     <row r="84" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B84" s="1" t="s">
@@ -3333,7 +3495,9 @@
       <c r="F84" s="1">
         <v>272.72727270000001</v>
       </c>
-      <c r="G84" s="1"/>
+      <c r="G84" s="1">
+        <v>45</v>
+      </c>
     </row>
     <row r="85" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B85" s="1" t="s">
@@ -3351,7 +3515,9 @@
       <c r="F85" s="1">
         <v>272.72727270000001</v>
       </c>
-      <c r="G85" s="1"/>
+      <c r="G85" s="1">
+        <v>63</v>
+      </c>
     </row>
     <row r="86" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B86" s="1" t="s">
@@ -3369,7 +3535,9 @@
       <c r="F86" s="1">
         <v>272.72727270000001</v>
       </c>
-      <c r="G86" s="1"/>
+      <c r="G86" s="1">
+        <v>50</v>
+      </c>
     </row>
     <row r="87" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B87" s="1" t="s">
@@ -3387,7 +3555,9 @@
       <c r="F87" s="1">
         <v>272.72727270000001</v>
       </c>
-      <c r="G87" s="1"/>
+      <c r="G87" s="1">
+        <v>72</v>
+      </c>
     </row>
     <row r="88" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B88" s="1" t="s">
@@ -3405,7 +3575,9 @@
       <c r="F88" s="1">
         <v>272.72727270000001</v>
       </c>
-      <c r="G88" s="1"/>
+      <c r="G88" s="1">
+        <v>60</v>
+      </c>
     </row>
     <row r="89" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B89" s="1" t="s">
@@ -3423,7 +3595,9 @@
       <c r="F89" s="1">
         <v>272.72727270000001</v>
       </c>
-      <c r="G89" s="1"/>
+      <c r="G89" s="1">
+        <v>78</v>
+      </c>
     </row>
     <row r="90" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B90" s="1" t="s">
@@ -3441,7 +3615,9 @@
       <c r="F90" s="1">
         <v>272.72727270000001</v>
       </c>
-      <c r="G90" s="1"/>
+      <c r="G90" s="1">
+        <v>65</v>
+      </c>
     </row>
     <row r="91" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B91" s="1" t="s">
@@ -3459,7 +3635,9 @@
       <c r="F91" s="1">
         <v>272.72727270000001</v>
       </c>
-      <c r="G91" s="1"/>
+      <c r="G91" s="1">
+        <v>68</v>
+      </c>
     </row>
     <row r="92" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B92" s="1" t="s">
@@ -3477,7 +3655,9 @@
       <c r="F92" s="1">
         <v>272.72727270000001</v>
       </c>
-      <c r="G92" s="1"/>
+      <c r="G92" s="1">
+        <v>9</v>
+      </c>
     </row>
     <row r="93" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B93" s="1" t="s">
@@ -3495,7 +3675,9 @@
       <c r="F93" s="1">
         <v>272.72727270000001</v>
       </c>
-      <c r="G93" s="1"/>
+      <c r="G93" s="1">
+        <v>55</v>
+      </c>
     </row>
     <row r="94" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B94" s="1" t="s">
@@ -3513,7 +3695,9 @@
       <c r="F94" s="1">
         <v>281.81818179999999</v>
       </c>
-      <c r="G94" s="1"/>
+      <c r="G94" s="1">
+        <v>15</v>
+      </c>
     </row>
     <row r="95" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B95" s="1" t="s">
@@ -3531,7 +3715,9 @@
       <c r="F95" s="1">
         <v>281.81818179999999</v>
       </c>
-      <c r="G95" s="1"/>
+      <c r="G95" s="1">
+        <v>52</v>
+      </c>
     </row>
     <row r="96" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B96" s="1" t="s">
@@ -3549,7 +3735,9 @@
       <c r="F96" s="1">
         <v>281.81818179999999</v>
       </c>
-      <c r="G96" s="1"/>
+      <c r="G96" s="1">
+        <v>61</v>
+      </c>
     </row>
     <row r="97" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B97" s="1" t="s">
@@ -3567,7 +3755,9 @@
       <c r="F97" s="1">
         <v>281.81818179999999</v>
       </c>
-      <c r="G97" s="1"/>
+      <c r="G97" s="1">
+        <v>65</v>
+      </c>
     </row>
     <row r="98" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B98" s="1" t="s">
@@ -3585,7 +3775,9 @@
       <c r="F98" s="1">
         <v>281.81818179999999</v>
       </c>
-      <c r="G98" s="1"/>
+      <c r="G98" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="99" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B99" s="1" t="s">
@@ -3603,7 +3795,9 @@
       <c r="F99" s="1">
         <v>281.81818179999999</v>
       </c>
-      <c r="G99" s="1"/>
+      <c r="G99" s="1">
+        <v>24</v>
+      </c>
     </row>
     <row r="100" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B100" s="1" t="s">
@@ -3621,7 +3815,9 @@
       <c r="F100" s="1">
         <v>281.81818179999999</v>
       </c>
-      <c r="G100" s="1"/>
+      <c r="G100" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="101" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B101" s="1" t="s">
@@ -3639,7 +3835,9 @@
       <c r="F101" s="1">
         <v>281.81818179999999</v>
       </c>
-      <c r="G101" s="1"/>
+      <c r="G101" s="1">
+        <v>35</v>
+      </c>
     </row>
     <row r="102" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B102" s="1" t="s">
@@ -3657,7 +3855,9 @@
       <c r="F102" s="1">
         <v>281.81818179999999</v>
       </c>
-      <c r="G102" s="1"/>
+      <c r="G102" s="1">
+        <v>46</v>
+      </c>
     </row>
     <row r="103" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B103" s="1" t="s">
@@ -3675,7 +3875,9 @@
       <c r="F103" s="1">
         <v>281.81818179999999</v>
       </c>
-      <c r="G103" s="1"/>
+      <c r="G103" s="1">
+        <v>78</v>
+      </c>
     </row>
     <row r="104" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B104" s="1" t="s">
@@ -3693,7 +3895,9 @@
       <c r="F104" s="1">
         <v>281.81818179999999</v>
       </c>
-      <c r="G104" s="1"/>
+      <c r="G104" s="1">
+        <v>64</v>
+      </c>
     </row>
     <row r="105" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B105" s="1" t="s">
@@ -3711,7 +3915,9 @@
       <c r="F105" s="1">
         <v>258.33333329999999</v>
       </c>
-      <c r="G105" s="1"/>
+      <c r="G105" s="1">
+        <v>20</v>
+      </c>
     </row>
     <row r="106" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B106" s="1" t="s">
@@ -3729,7 +3935,9 @@
       <c r="F106" s="1">
         <v>258.33333329999999</v>
       </c>
-      <c r="G106" s="1"/>
+      <c r="G106" s="1">
+        <v>35</v>
+      </c>
     </row>
     <row r="107" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B107" s="1" t="s">
@@ -3747,7 +3955,9 @@
       <c r="F107" s="1">
         <v>258.33333329999999</v>
       </c>
-      <c r="G107" s="1"/>
+      <c r="G107" s="1">
+        <v>66</v>
+      </c>
     </row>
     <row r="108" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B108" s="1" t="s">
@@ -3765,7 +3975,9 @@
       <c r="F108" s="1">
         <v>258.33333329999999</v>
       </c>
-      <c r="G108" s="1"/>
+      <c r="G108" s="1">
+        <v>68</v>
+      </c>
     </row>
     <row r="109" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B109" s="1" t="s">
@@ -3783,7 +3995,9 @@
       <c r="F109" s="1">
         <v>258.33333329999999</v>
       </c>
-      <c r="G109" s="1"/>
+      <c r="G109" s="1">
+        <v>20</v>
+      </c>
     </row>
     <row r="110" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B110" s="1" t="s">
@@ -3801,7 +4015,9 @@
       <c r="F110" s="1">
         <v>258.33333329999999</v>
       </c>
-      <c r="G110" s="1"/>
+      <c r="G110" s="1">
+        <v>50</v>
+      </c>
     </row>
     <row r="111" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B111" s="1" t="s">
@@ -3819,7 +4035,9 @@
       <c r="F111" s="1">
         <v>258.33333329999999</v>
       </c>
-      <c r="G111" s="1"/>
+      <c r="G111" s="1">
+        <v>61</v>
+      </c>
     </row>
     <row r="112" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B112" s="1" t="s">
@@ -3837,7 +4055,9 @@
       <c r="F112" s="1">
         <v>258.33333329999999</v>
       </c>
-      <c r="G112" s="1"/>
+      <c r="G112" s="1">
+        <v>15</v>
+      </c>
     </row>
     <row r="113" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B113" s="1" t="s">
@@ -3855,7 +4075,9 @@
       <c r="F113" s="1">
         <v>258.33333329999999</v>
       </c>
-      <c r="G113" s="1"/>
+      <c r="G113" s="1">
+        <v>77</v>
+      </c>
     </row>
     <row r="114" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B114" s="1" t="s">
@@ -3873,7 +4095,9 @@
       <c r="F114" s="1">
         <v>258.33333329999999</v>
       </c>
-      <c r="G114" s="1"/>
+      <c r="G114" s="1">
+        <v>11</v>
+      </c>
     </row>
     <row r="115" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B115" s="1" t="s">
@@ -3891,7 +4115,9 @@
       <c r="F115" s="1">
         <v>258.33333329999999</v>
       </c>
-      <c r="G115" s="1"/>
+      <c r="G115" s="1">
+        <v>72</v>
+      </c>
     </row>
     <row r="116" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B116" s="1" t="s">
@@ -3909,7 +4135,9 @@
       <c r="F116" s="1">
         <v>258.33333329999999</v>
       </c>
-      <c r="G116" s="1"/>
+      <c r="G116" s="1">
+        <v>16</v>
+      </c>
     </row>
     <row r="117" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B117" s="1" t="s">
@@ -3927,7 +4155,9 @@
       <c r="F117" s="1">
         <v>370</v>
       </c>
-      <c r="G117" s="1"/>
+      <c r="G117" s="1">
+        <v>43</v>
+      </c>
     </row>
     <row r="118" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B118" s="1" t="s">
@@ -3945,7 +4175,9 @@
       <c r="F118" s="1">
         <v>190</v>
       </c>
-      <c r="G118" s="1"/>
+      <c r="G118" s="1">
+        <v>15</v>
+      </c>
     </row>
     <row r="119" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B119" s="1" t="s">
@@ -3963,7 +4195,9 @@
       <c r="F119" s="1">
         <v>420</v>
       </c>
-      <c r="G119" s="1"/>
+      <c r="G119" s="1">
+        <v>17</v>
+      </c>
     </row>
     <row r="120" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B120" s="1" t="s">
@@ -3981,7 +4215,9 @@
       <c r="F120" s="1">
         <v>165</v>
       </c>
-      <c r="G120" s="1"/>
+      <c r="G120" s="1">
+        <v>58</v>
+      </c>
     </row>
     <row r="121" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B121" s="1" t="s">
@@ -3999,7 +4235,9 @@
       <c r="F121" s="1">
         <v>170</v>
       </c>
-      <c r="G121" s="1"/>
+      <c r="G121" s="1">
+        <v>13</v>
+      </c>
     </row>
     <row r="122" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B122" s="1" t="s">
@@ -4017,7 +4255,9 @@
       <c r="F122" s="1">
         <v>120</v>
       </c>
-      <c r="G122" s="1"/>
+      <c r="G122" s="1">
+        <v>40</v>
+      </c>
     </row>
     <row r="123" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B123" s="1" t="s">
@@ -4035,7 +4275,9 @@
       <c r="F123" s="1">
         <v>270</v>
       </c>
-      <c r="G123" s="1"/>
+      <c r="G123" s="1">
+        <v>59</v>
+      </c>
     </row>
     <row r="124" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B124" s="1" t="s">
@@ -4053,7 +4295,9 @@
       <c r="F124" s="1">
         <v>190</v>
       </c>
-      <c r="G124" s="1"/>
+      <c r="G124" s="1">
+        <v>25</v>
+      </c>
     </row>
     <row r="125" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B125" s="1" t="s">
@@ -4071,7 +4315,9 @@
       <c r="F125" s="1">
         <v>710</v>
       </c>
-      <c r="G125" s="1"/>
+      <c r="G125" s="1">
+        <v>58</v>
+      </c>
     </row>
     <row r="126" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B126" s="1" t="s">
@@ -4089,7 +4335,9 @@
       <c r="F126" s="1">
         <v>175</v>
       </c>
-      <c r="G126" s="1"/>
+      <c r="G126" s="1">
+        <v>53</v>
+      </c>
     </row>
     <row r="127" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B127" s="1" t="s">
@@ -4107,7 +4355,9 @@
       <c r="F127" s="1">
         <v>115</v>
       </c>
-      <c r="G127" s="1"/>
+      <c r="G127" s="1">
+        <v>14</v>
+      </c>
     </row>
     <row r="128" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B128" s="1" t="s">
@@ -4125,7 +4375,9 @@
       <c r="F128" s="1">
         <v>140</v>
       </c>
-      <c r="G128" s="1"/>
+      <c r="G128" s="1">
+        <v>20</v>
+      </c>
     </row>
     <row r="129" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B129" s="1" t="s">
@@ -4143,7 +4395,9 @@
       <c r="F129" s="1">
         <v>170</v>
       </c>
-      <c r="G129" s="1"/>
+      <c r="G129" s="1">
+        <v>76</v>
+      </c>
     </row>
     <row r="130" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B130" s="1" t="s">
@@ -4161,7 +4415,9 @@
       <c r="F130" s="1">
         <v>400</v>
       </c>
-      <c r="G130" s="1"/>
+      <c r="G130" s="1">
+        <v>74</v>
+      </c>
     </row>
     <row r="131" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B131" s="1" t="s">
@@ -4179,7 +4435,9 @@
       <c r="F131" s="1">
         <v>150</v>
       </c>
-      <c r="G131" s="1"/>
+      <c r="G131" s="1">
+        <v>44</v>
+      </c>
     </row>
     <row r="132" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B132" s="1" t="s">
@@ -4197,7 +4455,9 @@
       <c r="F132" s="1">
         <v>490</v>
       </c>
-      <c r="G132" s="1"/>
+      <c r="G132" s="1">
+        <v>44</v>
+      </c>
     </row>
     <row r="133" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B133" s="1" t="s">
@@ -4215,7 +4475,9 @@
       <c r="F133" s="1">
         <v>340</v>
       </c>
-      <c r="G133" s="1"/>
+      <c r="G133" s="1">
+        <v>8</v>
+      </c>
     </row>
     <row r="134" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B134" s="1" t="s">
@@ -4233,7 +4495,9 @@
       <c r="F134" s="1">
         <v>120</v>
       </c>
-      <c r="G134" s="1"/>
+      <c r="G134" s="1">
+        <v>79</v>
+      </c>
     </row>
     <row r="135" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B135" s="1" t="s">
@@ -4251,7 +4515,9 @@
       <c r="F135" s="1">
         <v>340</v>
       </c>
-      <c r="G135" s="1"/>
+      <c r="G135" s="1">
+        <v>19</v>
+      </c>
     </row>
     <row r="136" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B136" s="1" t="s">
@@ -4269,7 +4535,9 @@
       <c r="F136" s="1">
         <v>160</v>
       </c>
-      <c r="G136" s="1"/>
+      <c r="G136" s="1">
+        <v>61</v>
+      </c>
     </row>
     <row r="137" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B137" s="1" t="s">
@@ -4285,7 +4553,9 @@
         <v>0</v>
       </c>
       <c r="F137" s="1"/>
-      <c r="G137" s="1"/>
+      <c r="G137" s="1">
+        <v>31</v>
+      </c>
     </row>
     <row r="138" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B138" s="1" t="s">
@@ -4301,7 +4571,9 @@
         <v>0</v>
       </c>
       <c r="F138" s="1"/>
-      <c r="G138" s="1"/>
+      <c r="G138" s="1">
+        <v>52</v>
+      </c>
     </row>
     <row r="139" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B139" s="1" t="s">
@@ -4317,7 +4589,9 @@
         <v>0</v>
       </c>
       <c r="F139" s="1"/>
-      <c r="G139" s="1"/>
+      <c r="G139" s="1">
+        <v>59</v>
+      </c>
     </row>
     <row r="140" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B140" s="1" t="s">
@@ -4333,7 +4607,9 @@
         <v>0</v>
       </c>
       <c r="F140" s="1"/>
-      <c r="G140" s="1"/>
+      <c r="G140" s="1">
+        <v>64</v>
+      </c>
     </row>
     <row r="141" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B141" s="1" t="s">
@@ -4349,7 +4625,9 @@
         <v>0</v>
       </c>
       <c r="F141" s="1"/>
-      <c r="G141" s="1"/>
+      <c r="G141" s="1">
+        <v>9</v>
+      </c>
     </row>
     <row r="142" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B142" s="1" t="s">
@@ -4367,7 +4645,9 @@
       <c r="F142" s="1">
         <v>370</v>
       </c>
-      <c r="G142" s="1"/>
+      <c r="G142" s="1">
+        <v>21</v>
+      </c>
     </row>
     <row r="143" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B143" s="1" t="s">
@@ -4385,7 +4665,9 @@
       <c r="F143" s="1">
         <v>170</v>
       </c>
-      <c r="G143" s="1"/>
+      <c r="G143" s="1">
+        <v>65</v>
+      </c>
     </row>
     <row r="144" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B144" s="1" t="s">
@@ -4403,7 +4685,9 @@
       <c r="F144" s="1">
         <v>560</v>
       </c>
-      <c r="G144" s="1"/>
+      <c r="G144" s="1">
+        <v>32</v>
+      </c>
     </row>
     <row r="145" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B145" s="1" t="s">
@@ -4421,7 +4705,9 @@
       <c r="F145" s="1">
         <v>180</v>
       </c>
-      <c r="G145" s="1"/>
+      <c r="G145" s="1">
+        <v>6</v>
+      </c>
     </row>
     <row r="146" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B146" s="1" t="s">
@@ -4439,7 +4725,9 @@
       <c r="F146" s="1">
         <v>170</v>
       </c>
-      <c r="G146" s="1"/>
+      <c r="G146" s="1">
+        <v>36</v>
+      </c>
     </row>
     <row r="147" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B147" s="1" t="s">
@@ -4457,7 +4745,9 @@
       <c r="F147" s="1">
         <v>140</v>
       </c>
-      <c r="G147" s="1"/>
+      <c r="G147" s="1">
+        <v>22</v>
+      </c>
     </row>
     <row r="148" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B148" s="1" t="s">
@@ -4475,7 +4765,9 @@
       <c r="F148" s="1">
         <v>300</v>
       </c>
-      <c r="G148" s="1"/>
+      <c r="G148" s="1">
+        <v>20</v>
+      </c>
     </row>
     <row r="149" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B149" s="1" t="s">
@@ -4493,7 +4785,9 @@
       <c r="F149" s="1">
         <v>310</v>
       </c>
-      <c r="G149" s="1"/>
+      <c r="G149" s="1">
+        <v>9</v>
+      </c>
     </row>
     <row r="150" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B150" s="1" t="s">
@@ -4511,7 +4805,9 @@
       <c r="F150" s="1">
         <v>500</v>
       </c>
-      <c r="G150" s="1"/>
+      <c r="G150" s="1">
+        <v>65</v>
+      </c>
     </row>
     <row r="151" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B151" s="1" t="s">
@@ -4529,7 +4825,9 @@
       <c r="F151" s="1">
         <v>260</v>
       </c>
-      <c r="G151" s="1"/>
+      <c r="G151" s="1">
+        <v>51</v>
+      </c>
     </row>
     <row r="152" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B152" s="1" t="s">
@@ -4547,7 +4845,9 @@
       <c r="F152" s="1">
         <v>160</v>
       </c>
-      <c r="G152" s="1"/>
+      <c r="G152" s="1">
+        <v>7</v>
+      </c>
     </row>
     <row r="153" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B153" s="1" t="s">
@@ -4565,7 +4865,9 @@
       <c r="F153" s="1">
         <v>160</v>
       </c>
-      <c r="G153" s="1"/>
+      <c r="G153" s="1">
+        <v>7</v>
+      </c>
     </row>
     <row r="154" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B154" s="1" t="s">
@@ -4583,7 +4885,9 @@
       <c r="F154" s="1">
         <v>340</v>
       </c>
-      <c r="G154" s="1"/>
+      <c r="G154" s="1">
+        <v>52</v>
+      </c>
     </row>
     <row r="155" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B155" s="1" t="s">
@@ -4601,7 +4905,9 @@
       <c r="F155" s="1">
         <v>180</v>
       </c>
-      <c r="G155" s="1"/>
+      <c r="G155" s="1">
+        <v>62</v>
+      </c>
     </row>
     <row r="156" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B156" s="1" t="s">
@@ -4619,7 +4925,9 @@
       <c r="F156" s="1">
         <v>640</v>
       </c>
-      <c r="G156" s="1"/>
+      <c r="G156" s="1">
+        <v>35</v>
+      </c>
     </row>
     <row r="157" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B157" s="1" t="s">
@@ -4637,7 +4945,9 @@
       <c r="F157" s="1">
         <v>210</v>
       </c>
-      <c r="G157" s="1"/>
+      <c r="G157" s="1">
+        <v>58</v>
+      </c>
     </row>
     <row r="158" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B158" s="1" t="s">
@@ -4655,7 +4965,9 @@
       <c r="F158" s="1">
         <v>270</v>
       </c>
-      <c r="G158" s="1"/>
+      <c r="G158" s="1">
+        <v>20</v>
+      </c>
     </row>
     <row r="159" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B159" s="1" t="s">
@@ -4673,7 +4985,9 @@
       <c r="F159" s="1">
         <v>310</v>
       </c>
-      <c r="G159" s="1"/>
+      <c r="G159" s="1">
+        <v>38</v>
+      </c>
     </row>
     <row r="160" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B160" s="1" t="s">
@@ -4691,7 +5005,9 @@
       <c r="F160" s="1">
         <v>320</v>
       </c>
-      <c r="G160" s="1"/>
+      <c r="G160" s="1">
+        <v>36</v>
+      </c>
     </row>
     <row r="161" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B161" s="1" t="s">
@@ -4709,7 +5025,9 @@
       <c r="F161" s="1">
         <v>480</v>
       </c>
-      <c r="G161" s="1"/>
+      <c r="G161" s="1">
+        <v>67</v>
+      </c>
     </row>
     <row r="162" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B162" s="1" t="s">
@@ -4727,7 +5045,9 @@
       <c r="F162" s="1">
         <v>210</v>
       </c>
-      <c r="G162" s="1"/>
+      <c r="G162" s="1">
+        <v>46</v>
+      </c>
     </row>
     <row r="163" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B163" s="1" t="s">
@@ -4745,7 +5065,9 @@
       <c r="F163" s="1">
         <v>310</v>
       </c>
-      <c r="G163" s="1"/>
+      <c r="G163" s="1">
+        <v>23</v>
+      </c>
     </row>
     <row r="164" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B164" s="1" t="s">
@@ -4761,7 +5083,9 @@
         <v>0</v>
       </c>
       <c r="F164" s="1"/>
-      <c r="G164" s="1"/>
+      <c r="G164" s="1">
+        <v>40</v>
+      </c>
     </row>
     <row r="165" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B165" s="1" t="s">
@@ -4777,7 +5101,9 @@
         <v>0</v>
       </c>
       <c r="F165" s="1"/>
-      <c r="G165" s="1"/>
+      <c r="G165" s="1">
+        <v>14</v>
+      </c>
     </row>
     <row r="166" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B166" s="1" t="s">
@@ -4795,7 +5121,9 @@
       <c r="F166" s="1">
         <v>250</v>
       </c>
-      <c r="G166" s="1"/>
+      <c r="G166" s="1">
+        <v>64</v>
+      </c>
     </row>
     <row r="167" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B167" s="1" t="s">
@@ -4813,7 +5141,9 @@
       <c r="F167" s="1">
         <v>690</v>
       </c>
-      <c r="G167" s="1"/>
+      <c r="G167" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="168" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B168" s="1" t="s">
@@ -4831,7 +5161,9 @@
       <c r="F168" s="1">
         <v>240</v>
       </c>
-      <c r="G168" s="1"/>
+      <c r="G168" s="1">
+        <v>35</v>
+      </c>
     </row>
     <row r="169" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B169" s="1" t="s">
@@ -4849,7 +5181,9 @@
       <c r="F169" s="1">
         <v>260</v>
       </c>
-      <c r="G169" s="1"/>
+      <c r="G169" s="1">
+        <v>12</v>
+      </c>
     </row>
     <row r="170" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B170" s="1" t="s">
@@ -4865,7 +5199,9 @@
         <v>0</v>
       </c>
       <c r="F170" s="1"/>
-      <c r="G170" s="1"/>
+      <c r="G170" s="1">
+        <v>43</v>
+      </c>
     </row>
     <row r="171" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B171" s="1" t="s">
@@ -4881,7 +5217,9 @@
         <v>0</v>
       </c>
       <c r="F171" s="1"/>
-      <c r="G171" s="1"/>
+      <c r="G171" s="1">
+        <v>66</v>
+      </c>
     </row>
     <row r="172" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B172" s="1" t="s">
@@ -4897,7 +5235,9 @@
         <v>0</v>
       </c>
       <c r="F172" s="1"/>
-      <c r="G172" s="1"/>
+      <c r="G172" s="1">
+        <v>74</v>
+      </c>
     </row>
     <row r="173" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B173" s="1" t="s">
@@ -4913,7 +5253,9 @@
         <v>0</v>
       </c>
       <c r="F173" s="1"/>
-      <c r="G173" s="1"/>
+      <c r="G173" s="1">
+        <v>27</v>
+      </c>
     </row>
     <row r="174" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B174" s="1" t="s">
@@ -4929,7 +5271,9 @@
         <v>0</v>
       </c>
       <c r="F174" s="1"/>
-      <c r="G174" s="1"/>
+      <c r="G174" s="1">
+        <v>10</v>
+      </c>
     </row>
     <row r="175" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B175" s="1" t="s">
@@ -4945,7 +5289,9 @@
         <v>0</v>
       </c>
       <c r="F175" s="1"/>
-      <c r="G175" s="1"/>
+      <c r="G175" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="176" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B176" s="1" t="s">
@@ -4963,7 +5309,9 @@
       <c r="F176" s="1">
         <v>750</v>
       </c>
-      <c r="G176" s="1"/>
+      <c r="G176" s="1">
+        <v>61</v>
+      </c>
     </row>
     <row r="177" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B177" s="1" t="s">
@@ -4981,7 +5329,9 @@
       <c r="F177" s="1">
         <v>170</v>
       </c>
-      <c r="G177" s="1"/>
+      <c r="G177" s="1">
+        <v>36</v>
+      </c>
     </row>
     <row r="178" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B178" s="1" t="s">
@@ -4999,7 +5349,9 @@
       <c r="F178" s="1">
         <v>270</v>
       </c>
-      <c r="G178" s="1"/>
+      <c r="G178" s="1">
+        <v>72</v>
+      </c>
     </row>
     <row r="179" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B179" s="1" t="s">
@@ -5017,7 +5369,9 @@
       <c r="F179" s="1">
         <v>610</v>
       </c>
-      <c r="G179" s="1"/>
+      <c r="G179" s="1">
+        <v>73</v>
+      </c>
     </row>
     <row r="180" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B180" s="1" t="s">
@@ -5035,7 +5389,9 @@
       <c r="F180" s="1">
         <v>530</v>
       </c>
-      <c r="G180" s="1"/>
+      <c r="G180" s="1">
+        <v>13</v>
+      </c>
     </row>
     <row r="181" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B181" s="1" t="s">
@@ -5053,7 +5409,9 @@
       <c r="F181" s="1">
         <v>310</v>
       </c>
-      <c r="G181" s="1"/>
+      <c r="G181" s="1">
+        <v>31</v>
+      </c>
     </row>
     <row r="182" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B182" s="1" t="s">
@@ -5071,7 +5429,9 @@
       <c r="F182" s="1">
         <v>310</v>
       </c>
-      <c r="G182" s="1"/>
+      <c r="G182" s="1">
+        <v>13</v>
+      </c>
     </row>
     <row r="183" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B183" s="1" t="s">
@@ -5087,7 +5447,9 @@
         <v>0</v>
       </c>
       <c r="F183" s="1"/>
-      <c r="G183" s="1"/>
+      <c r="G183" s="1">
+        <v>45</v>
+      </c>
     </row>
     <row r="184" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B184" s="1" t="s">
@@ -5103,7 +5465,9 @@
         <v>0</v>
       </c>
       <c r="F184" s="1"/>
-      <c r="G184" s="1"/>
+      <c r="G184" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="185" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B185" s="1" t="s">
@@ -5119,7 +5483,9 @@
         <v>0</v>
       </c>
       <c r="F185" s="1"/>
-      <c r="G185" s="1"/>
+      <c r="G185" s="1">
+        <v>6</v>
+      </c>
     </row>
     <row r="186" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B186" s="1" t="s">
@@ -5137,7 +5503,9 @@
       <c r="F186" s="1">
         <v>760</v>
       </c>
-      <c r="G186" s="1"/>
+      <c r="G186" s="1">
+        <v>56</v>
+      </c>
     </row>
     <row r="187" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B187" s="1" t="s">
@@ -5155,7 +5523,9 @@
       <c r="F187" s="1">
         <v>180</v>
       </c>
-      <c r="G187" s="1"/>
+      <c r="G187" s="1">
+        <v>67</v>
+      </c>
     </row>
     <row r="188" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B188" s="1" t="s">
@@ -5173,7 +5543,9 @@
       <c r="F188" s="1">
         <v>260</v>
       </c>
-      <c r="G188" s="1"/>
+      <c r="G188" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="189" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B189" s="1" t="s">
@@ -5189,7 +5561,9 @@
         <v>0</v>
       </c>
       <c r="F189" s="1"/>
-      <c r="G189" s="1"/>
+      <c r="G189" s="1">
+        <v>8</v>
+      </c>
     </row>
     <row r="190" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B190" s="1" t="s">
@@ -5205,7 +5579,9 @@
         <v>0</v>
       </c>
       <c r="F190" s="1"/>
-      <c r="G190" s="1"/>
+      <c r="G190" s="1">
+        <v>76</v>
+      </c>
     </row>
     <row r="191" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B191" s="1" t="s">
@@ -5221,7 +5597,9 @@
         <v>0</v>
       </c>
       <c r="F191" s="1"/>
-      <c r="G191" s="1"/>
+      <c r="G191" s="1">
+        <v>34</v>
+      </c>
     </row>
     <row r="192" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B192" s="1" t="s">
@@ -5237,7 +5615,9 @@
         <v>0</v>
       </c>
       <c r="F192" s="1"/>
-      <c r="G192" s="1"/>
+      <c r="G192" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="193" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B193" s="1" t="s">
@@ -5253,7 +5633,9 @@
         <v>0</v>
       </c>
       <c r="F193" s="1"/>
-      <c r="G193" s="1"/>
+      <c r="G193" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="194" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B194" s="1" t="s">
@@ -5269,7 +5651,9 @@
         <v>0</v>
       </c>
       <c r="F194" s="1"/>
-      <c r="G194" s="1"/>
+      <c r="G194" s="1">
+        <v>5</v>
+      </c>
     </row>
     <row r="195" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B195" s="1" t="s">
@@ -5285,7 +5669,9 @@
         <v>0</v>
       </c>
       <c r="F195" s="1"/>
-      <c r="G195" s="1"/>
+      <c r="G195" s="1">
+        <v>37</v>
+      </c>
     </row>
     <row r="196" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B196" s="1" t="s">
@@ -5301,7 +5687,9 @@
         <v>0</v>
       </c>
       <c r="F196" s="1"/>
-      <c r="G196" s="1"/>
+      <c r="G196" s="1">
+        <v>74</v>
+      </c>
     </row>
     <row r="197" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B197" s="1" t="s">
@@ -5317,7 +5705,9 @@
         <v>0</v>
       </c>
       <c r="F197" s="1"/>
-      <c r="G197" s="1"/>
+      <c r="G197" s="1">
+        <v>28</v>
+      </c>
     </row>
     <row r="198" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B198" s="1" t="s">
@@ -5333,7 +5723,9 @@
         <v>0</v>
       </c>
       <c r="F198" s="1"/>
-      <c r="G198" s="1"/>
+      <c r="G198" s="1">
+        <v>23</v>
+      </c>
     </row>
     <row r="199" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B199" s="1" t="s">
@@ -5349,7 +5741,9 @@
         <v>0</v>
       </c>
       <c r="F199" s="1"/>
-      <c r="G199" s="1"/>
+      <c r="G199" s="1">
+        <v>40</v>
+      </c>
     </row>
     <row r="200" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B200" s="1" t="s">
@@ -5365,7 +5759,9 @@
         <v>0</v>
       </c>
       <c r="F200" s="1"/>
-      <c r="G200" s="1"/>
+      <c r="G200" s="1">
+        <v>15</v>
+      </c>
     </row>
     <row r="201" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B201" s="1" t="s">
@@ -5381,7 +5777,9 @@
         <v>0</v>
       </c>
       <c r="F201" s="1"/>
-      <c r="G201" s="1"/>
+      <c r="G201" s="1">
+        <v>54</v>
+      </c>
     </row>
     <row r="202" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B202" s="1" t="s">
@@ -5399,7 +5797,9 @@
       <c r="F202" s="1">
         <v>580</v>
       </c>
-      <c r="G202" s="1"/>
+      <c r="G202" s="1">
+        <v>27</v>
+      </c>
     </row>
     <row r="203" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B203" s="1" t="s">
@@ -5417,7 +5817,9 @@
       <c r="F203" s="1">
         <v>180</v>
       </c>
-      <c r="G203" s="1"/>
+      <c r="G203" s="1">
+        <v>47</v>
+      </c>
     </row>
     <row r="204" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B204" s="1" t="s">
@@ -5435,7 +5837,9 @@
       <c r="F204" s="1">
         <v>250</v>
       </c>
-      <c r="G204" s="1"/>
+      <c r="G204" s="1">
+        <v>64</v>
+      </c>
     </row>
     <row r="205" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B205" s="1" t="s">
@@ -5453,7 +5857,9 @@
       <c r="F205" s="1">
         <v>650</v>
       </c>
-      <c r="G205" s="1"/>
+      <c r="G205" s="1">
+        <v>38</v>
+      </c>
     </row>
     <row r="206" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B206" s="1" t="s">
@@ -5469,7 +5875,9 @@
         <v>0</v>
       </c>
       <c r="F206" s="1"/>
-      <c r="G206" s="1"/>
+      <c r="G206" s="1">
+        <v>61</v>
+      </c>
     </row>
     <row r="207" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B207" s="1" t="s">
@@ -5485,7 +5893,9 @@
         <v>0</v>
       </c>
       <c r="F207" s="1"/>
-      <c r="G207" s="1"/>
+      <c r="G207" s="1">
+        <v>55</v>
+      </c>
     </row>
     <row r="208" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B208" s="1" t="s">
@@ -5501,7 +5911,9 @@
         <v>0</v>
       </c>
       <c r="F208" s="1"/>
-      <c r="G208" s="1"/>
+      <c r="G208" s="1">
+        <v>14</v>
+      </c>
     </row>
     <row r="209" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B209" s="1" t="s">
@@ -5517,7 +5929,9 @@
         <v>0</v>
       </c>
       <c r="F209" s="1"/>
-      <c r="G209" s="1"/>
+      <c r="G209" s="1">
+        <v>9</v>
+      </c>
     </row>
     <row r="210" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B210" s="1" t="s">
@@ -5535,7 +5949,9 @@
       <c r="F210" s="1">
         <v>440</v>
       </c>
-      <c r="G210" s="1"/>
+      <c r="G210" s="1">
+        <v>44</v>
+      </c>
     </row>
     <row r="211" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B211" s="1" t="s">
@@ -5553,7 +5969,9 @@
       <c r="F211" s="1">
         <v>280</v>
       </c>
-      <c r="G211" s="1"/>
+      <c r="G211" s="1">
+        <v>28</v>
+      </c>
     </row>
     <row r="212" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B212" s="1" t="s">
@@ -5571,7 +5989,9 @@
       <c r="F212" s="1">
         <v>200</v>
       </c>
-      <c r="G212" s="1"/>
+      <c r="G212" s="1">
+        <v>68</v>
+      </c>
     </row>
     <row r="213" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B213" s="1" t="s">
@@ -5589,7 +6009,9 @@
       <c r="F213" s="1">
         <v>680</v>
       </c>
-      <c r="G213" s="1"/>
+      <c r="G213" s="1">
+        <v>21</v>
+      </c>
     </row>
     <row r="214" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B214" s="1" t="s">
@@ -5607,7 +6029,9 @@
       <c r="F214" s="1">
         <v>670</v>
       </c>
-      <c r="G214" s="1"/>
+      <c r="G214" s="1">
+        <v>45</v>
+      </c>
     </row>
     <row r="215" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B215" s="1" t="s">
@@ -5623,7 +6047,9 @@
         <v>0</v>
       </c>
       <c r="F215" s="1"/>
-      <c r="G215" s="1"/>
+      <c r="G215" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="216" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B216" s="1" t="s">
@@ -5639,7 +6065,9 @@
         <v>0</v>
       </c>
       <c r="F216" s="1"/>
-      <c r="G216" s="1"/>
+      <c r="G216" s="1">
+        <v>61</v>
+      </c>
     </row>
     <row r="217" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B217" s="1" t="s">
@@ -5655,7 +6083,9 @@
         <v>0</v>
       </c>
       <c r="F217" s="1"/>
-      <c r="G217" s="1"/>
+      <c r="G217" s="1">
+        <v>31</v>
+      </c>
     </row>
     <row r="218" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B218" s="1" t="s">
@@ -5673,7 +6103,9 @@
       <c r="F218" s="1">
         <v>490</v>
       </c>
-      <c r="G218" s="1"/>
+      <c r="G218" s="1">
+        <v>67</v>
+      </c>
     </row>
     <row r="219" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B219" s="1" t="s">
@@ -5691,7 +6123,9 @@
       <c r="F219" s="1">
         <v>200</v>
       </c>
-      <c r="G219" s="1"/>
+      <c r="G219" s="1">
+        <v>12</v>
+      </c>
     </row>
     <row r="220" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B220" s="1" t="s">
@@ -5709,7 +6143,9 @@
       <c r="F220" s="1">
         <v>480</v>
       </c>
-      <c r="G220" s="1"/>
+      <c r="G220" s="1">
+        <v>26</v>
+      </c>
     </row>
     <row r="221" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B221" s="1" t="s">
@@ -5727,7 +6163,9 @@
       <c r="F221" s="1">
         <v>250</v>
       </c>
-      <c r="G221" s="1"/>
+      <c r="G221" s="1">
+        <v>73</v>
+      </c>
     </row>
     <row r="222" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B222" s="1" t="s">
@@ -5745,7 +6183,9 @@
       <c r="F222" s="1">
         <v>580</v>
       </c>
-      <c r="G222" s="1"/>
+      <c r="G222" s="1">
+        <v>78</v>
+      </c>
     </row>
     <row r="223" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B223" s="1" t="s">
@@ -5761,7 +6201,9 @@
         <v>0</v>
       </c>
       <c r="F223" s="1"/>
-      <c r="G223" s="1"/>
+      <c r="G223" s="1">
+        <v>73</v>
+      </c>
     </row>
     <row r="224" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B224" s="1" t="s">
@@ -5777,7 +6219,9 @@
         <v>0</v>
       </c>
       <c r="F224" s="1"/>
-      <c r="G224" s="1"/>
+      <c r="G224" s="1">
+        <v>63</v>
+      </c>
     </row>
     <row r="225" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B225" s="1" t="s">
@@ -5793,7 +6237,9 @@
         <v>0</v>
       </c>
       <c r="F225" s="1"/>
-      <c r="G225" s="1"/>
+      <c r="G225" s="1">
+        <v>63</v>
+      </c>
     </row>
     <row r="226" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B226" s="1" t="s">
@@ -5809,7 +6255,9 @@
         <v>0</v>
       </c>
       <c r="F226" s="1"/>
-      <c r="G226" s="1"/>
+      <c r="G226" s="1">
+        <v>58</v>
+      </c>
     </row>
     <row r="227" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B227" s="1" t="s">
@@ -5825,7 +6273,9 @@
         <v>0</v>
       </c>
       <c r="F227" s="1"/>
-      <c r="G227" s="1"/>
+      <c r="G227" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="228" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B228" s="1" t="s">
@@ -5841,7 +6291,9 @@
         <v>0</v>
       </c>
       <c r="F228" s="1"/>
-      <c r="G228" s="1"/>
+      <c r="G228" s="1">
+        <v>45</v>
+      </c>
     </row>
     <row r="229" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B229" s="1" t="s">
@@ -5859,7 +6311,9 @@
       <c r="F229" s="1">
         <v>200</v>
       </c>
-      <c r="G229" s="1"/>
+      <c r="G229" s="1">
+        <v>14</v>
+      </c>
     </row>
     <row r="230" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B230" s="1" t="s">
@@ -5877,7 +6331,9 @@
       <c r="F230" s="1">
         <v>400</v>
       </c>
-      <c r="G230" s="1"/>
+      <c r="G230" s="1">
+        <v>46</v>
+      </c>
     </row>
     <row r="231" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B231" s="1" t="s">
@@ -5895,7 +6351,9 @@
       <c r="F231" s="1">
         <v>180</v>
       </c>
-      <c r="G231" s="1"/>
+      <c r="G231" s="1">
+        <v>12</v>
+      </c>
     </row>
     <row r="232" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B232" s="1" t="s">
@@ -5913,7 +6371,9 @@
       <c r="F232" s="1">
         <v>320</v>
       </c>
-      <c r="G232" s="1"/>
+      <c r="G232" s="1">
+        <v>65</v>
+      </c>
     </row>
     <row r="233" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B233" s="1" t="s">
@@ -5931,7 +6391,9 @@
       <c r="F233" s="1">
         <v>350</v>
       </c>
-      <c r="G233" s="1"/>
+      <c r="G233" s="1">
+        <v>47</v>
+      </c>
     </row>
     <row r="234" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B234" s="1" t="s">
@@ -5949,7 +6411,9 @@
       <c r="F234" s="1">
         <v>820</v>
       </c>
-      <c r="G234" s="1"/>
+      <c r="G234" s="1">
+        <v>47</v>
+      </c>
     </row>
     <row r="235" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B235" s="1" t="s">
@@ -5965,7 +6429,9 @@
         <v>0</v>
       </c>
       <c r="F235" s="1"/>
-      <c r="G235" s="1"/>
+      <c r="G235" s="1">
+        <v>39</v>
+      </c>
     </row>
     <row r="236" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B236" s="1" t="s">
@@ -5983,7 +6449,9 @@
       <c r="F236" s="1">
         <v>120</v>
       </c>
-      <c r="G236" s="1"/>
+      <c r="G236" s="1">
+        <v>47</v>
+      </c>
     </row>
     <row r="237" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B237" s="1" t="s">
@@ -6001,7 +6469,9 @@
       <c r="F237" s="1">
         <v>280</v>
       </c>
-      <c r="G237" s="1"/>
+      <c r="G237" s="1">
+        <v>46</v>
+      </c>
     </row>
     <row r="238" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B238" s="1" t="s">
@@ -6019,7 +6489,9 @@
       <c r="F238" s="1">
         <v>400</v>
       </c>
-      <c r="G238" s="1"/>
+      <c r="G238" s="1">
+        <v>34</v>
+      </c>
     </row>
     <row r="239" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B239" s="1" t="s">
@@ -6037,7 +6509,9 @@
       <c r="F239" s="1">
         <v>400</v>
       </c>
-      <c r="G239" s="1"/>
+      <c r="G239" s="1">
+        <v>15</v>
+      </c>
     </row>
     <row r="240" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B240" s="1" t="s">
@@ -6055,7 +6529,9 @@
       <c r="F240" s="1">
         <v>600</v>
       </c>
-      <c r="G240" s="1"/>
+      <c r="G240" s="1">
+        <v>59</v>
+      </c>
     </row>
     <row r="241" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B241" s="1" t="s">
@@ -6073,7 +6549,9 @@
       <c r="F241" s="1">
         <v>530</v>
       </c>
-      <c r="G241" s="1"/>
+      <c r="G241" s="1">
+        <v>25</v>
+      </c>
     </row>
     <row r="242" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B242" s="1" t="s">
@@ -6089,7 +6567,9 @@
         <v>0</v>
       </c>
       <c r="F242" s="1"/>
-      <c r="G242" s="1"/>
+      <c r="G242" s="1">
+        <v>44</v>
+      </c>
     </row>
     <row r="243" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B243" s="1" t="s">
@@ -6105,7 +6585,9 @@
         <v>0</v>
       </c>
       <c r="F243" s="1"/>
-      <c r="G243" s="1"/>
+      <c r="G243" s="1">
+        <v>23</v>
+      </c>
     </row>
     <row r="244" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B244" s="1" t="s">
@@ -6123,7 +6605,9 @@
       <c r="F244" s="1">
         <v>290</v>
       </c>
-      <c r="G244" s="1"/>
+      <c r="G244" s="1">
+        <v>53</v>
+      </c>
     </row>
     <row r="245" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B245" s="1" t="s">
@@ -6141,7 +6625,9 @@
       <c r="F245" s="1">
         <v>400</v>
       </c>
-      <c r="G245" s="1"/>
+      <c r="G245" s="1">
+        <v>32</v>
+      </c>
     </row>
     <row r="246" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B246" s="1" t="s">
@@ -6159,7 +6645,9 @@
       <c r="F246" s="1">
         <v>295</v>
       </c>
-      <c r="G246" s="1"/>
+      <c r="G246" s="1">
+        <v>78</v>
+      </c>
     </row>
     <row r="247" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B247" s="1" t="s">
@@ -6177,7 +6665,9 @@
       <c r="F247" s="1">
         <v>175</v>
       </c>
-      <c r="G247" s="1"/>
+      <c r="G247" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="248" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B248" s="1" t="s">
@@ -6195,7 +6685,9 @@
       <c r="F248" s="1">
         <v>240</v>
       </c>
-      <c r="G248" s="1"/>
+      <c r="G248" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="249" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B249" s="1" t="s">
@@ -6213,7 +6705,9 @@
       <c r="F249" s="1">
         <v>192</v>
       </c>
-      <c r="G249" s="1"/>
+      <c r="G249" s="1">
+        <v>28</v>
+      </c>
     </row>
     <row r="250" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B250" s="1" t="s">
@@ -6231,7 +6725,9 @@
       <c r="F250" s="1">
         <v>366</v>
       </c>
-      <c r="G250" s="1"/>
+      <c r="G250" s="1">
+        <v>56</v>
+      </c>
     </row>
     <row r="251" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B251" s="1" t="s">
@@ -6247,7 +6743,9 @@
         <v>0</v>
       </c>
       <c r="F251" s="1"/>
-      <c r="G251" s="1"/>
+      <c r="G251" s="1">
+        <v>45</v>
+      </c>
     </row>
     <row r="252" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B252" s="1" t="s">
@@ -6265,7 +6763,9 @@
       <c r="F252" s="1">
         <v>111</v>
       </c>
-      <c r="G252" s="1"/>
+      <c r="G252" s="1">
+        <v>50</v>
+      </c>
     </row>
     <row r="253" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B253" s="1" t="s">
@@ -6283,7 +6783,9 @@
       <c r="F253" s="1">
         <v>128</v>
       </c>
-      <c r="G253" s="1"/>
+      <c r="G253" s="1">
+        <v>57</v>
+      </c>
     </row>
     <row r="254" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B254" s="1" t="s">
@@ -6301,7 +6803,9 @@
       <c r="F254" s="1">
         <v>273</v>
       </c>
-      <c r="G254" s="1"/>
+      <c r="G254" s="1">
+        <v>24</v>
+      </c>
     </row>
     <row r="255" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B255" s="1" t="s">
@@ -6319,7 +6823,9 @@
       <c r="F255" s="1">
         <v>150</v>
       </c>
-      <c r="G255" s="1"/>
+      <c r="G255" s="1">
+        <v>26</v>
+      </c>
     </row>
     <row r="256" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B256" s="1" t="s">
@@ -6337,7 +6843,9 @@
       <c r="F256" s="1">
         <v>280</v>
       </c>
-      <c r="G256" s="1"/>
+      <c r="G256" s="1">
+        <v>30</v>
+      </c>
     </row>
     <row r="257" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B257" s="1" t="s">
@@ -6355,7 +6863,9 @@
       <c r="F257" s="1">
         <v>161</v>
       </c>
-      <c r="G257" s="1"/>
+      <c r="G257" s="1">
+        <v>20</v>
+      </c>
     </row>
     <row r="258" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B258" s="1" t="s">
@@ -6373,7 +6883,9 @@
       <c r="F258" s="1">
         <v>315</v>
       </c>
-      <c r="G258" s="1"/>
+      <c r="G258" s="1">
+        <v>32</v>
+      </c>
     </row>
     <row r="259" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B259" s="1" t="s">
@@ -6391,7 +6903,9 @@
       <c r="F259" s="1">
         <v>127</v>
       </c>
-      <c r="G259" s="1"/>
+      <c r="G259" s="1">
+        <v>27</v>
+      </c>
     </row>
     <row r="260" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B260" s="1" t="s">
@@ -6409,7 +6923,9 @@
       <c r="F260" s="1">
         <v>200</v>
       </c>
-      <c r="G260" s="1"/>
+      <c r="G260" s="1">
+        <v>74</v>
+      </c>
     </row>
     <row r="261" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B261" s="1" t="s">
@@ -6427,7 +6943,9 @@
       <c r="F261" s="1">
         <v>371</v>
       </c>
-      <c r="G261" s="1"/>
+      <c r="G261" s="1">
+        <v>72</v>
+      </c>
     </row>
     <row r="262" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B262" s="1" t="s">
@@ -6445,7 +6963,9 @@
       <c r="F262" s="1">
         <v>261</v>
       </c>
-      <c r="G262" s="1"/>
+      <c r="G262" s="1">
+        <v>62</v>
+      </c>
     </row>
     <row r="263" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B263" s="1" t="s">
@@ -6463,7 +6983,9 @@
       <c r="F263" s="1">
         <v>200</v>
       </c>
-      <c r="G263" s="1"/>
+      <c r="G263" s="1">
+        <v>9</v>
+      </c>
     </row>
     <row r="264" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B264" s="1" t="s">
@@ -6481,7 +7003,9 @@
       <c r="F264" s="1">
         <v>204</v>
       </c>
-      <c r="G264" s="1"/>
+      <c r="G264" s="1">
+        <v>75</v>
+      </c>
     </row>
     <row r="265" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B265" s="1" t="s">
@@ -6499,7 +7023,9 @@
       <c r="F265" s="1">
         <v>435</v>
       </c>
-      <c r="G265" s="1"/>
+      <c r="G265" s="1">
+        <v>22</v>
+      </c>
     </row>
     <row r="266" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B266" s="1" t="s">
@@ -6517,7 +7043,9 @@
       <c r="F266" s="1">
         <v>121</v>
       </c>
-      <c r="G266" s="1"/>
+      <c r="G266" s="1">
+        <v>5</v>
+      </c>
     </row>
     <row r="267" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B267" s="1" t="s">
@@ -6535,7 +7063,9 @@
       <c r="F267" s="1">
         <v>199</v>
       </c>
-      <c r="G267" s="1"/>
+      <c r="G267" s="1">
+        <v>37</v>
+      </c>
     </row>
     <row r="268" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B268" s="1" t="s">
@@ -6553,7 +7083,9 @@
       <c r="F268" s="1">
         <v>122</v>
       </c>
-      <c r="G268" s="1"/>
+      <c r="G268" s="1">
+        <v>59</v>
+      </c>
     </row>
     <row r="269" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B269" s="1" t="s">
@@ -6571,7 +7103,9 @@
       <c r="F269" s="1">
         <v>240</v>
       </c>
-      <c r="G269" s="1"/>
+      <c r="G269" s="1">
+        <v>13</v>
+      </c>
     </row>
     <row r="270" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B270" s="1" t="s">
@@ -6589,7 +7123,9 @@
       <c r="F270" s="1">
         <v>272</v>
       </c>
-      <c r="G270" s="1"/>
+      <c r="G270" s="1">
+        <v>58</v>
+      </c>
     </row>
     <row r="271" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B271" s="1" t="s">
@@ -6607,7 +7143,9 @@
       <c r="F271" s="1">
         <v>274</v>
       </c>
-      <c r="G271" s="1"/>
+      <c r="G271" s="1">
+        <v>59</v>
+      </c>
     </row>
     <row r="272" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B272" s="1" t="s">
@@ -6625,7 +7163,9 @@
       <c r="F272" s="1">
         <v>855</v>
       </c>
-      <c r="G272" s="1"/>
+      <c r="G272" s="1">
+        <v>58</v>
+      </c>
     </row>
     <row r="273" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B273" s="1" t="s">
@@ -6641,7 +7181,9 @@
         <v>0</v>
       </c>
       <c r="F273" s="1"/>
-      <c r="G273" s="1"/>
+      <c r="G273" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="274" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B274" s="1" t="s">
@@ -6657,7 +7199,9 @@
         <v>0</v>
       </c>
       <c r="F274" s="1"/>
-      <c r="G274" s="1"/>
+      <c r="G274" s="1">
+        <v>48</v>
+      </c>
     </row>
     <row r="275" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B275" s="1" t="s">
@@ -6673,7 +7217,9 @@
         <v>0</v>
       </c>
       <c r="F275" s="1"/>
-      <c r="G275" s="1"/>
+      <c r="G275" s="1">
+        <v>15</v>
+      </c>
     </row>
     <row r="276" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B276" s="1" t="s">
@@ -6689,7 +7235,9 @@
         <v>0</v>
       </c>
       <c r="F276" s="1"/>
-      <c r="G276" s="1"/>
+      <c r="G276" s="1">
+        <v>48</v>
+      </c>
     </row>
     <row r="277" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B277" s="1" t="s">
@@ -6705,7 +7253,9 @@
         <v>0</v>
       </c>
       <c r="F277" s="1"/>
-      <c r="G277" s="1"/>
+      <c r="G277" s="1">
+        <v>8</v>
+      </c>
     </row>
     <row r="278" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B278" s="1" t="s">
@@ -6721,7 +7271,9 @@
         <v>0</v>
       </c>
       <c r="F278" s="1"/>
-      <c r="G278" s="1"/>
+      <c r="G278" s="1">
+        <v>20</v>
+      </c>
     </row>
     <row r="279" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B279" s="1" t="s">
@@ -6737,7 +7289,9 @@
         <v>0</v>
       </c>
       <c r="F279" s="1"/>
-      <c r="G279" s="1"/>
+      <c r="G279" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="280" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B280" s="1" t="s">
@@ -6753,7 +7307,9 @@
         <v>0</v>
       </c>
       <c r="F280" s="1"/>
-      <c r="G280" s="1"/>
+      <c r="G280" s="1">
+        <v>26</v>
+      </c>
     </row>
     <row r="281" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B281" s="1" t="s">
@@ -6769,7 +7325,9 @@
         <v>0</v>
       </c>
       <c r="F281" s="1"/>
-      <c r="G281" s="1"/>
+      <c r="G281" s="1">
+        <v>66</v>
+      </c>
     </row>
     <row r="282" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B282" s="1" t="s">
@@ -6785,7 +7343,9 @@
         <v>0</v>
       </c>
       <c r="F282" s="1"/>
-      <c r="G282" s="1"/>
+      <c r="G282" s="1">
+        <v>35</v>
+      </c>
     </row>
     <row r="283" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B283" s="1" t="s">
@@ -6801,7 +7361,9 @@
         <v>0</v>
       </c>
       <c r="F283" s="1"/>
-      <c r="G283" s="1"/>
+      <c r="G283" s="1">
+        <v>17</v>
+      </c>
     </row>
     <row r="284" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B284" s="1" t="s">
@@ -6819,7 +7381,9 @@
       <c r="F284" s="1">
         <v>303</v>
       </c>
-      <c r="G284" s="1"/>
+      <c r="G284" s="1">
+        <v>16</v>
+      </c>
     </row>
     <row r="285" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B285" s="1" t="s">
@@ -6837,7 +7401,9 @@
       <c r="F285" s="1">
         <v>149</v>
       </c>
-      <c r="G285" s="1"/>
+      <c r="G285" s="1">
+        <v>38</v>
+      </c>
     </row>
     <row r="286" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B286" s="1" t="s">
@@ -6855,7 +7421,9 @@
       <c r="F286" s="1">
         <v>350</v>
       </c>
-      <c r="G286" s="1"/>
+      <c r="G286" s="1">
+        <v>30</v>
+      </c>
     </row>
     <row r="287" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B287" s="1" t="s">
@@ -6873,7 +7441,9 @@
       <c r="F287" s="1">
         <v>139</v>
       </c>
-      <c r="G287" s="1"/>
+      <c r="G287" s="1">
+        <v>8</v>
+      </c>
     </row>
     <row r="288" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B288" s="1" t="s">
@@ -6891,7 +7461,9 @@
       <c r="F288" s="1">
         <v>157</v>
       </c>
-      <c r="G288" s="1"/>
+      <c r="G288" s="1">
+        <v>34</v>
+      </c>
     </row>
     <row r="289" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B289" s="1" t="s">
@@ -6909,7 +7481,9 @@
       <c r="F289" s="1">
         <v>106</v>
       </c>
-      <c r="G289" s="1"/>
+      <c r="G289" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="290" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B290" s="1" t="s">
@@ -6927,7 +7501,9 @@
       <c r="F290" s="1">
         <v>178</v>
       </c>
-      <c r="G290" s="1"/>
+      <c r="G290" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="291" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B291" s="1" t="s">
@@ -6945,7 +7521,9 @@
       <c r="F291" s="1">
         <v>213</v>
       </c>
-      <c r="G291" s="1"/>
+      <c r="G291" s="1">
+        <v>69</v>
+      </c>
     </row>
     <row r="292" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B292" s="1" t="s">
@@ -6963,7 +7541,9 @@
       <c r="F292" s="1">
         <v>230</v>
       </c>
-      <c r="G292" s="1"/>
+      <c r="G292" s="1">
+        <v>47</v>
+      </c>
     </row>
     <row r="293" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B293" s="1" t="s">
@@ -6981,7 +7561,9 @@
       <c r="F293" s="1">
         <v>201</v>
       </c>
-      <c r="G293" s="1"/>
+      <c r="G293" s="1">
+        <v>37</v>
+      </c>
     </row>
     <row r="294" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B294" s="1" t="s">
@@ -6999,7 +7581,9 @@
       <c r="F294" s="1">
         <v>339</v>
       </c>
-      <c r="G294" s="1"/>
+      <c r="G294" s="1">
+        <v>26</v>
+      </c>
     </row>
     <row r="295" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B295" s="1" t="s">
@@ -7017,7 +7601,9 @@
       <c r="F295" s="1">
         <v>268</v>
       </c>
-      <c r="G295" s="1"/>
+      <c r="G295" s="1">
+        <v>78</v>
+      </c>
     </row>
     <row r="296" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B296" s="1" t="s">
@@ -7035,7 +7621,9 @@
       <c r="F296" s="1">
         <v>281</v>
       </c>
-      <c r="G296" s="1"/>
+      <c r="G296" s="1">
+        <v>53</v>
+      </c>
     </row>
     <row r="297" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B297" s="1" t="s">
@@ -7053,7 +7641,9 @@
       <c r="F297" s="1">
         <v>184</v>
       </c>
-      <c r="G297" s="1"/>
+      <c r="G297" s="1">
+        <v>43</v>
+      </c>
     </row>
     <row r="298" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B298" s="1" t="s">
@@ -7071,7 +7661,9 @@
       <c r="F298" s="1">
         <v>359</v>
       </c>
-      <c r="G298" s="1"/>
+      <c r="G298" s="1">
+        <v>69</v>
+      </c>
     </row>
     <row r="299" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B299" s="1" t="s">
@@ -7089,7 +7681,9 @@
       <c r="F299" s="1">
         <v>339</v>
       </c>
-      <c r="G299" s="1"/>
+      <c r="G299" s="1">
+        <v>45</v>
+      </c>
     </row>
     <row r="300" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B300" s="1" t="s">
@@ -7107,7 +7701,9 @@
       <c r="F300" s="1">
         <v>345</v>
       </c>
-      <c r="G300" s="1"/>
+      <c r="G300" s="1">
+        <v>66</v>
+      </c>
     </row>
     <row r="301" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B301" s="1" t="s">
@@ -7125,7 +7721,9 @@
       <c r="F301" s="1">
         <v>226</v>
       </c>
-      <c r="G301" s="1"/>
+      <c r="G301" s="1">
+        <v>18</v>
+      </c>
     </row>
     <row r="302" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B302" s="1" t="s">
@@ -7143,7 +7741,9 @@
       <c r="F302" s="1">
         <v>325</v>
       </c>
-      <c r="G302" s="1"/>
+      <c r="G302" s="1">
+        <v>41</v>
+      </c>
     </row>
     <row r="303" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B303" s="1" t="s">
@@ -7161,7 +7761,9 @@
       <c r="F303" s="1">
         <v>143</v>
       </c>
-      <c r="G303" s="1"/>
+      <c r="G303" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="304" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B304" s="1" t="s">
@@ -7179,7 +7781,9 @@
       <c r="F304" s="1">
         <v>256</v>
       </c>
-      <c r="G304" s="1"/>
+      <c r="G304" s="1">
+        <v>55</v>
+      </c>
     </row>
     <row r="305" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B305" s="1" t="s">
@@ -7197,7 +7801,9 @@
       <c r="F305" s="1">
         <v>355</v>
       </c>
-      <c r="G305" s="1"/>
+      <c r="G305" s="1">
+        <v>32</v>
+      </c>
     </row>
     <row r="306" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B306" s="1" t="s">
@@ -7213,7 +7819,9 @@
         <v>0</v>
       </c>
       <c r="F306" s="1"/>
-      <c r="G306" s="1"/>
+      <c r="G306" s="1">
+        <v>46</v>
+      </c>
     </row>
     <row r="307" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B307" s="1" t="s">
@@ -7231,7 +7839,9 @@
       <c r="F307" s="1">
         <v>78</v>
       </c>
-      <c r="G307" s="1"/>
+      <c r="G307" s="1">
+        <v>79</v>
+      </c>
     </row>
     <row r="308" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B308" s="1" t="s">
@@ -7249,7 +7859,9 @@
       <c r="F308" s="1">
         <v>157</v>
       </c>
-      <c r="G308" s="1"/>
+      <c r="G308" s="1">
+        <v>57</v>
+      </c>
     </row>
     <row r="309" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B309" s="1" t="s">
@@ -7267,7 +7879,9 @@
       <c r="F309" s="1">
         <v>245</v>
       </c>
-      <c r="G309" s="1"/>
+      <c r="G309" s="1">
+        <v>44</v>
+      </c>
     </row>
     <row r="310" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B310" s="1" t="s">
@@ -7285,7 +7899,9 @@
       <c r="F310" s="1">
         <v>199</v>
       </c>
-      <c r="G310" s="1"/>
+      <c r="G310" s="1">
+        <v>45</v>
+      </c>
     </row>
     <row r="311" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B311" s="1" t="s">
@@ -7303,7 +7919,9 @@
       <c r="F311" s="1">
         <v>79</v>
       </c>
-      <c r="G311" s="1"/>
+      <c r="G311" s="1">
+        <v>74</v>
+      </c>
     </row>
     <row r="312" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B312" s="1" t="s">
@@ -7321,7 +7939,9 @@
       <c r="F312" s="1">
         <v>187</v>
       </c>
-      <c r="G312" s="1"/>
+      <c r="G312" s="1">
+        <v>60</v>
+      </c>
     </row>
     <row r="313" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B313" s="1" t="s">
@@ -7339,7 +7959,9 @@
       <c r="F313" s="1">
         <v>230</v>
       </c>
-      <c r="G313" s="1"/>
+      <c r="G313" s="1">
+        <v>77</v>
+      </c>
     </row>
     <row r="314" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B314" s="1" t="s">
@@ -7357,7 +7979,9 @@
       <c r="F314" s="1">
         <v>183</v>
       </c>
-      <c r="G314" s="1"/>
+      <c r="G314" s="1">
+        <v>77</v>
+      </c>
     </row>
     <row r="315" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B315" s="1" t="s">
@@ -7375,7 +7999,9 @@
       <c r="F315" s="1">
         <v>360</v>
       </c>
-      <c r="G315" s="1"/>
+      <c r="G315" s="1">
+        <v>30</v>
+      </c>
     </row>
     <row r="316" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B316" s="1" t="s">
@@ -7393,7 +8019,9 @@
       <c r="F316" s="1">
         <v>219</v>
       </c>
-      <c r="G316" s="1"/>
+      <c r="G316" s="1">
+        <v>17</v>
+      </c>
     </row>
     <row r="317" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B317" s="1" t="s">
@@ -7411,7 +8039,9 @@
       <c r="F317" s="1">
         <v>285</v>
       </c>
-      <c r="G317" s="1"/>
+      <c r="G317" s="1">
+        <v>68</v>
+      </c>
     </row>
     <row r="318" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B318" s="1" t="s">
@@ -7429,7 +8059,9 @@
       <c r="F318" s="1">
         <v>166</v>
       </c>
-      <c r="G318" s="1"/>
+      <c r="G318" s="1">
+        <v>19</v>
+      </c>
     </row>
     <row r="319" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B319" s="1" t="s">
@@ -7447,7 +8079,9 @@
       <c r="F319" s="1">
         <v>368</v>
       </c>
-      <c r="G319" s="1"/>
+      <c r="G319" s="1">
+        <v>52</v>
+      </c>
     </row>
     <row r="320" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B320" s="1" t="s">
@@ -7465,7 +8099,9 @@
       <c r="F320" s="1">
         <v>343</v>
       </c>
-      <c r="G320" s="1"/>
+      <c r="G320" s="1">
+        <v>66</v>
+      </c>
     </row>
     <row r="321" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B321" s="1" t="s">
@@ -7483,7 +8119,9 @@
       <c r="F321" s="1">
         <v>121</v>
       </c>
-      <c r="G321" s="1"/>
+      <c r="G321" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="322" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B322" s="1" t="s">
@@ -7501,7 +8139,9 @@
       <c r="F322" s="1">
         <v>197</v>
       </c>
-      <c r="G322" s="1"/>
+      <c r="G322" s="1">
+        <v>38</v>
+      </c>
     </row>
     <row r="323" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B323" s="1" t="s">
@@ -7519,7 +8159,9 @@
       <c r="F323" s="1">
         <v>120</v>
       </c>
-      <c r="G323" s="1"/>
+      <c r="G323" s="1">
+        <v>5</v>
+      </c>
     </row>
     <row r="324" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B324" s="1" t="s">
@@ -7537,7 +8179,9 @@
       <c r="F324" s="1">
         <v>113</v>
       </c>
-      <c r="G324" s="1"/>
+      <c r="G324" s="1">
+        <v>63</v>
+      </c>
     </row>
     <row r="325" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B325" s="1" t="s">
@@ -7555,7 +8199,9 @@
       <c r="F325" s="1">
         <v>352</v>
       </c>
-      <c r="G325" s="1"/>
+      <c r="G325" s="1">
+        <v>70</v>
+      </c>
     </row>
     <row r="326" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B326" s="1" t="s">
@@ -7573,7 +8219,9 @@
       <c r="F326" s="1">
         <v>650</v>
       </c>
-      <c r="G326" s="1"/>
+      <c r="G326" s="1">
+        <v>45</v>
+      </c>
     </row>
     <row r="327" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B327" s="1" t="s">
@@ -7589,7 +8237,9 @@
         <v>0</v>
       </c>
       <c r="F327" s="1"/>
-      <c r="G327" s="1"/>
+      <c r="G327" s="1">
+        <v>50</v>
+      </c>
     </row>
     <row r="328" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B328" s="1" t="s">
@@ -7607,7 +8257,9 @@
       <c r="F328" s="1">
         <v>175</v>
       </c>
-      <c r="G328" s="1"/>
+      <c r="G328" s="1">
+        <v>27</v>
+      </c>
     </row>
     <row r="329" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B329" s="1" t="s">
@@ -7625,7 +8277,9 @@
       <c r="F329" s="1">
         <v>203</v>
       </c>
-      <c r="G329" s="1"/>
+      <c r="G329" s="1">
+        <v>30</v>
+      </c>
     </row>
     <row r="330" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B330" s="1" t="s">
@@ -7643,7 +8297,9 @@
       <c r="F330" s="1">
         <v>340</v>
       </c>
-      <c r="G330" s="1"/>
+      <c r="G330" s="1">
+        <v>62</v>
+      </c>
     </row>
     <row r="331" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B331" s="1" t="s">
@@ -7661,7 +8317,9 @@
       <c r="F331" s="1">
         <v>427</v>
       </c>
-      <c r="G331" s="1"/>
+      <c r="G331" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="332" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B332" s="1" t="s">
@@ -7679,7 +8337,9 @@
       <c r="F332" s="1">
         <v>360</v>
       </c>
-      <c r="G332" s="1"/>
+      <c r="G332" s="1">
+        <v>57</v>
+      </c>
     </row>
     <row r="333" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B333" s="1" t="s">
@@ -7697,7 +8357,9 @@
       <c r="F333" s="1">
         <v>500</v>
       </c>
-      <c r="G333" s="1"/>
+      <c r="G333" s="1">
+        <v>56</v>
+      </c>
     </row>
     <row r="334" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B334" s="1" t="s">
@@ -7715,7 +8377,9 @@
       <c r="F334" s="1">
         <v>881</v>
       </c>
-      <c r="G334" s="1"/>
+      <c r="G334" s="1">
+        <v>6</v>
+      </c>
     </row>
     <row r="335" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B335" s="1" t="s">
@@ -7733,7 +8397,9 @@
       <c r="F335" s="1">
         <v>104</v>
       </c>
-      <c r="G335" s="1"/>
+      <c r="G335" s="1">
+        <v>18</v>
+      </c>
     </row>
     <row r="336" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B336" s="1" t="s">
@@ -7749,7 +8415,9 @@
         <v>0</v>
       </c>
       <c r="F336" s="1"/>
-      <c r="G336" s="1"/>
+      <c r="G336" s="1">
+        <v>76</v>
+      </c>
     </row>
     <row r="337" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B337" s="1" t="s">
@@ -7765,7 +8433,9 @@
         <v>0</v>
       </c>
       <c r="F337" s="1"/>
-      <c r="G337" s="1"/>
+      <c r="G337" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="338" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B338" s="1" t="s">
@@ -7781,7 +8451,9 @@
         <v>0</v>
       </c>
       <c r="F338" s="1"/>
-      <c r="G338" s="1"/>
+      <c r="G338" s="1">
+        <v>45</v>
+      </c>
     </row>
     <row r="339" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B339" s="1" t="s">
@@ -7797,7 +8469,9 @@
         <v>0</v>
       </c>
       <c r="F339" s="1"/>
-      <c r="G339" s="1"/>
+      <c r="G339" s="1">
+        <v>15</v>
+      </c>
     </row>
     <row r="340" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B340" s="1" t="s">
@@ -7813,7 +8487,9 @@
         <v>0</v>
       </c>
       <c r="F340" s="1"/>
-      <c r="G340" s="1"/>
+      <c r="G340" s="1">
+        <v>71</v>
+      </c>
     </row>
     <row r="341" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B341" s="1" t="s">
@@ -7829,7 +8505,9 @@
         <v>0</v>
       </c>
       <c r="F341" s="1"/>
-      <c r="G341" s="1"/>
+      <c r="G341" s="1">
+        <v>16</v>
+      </c>
     </row>
     <row r="342" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B342" s="1" t="s">
@@ -7845,7 +8523,9 @@
         <v>0</v>
       </c>
       <c r="F342" s="1"/>
-      <c r="G342" s="1"/>
+      <c r="G342" s="1">
+        <v>9</v>
+      </c>
     </row>
     <row r="343" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B343" s="1" t="s">
@@ -7861,7 +8541,9 @@
         <v>0</v>
       </c>
       <c r="F343" s="1"/>
-      <c r="G343" s="1"/>
+      <c r="G343" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="344" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B344" s="1" t="s">
@@ -7877,7 +8559,9 @@
         <v>0</v>
       </c>
       <c r="F344" s="1"/>
-      <c r="G344" s="1"/>
+      <c r="G344" s="1">
+        <v>77</v>
+      </c>
     </row>
     <row r="345" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B345" s="1" t="s">
@@ -7893,7 +8577,9 @@
         <v>0</v>
       </c>
       <c r="F345" s="1"/>
-      <c r="G345" s="1"/>
+      <c r="G345" s="1">
+        <v>11</v>
+      </c>
     </row>
     <row r="346" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B346" s="1" t="s">
@@ -7909,7 +8595,9 @@
         <v>0</v>
       </c>
       <c r="F346" s="1"/>
-      <c r="G346" s="1"/>
+      <c r="G346" s="1">
+        <v>30</v>
+      </c>
     </row>
     <row r="347" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B347" s="1" t="s">
@@ -7925,7 +8613,9 @@
         <v>0</v>
       </c>
       <c r="F347" s="1"/>
-      <c r="G347" s="1"/>
+      <c r="G347" s="1">
+        <v>42</v>
+      </c>
     </row>
     <row r="348" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B348" s="1" t="s">
@@ -7941,7 +8631,9 @@
         <v>0</v>
       </c>
       <c r="F348" s="1"/>
-      <c r="G348" s="1"/>
+      <c r="G348" s="1">
+        <v>5</v>
+      </c>
     </row>
     <row r="349" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B349" s="1" t="s">
@@ -7957,7 +8649,9 @@
         <v>0</v>
       </c>
       <c r="F349" s="1"/>
-      <c r="G349" s="1"/>
+      <c r="G349" s="1">
+        <v>55</v>
+      </c>
     </row>
     <row r="350" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B350" s="1" t="s">
@@ -7975,7 +8669,9 @@
       <c r="F350" s="1">
         <v>565</v>
       </c>
-      <c r="G350" s="1"/>
+      <c r="G350" s="1">
+        <v>61</v>
+      </c>
     </row>
     <row r="351" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B351" s="1" t="s">
@@ -7993,7 +8689,9 @@
       <c r="F351" s="1">
         <v>302</v>
       </c>
-      <c r="G351" s="1"/>
+      <c r="G351" s="1">
+        <v>40</v>
+      </c>
     </row>
     <row r="352" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B352" s="1" t="s">
@@ -8011,7 +8709,9 @@
       <c r="F352" s="1">
         <v>75</v>
       </c>
-      <c r="G352" s="1"/>
+      <c r="G352" s="1">
+        <v>19</v>
+      </c>
     </row>
     <row r="353" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B353" s="1" t="s">
@@ -8029,7 +8729,9 @@
       <c r="F353" s="1">
         <v>75</v>
       </c>
-      <c r="G353" s="1"/>
+      <c r="G353" s="1">
+        <v>20</v>
+      </c>
     </row>
     <row r="354" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B354" s="1" t="s">
@@ -8047,7 +8749,9 @@
       <c r="F354" s="1">
         <v>173</v>
       </c>
-      <c r="G354" s="1"/>
+      <c r="G354" s="1">
+        <v>42</v>
+      </c>
     </row>
     <row r="355" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B355" s="1" t="s">
@@ -8065,7 +8769,9 @@
       <c r="F355" s="1">
         <v>142</v>
       </c>
-      <c r="G355" s="1"/>
+      <c r="G355" s="1">
+        <v>42</v>
+      </c>
     </row>
     <row r="356" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B356" s="1" t="s">
@@ -8083,7 +8789,9 @@
       <c r="F356" s="1">
         <v>170</v>
       </c>
-      <c r="G356" s="1"/>
+      <c r="G356" s="1">
+        <v>22</v>
+      </c>
     </row>
     <row r="357" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B357" s="1" t="s">
@@ -8101,7 +8809,9 @@
       <c r="F357" s="1">
         <v>290</v>
       </c>
-      <c r="G357" s="1"/>
+      <c r="G357" s="1">
+        <v>56</v>
+      </c>
     </row>
     <row r="358" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B358" s="1" t="s">
@@ -8119,7 +8829,9 @@
       <c r="F358" s="1">
         <v>194</v>
       </c>
-      <c r="G358" s="1"/>
+      <c r="G358" s="1">
+        <v>47</v>
+      </c>
     </row>
     <row r="359" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B359" s="1" t="s">
@@ -8137,7 +8849,9 @@
       <c r="F359" s="1">
         <v>185</v>
       </c>
-      <c r="G359" s="1"/>
+      <c r="G359" s="1">
+        <v>44</v>
+      </c>
     </row>
     <row r="360" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B360" s="1" t="s">
@@ -8155,7 +8869,9 @@
       <c r="F360" s="1">
         <v>183</v>
       </c>
-      <c r="G360" s="1"/>
+      <c r="G360" s="1">
+        <v>60</v>
+      </c>
     </row>
     <row r="361" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B361" s="1" t="s">
@@ -8173,7 +8889,9 @@
       <c r="F361" s="1">
         <v>197</v>
       </c>
-      <c r="G361" s="1"/>
+      <c r="G361" s="1">
+        <v>5</v>
+      </c>
     </row>
     <row r="362" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B362" s="1" t="s">
@@ -8191,7 +8909,9 @@
       <c r="F362" s="1">
         <v>210</v>
       </c>
-      <c r="G362" s="1"/>
+      <c r="G362" s="1">
+        <v>77</v>
+      </c>
     </row>
     <row r="363" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B363" s="1" t="s">
@@ -8209,7 +8929,9 @@
       <c r="F363" s="1">
         <v>395</v>
       </c>
-      <c r="G363" s="1"/>
+      <c r="G363" s="1">
+        <v>37</v>
+      </c>
     </row>
     <row r="364" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B364" s="1" t="s">
@@ -8227,7 +8949,9 @@
       <c r="F364" s="1">
         <v>185</v>
       </c>
-      <c r="G364" s="1"/>
+      <c r="G364" s="1">
+        <v>73</v>
+      </c>
     </row>
     <row r="365" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B365" s="1" t="s">
@@ -8245,7 +8969,9 @@
       <c r="F365" s="1">
         <v>375</v>
       </c>
-      <c r="G365" s="1"/>
+      <c r="G365" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="366" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B366" s="1" t="s">
@@ -8263,7 +8989,9 @@
       <c r="F366" s="1">
         <v>300</v>
       </c>
-      <c r="G366" s="1"/>
+      <c r="G366" s="1">
+        <v>38</v>
+      </c>
     </row>
     <row r="367" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B367" s="1" t="s">
@@ -8281,7 +9009,9 @@
       <c r="F367" s="1">
         <v>105</v>
       </c>
-      <c r="G367" s="1"/>
+      <c r="G367" s="1">
+        <v>22</v>
+      </c>
     </row>
     <row r="368" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B368" s="1" t="s">
@@ -8299,7 +9029,9 @@
       <c r="F368" s="1">
         <v>155</v>
       </c>
-      <c r="G368" s="1"/>
+      <c r="G368" s="1">
+        <v>20</v>
+      </c>
     </row>
     <row r="369" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B369" s="1" t="s">
@@ -8317,7 +9049,9 @@
       <c r="F369" s="1">
         <v>250</v>
       </c>
-      <c r="G369" s="1"/>
+      <c r="G369" s="1">
+        <v>50</v>
+      </c>
     </row>
     <row r="370" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B370" s="1" t="s">
@@ -8335,7 +9069,9 @@
       <c r="F370" s="1">
         <v>390</v>
       </c>
-      <c r="G370" s="1"/>
+      <c r="G370" s="1">
+        <v>74</v>
+      </c>
     </row>
     <row r="371" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B371" s="1" t="s">
@@ -8353,7 +9089,9 @@
       <c r="F371" s="1">
         <v>470</v>
       </c>
-      <c r="G371" s="1"/>
+      <c r="G371" s="1">
+        <v>10</v>
+      </c>
     </row>
     <row r="372" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B372" s="1" t="s">
@@ -8371,7 +9109,9 @@
       <c r="F372" s="1">
         <v>395</v>
       </c>
-      <c r="G372" s="1"/>
+      <c r="G372" s="1">
+        <v>58</v>
+      </c>
     </row>
     <row r="373" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B373" s="1" t="s">
@@ -8389,7 +9129,9 @@
       <c r="F373" s="1">
         <v>255</v>
       </c>
-      <c r="G373" s="1"/>
+      <c r="G373" s="1">
+        <v>37</v>
+      </c>
     </row>
     <row r="374" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B374" s="1" t="s">
@@ -8407,7 +9149,9 @@
       <c r="F374" s="1">
         <v>300</v>
       </c>
-      <c r="G374" s="1"/>
+      <c r="G374" s="1">
+        <v>13</v>
+      </c>
     </row>
     <row r="375" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B375" s="1" t="s">
@@ -8425,7 +9169,9 @@
       <c r="F375" s="1">
         <v>178</v>
       </c>
-      <c r="G375" s="1"/>
+      <c r="G375" s="1">
+        <v>19</v>
+      </c>
     </row>
     <row r="376" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B376" s="1" t="s">
@@ -8443,7 +9189,9 @@
       <c r="F376" s="1">
         <v>138</v>
       </c>
-      <c r="G376" s="1"/>
+      <c r="G376" s="1">
+        <v>37</v>
+      </c>
     </row>
     <row r="377" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B377" s="1" t="s">
@@ -8461,7 +9209,9 @@
       <c r="F377" s="1">
         <v>34</v>
       </c>
-      <c r="G377" s="1"/>
+      <c r="G377" s="1">
+        <v>13</v>
+      </c>
     </row>
     <row r="378" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B378" s="1" t="s">
@@ -8479,7 +9229,9 @@
       <c r="F378" s="1">
         <v>208</v>
       </c>
-      <c r="G378" s="1"/>
+      <c r="G378" s="1">
+        <v>65</v>
+      </c>
     </row>
     <row r="379" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B379" s="1" t="s">
@@ -8497,7 +9249,9 @@
       <c r="F379" s="1">
         <v>150</v>
       </c>
-      <c r="G379" s="1"/>
+      <c r="G379" s="1">
+        <v>59</v>
+      </c>
     </row>
     <row r="380" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B380" s="1" t="s">
@@ -8515,7 +9269,9 @@
       <c r="F380" s="1">
         <v>42</v>
       </c>
-      <c r="G380" s="1"/>
+      <c r="G380" s="1">
+        <v>66</v>
+      </c>
     </row>
     <row r="381" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B381" s="1" t="s">
@@ -8533,7 +9289,9 @@
       <c r="F381" s="1">
         <v>88</v>
       </c>
-      <c r="G381" s="1"/>
+      <c r="G381" s="1">
+        <v>59</v>
+      </c>
     </row>
     <row r="382" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B382" s="1" t="s">
@@ -8551,7 +9309,9 @@
       <c r="F382" s="1">
         <v>82</v>
       </c>
-      <c r="G382" s="1"/>
+      <c r="G382" s="1">
+        <v>13</v>
+      </c>
     </row>
     <row r="383" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B383" s="1" t="s">
@@ -8569,7 +9329,9 @@
       <c r="F383" s="1">
         <v>87</v>
       </c>
-      <c r="G383" s="1"/>
+      <c r="G383" s="1">
+        <v>51</v>
+      </c>
     </row>
     <row r="384" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B384" s="1" t="s">
@@ -8587,7 +9349,9 @@
       <c r="F384" s="1">
         <v>295</v>
       </c>
-      <c r="G384" s="1"/>
+      <c r="G384" s="1">
+        <v>74</v>
+      </c>
     </row>
     <row r="385" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B385" s="1" t="s">
@@ -8605,7 +9369,9 @@
       <c r="F385" s="1">
         <v>200</v>
       </c>
-      <c r="G385" s="1"/>
+      <c r="G385" s="1">
+        <v>34</v>
+      </c>
     </row>
     <row r="386" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B386" s="1" t="s">
@@ -8623,7 +9389,9 @@
       <c r="F386" s="1">
         <v>248</v>
       </c>
-      <c r="G386" s="1"/>
+      <c r="G386" s="1">
+        <v>21</v>
+      </c>
     </row>
     <row r="387" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B387" s="1" t="s">
@@ -8641,7 +9409,9 @@
       <c r="F387" s="1">
         <v>281</v>
       </c>
-      <c r="G387" s="1"/>
+      <c r="G387" s="1">
+        <v>39</v>
+      </c>
     </row>
     <row r="388" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B388" s="1" t="s">
@@ -8659,7 +9429,9 @@
       <c r="F388" s="1">
         <v>477</v>
       </c>
-      <c r="G388" s="1"/>
+      <c r="G388" s="1">
+        <v>28</v>
+      </c>
     </row>
     <row r="389" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B389" s="1" t="s">
@@ -8677,7 +9449,9 @@
       <c r="F389" s="1">
         <v>288</v>
       </c>
-      <c r="G389" s="1"/>
+      <c r="G389" s="1">
+        <v>73</v>
+      </c>
     </row>
     <row r="390" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B390" s="1" t="s">
@@ -8695,7 +9469,9 @@
       <c r="F390" s="1">
         <v>167</v>
       </c>
-      <c r="G390" s="1"/>
+      <c r="G390" s="1">
+        <v>27</v>
+      </c>
     </row>
     <row r="391" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B391" s="1" t="s">
@@ -8713,7 +9489,9 @@
       <c r="F391" s="1">
         <v>194</v>
       </c>
-      <c r="G391" s="1"/>
+      <c r="G391" s="1">
+        <v>16</v>
+      </c>
     </row>
     <row r="392" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B392" s="1" t="s">
@@ -8731,7 +9509,9 @@
       <c r="F392" s="1">
         <v>360</v>
       </c>
-      <c r="G392" s="1"/>
+      <c r="G392" s="1">
+        <v>36</v>
+      </c>
     </row>
     <row r="393" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B393" s="1" t="s">
@@ -8747,7 +9527,9 @@
         <v>0</v>
       </c>
       <c r="F393" s="1"/>
-      <c r="G393" s="1"/>
+      <c r="G393" s="1">
+        <v>45</v>
+      </c>
     </row>
     <row r="394" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B394" s="1" t="s">
@@ -8763,7 +9545,9 @@
         <v>0</v>
       </c>
       <c r="F394" s="1"/>
-      <c r="G394" s="1"/>
+      <c r="G394" s="1">
+        <v>59</v>
+      </c>
     </row>
     <row r="395" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B395" s="1" t="s">
@@ -8781,7 +9565,9 @@
       <c r="F395" s="1">
         <v>228</v>
       </c>
-      <c r="G395" s="1"/>
+      <c r="G395" s="1">
+        <v>21</v>
+      </c>
     </row>
     <row r="396" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B396" s="1" t="s">
@@ -8799,7 +9585,9 @@
       <c r="F396" s="1">
         <v>283</v>
       </c>
-      <c r="G396" s="1"/>
+      <c r="G396" s="1">
+        <v>22</v>
+      </c>
     </row>
     <row r="397" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B397" s="1" t="s">
@@ -8817,7 +9605,9 @@
       <c r="F397" s="1">
         <v>112</v>
       </c>
-      <c r="G397" s="1"/>
+      <c r="G397" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="398" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B398" s="1" t="s">
@@ -8835,7 +9625,9 @@
       <c r="F398" s="1">
         <v>237</v>
       </c>
-      <c r="G398" s="1"/>
+      <c r="G398" s="1">
+        <v>24</v>
+      </c>
     </row>
     <row r="399" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B399" s="1" t="s">
@@ -8853,7 +9645,9 @@
       <c r="F399" s="1">
         <v>195</v>
       </c>
-      <c r="G399" s="1"/>
+      <c r="G399" s="1">
+        <v>31</v>
+      </c>
     </row>
     <row r="400" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B400" s="1" t="s">
@@ -8871,7 +9665,9 @@
       <c r="F400" s="1">
         <v>185</v>
       </c>
-      <c r="G400" s="1"/>
+      <c r="G400" s="1">
+        <v>50</v>
+      </c>
     </row>
     <row r="401" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B401" s="1" t="s">
@@ -8889,7 +9685,9 @@
       <c r="F401" s="1">
         <v>244</v>
       </c>
-      <c r="G401" s="1"/>
+      <c r="G401" s="1">
+        <v>67</v>
+      </c>
     </row>
     <row r="402" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B402" s="1" t="s">
@@ -8907,7 +9705,9 @@
       <c r="F402" s="1">
         <v>195</v>
       </c>
-      <c r="G402" s="1"/>
+      <c r="G402" s="1">
+        <v>68</v>
+      </c>
     </row>
     <row r="403" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B403" s="1" t="s">
@@ -8925,7 +9725,9 @@
       <c r="F403" s="1">
         <v>374</v>
       </c>
-      <c r="G403" s="1"/>
+      <c r="G403" s="1">
+        <v>43</v>
+      </c>
     </row>
     <row r="404" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B404" s="1" t="s">
@@ -8943,7 +9745,9 @@
       <c r="F404" s="1">
         <v>230</v>
       </c>
-      <c r="G404" s="1"/>
+      <c r="G404" s="1">
+        <v>65</v>
+      </c>
     </row>
     <row r="405" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B405" s="1" t="s">
@@ -8961,7 +9765,9 @@
       <c r="F405" s="1">
         <v>300</v>
       </c>
-      <c r="G405" s="1"/>
+      <c r="G405" s="1">
+        <v>51</v>
+      </c>
     </row>
     <row r="406" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B406" s="1" t="s">
@@ -8979,7 +9785,9 @@
       <c r="F406" s="1">
         <v>165</v>
       </c>
-      <c r="G406" s="1"/>
+      <c r="G406" s="1">
+        <v>16</v>
+      </c>
     </row>
     <row r="407" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B407" s="1" t="s">
@@ -8997,7 +9805,9 @@
       <c r="F407" s="1">
         <v>120</v>
       </c>
-      <c r="G407" s="1"/>
+      <c r="G407" s="1">
+        <v>79</v>
+      </c>
     </row>
     <row r="408" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B408" s="1" t="s">
@@ -9015,7 +9825,9 @@
       <c r="F408" s="1">
         <v>260</v>
       </c>
-      <c r="G408" s="1"/>
+      <c r="G408" s="1">
+        <v>79</v>
+      </c>
     </row>
     <row r="409" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B409" s="1" t="s">
@@ -9033,7 +9845,9 @@
       <c r="F409" s="1">
         <v>140</v>
       </c>
-      <c r="G409" s="1"/>
+      <c r="G409" s="1">
+        <v>61</v>
+      </c>
     </row>
     <row r="410" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B410" s="1" t="s">
@@ -9051,7 +9865,9 @@
       <c r="F410" s="1">
         <v>160</v>
       </c>
-      <c r="G410" s="1"/>
+      <c r="G410" s="1">
+        <v>29</v>
+      </c>
     </row>
     <row r="411" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B411" s="1" t="s">
@@ -9069,7 +9885,9 @@
       <c r="F411" s="1">
         <v>45</v>
       </c>
-      <c r="G411" s="1"/>
+      <c r="G411" s="1">
+        <v>20</v>
+      </c>
     </row>
     <row r="412" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B412" s="1" t="s">
@@ -9087,7 +9905,9 @@
       <c r="F412" s="1">
         <v>150</v>
       </c>
-      <c r="G412" s="1"/>
+      <c r="G412" s="1">
+        <v>7</v>
+      </c>
     </row>
     <row r="413" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B413" s="1" t="s">
@@ -9105,7 +9925,9 @@
       <c r="F413" s="1">
         <v>315</v>
       </c>
-      <c r="G413" s="1"/>
+      <c r="G413" s="1">
+        <v>55</v>
+      </c>
     </row>
     <row r="414" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B414" s="1" t="s">
@@ -9123,7 +9945,9 @@
       <c r="F414" s="1">
         <v>200</v>
       </c>
-      <c r="G414" s="1"/>
+      <c r="G414" s="1">
+        <v>66</v>
+      </c>
     </row>
     <row r="415" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B415" s="1" t="s">
@@ -9141,7 +9965,9 @@
       <c r="F415" s="1">
         <v>255</v>
       </c>
-      <c r="G415" s="1"/>
+      <c r="G415" s="1">
+        <v>14</v>
+      </c>
     </row>
     <row r="416" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B416" s="1" t="s">
@@ -9159,7 +9985,9 @@
       <c r="F416" s="1">
         <v>203</v>
       </c>
-      <c r="G416" s="1"/>
+      <c r="G416" s="1">
+        <v>63</v>
+      </c>
     </row>
     <row r="417" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B417" s="1" t="s">
@@ -9177,7 +10005,9 @@
       <c r="F417" s="1">
         <v>234</v>
       </c>
-      <c r="G417" s="1"/>
+      <c r="G417" s="1">
+        <v>18</v>
+      </c>
     </row>
     <row r="418" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B418" s="1" t="s">
@@ -9195,7 +10025,9 @@
       <c r="F418" s="1">
         <v>46</v>
       </c>
-      <c r="G418" s="1"/>
+      <c r="G418" s="1">
+        <v>51</v>
+      </c>
     </row>
     <row r="419" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B419" s="1" t="s">
@@ -9213,7 +10045,9 @@
       <c r="F419" s="1">
         <v>323</v>
       </c>
-      <c r="G419" s="1"/>
+      <c r="G419" s="1">
+        <v>30</v>
+      </c>
     </row>
     <row r="420" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B420" s="1" t="s">
@@ -9231,7 +10065,9 @@
       <c r="F420" s="1">
         <v>167</v>
       </c>
-      <c r="G420" s="1"/>
+      <c r="G420" s="1">
+        <v>16</v>
+      </c>
     </row>
     <row r="421" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B421" s="1" t="s">
@@ -9249,7 +10085,9 @@
       <c r="F421" s="1">
         <v>165</v>
       </c>
-      <c r="G421" s="1"/>
+      <c r="G421" s="1">
+        <v>78</v>
+      </c>
     </row>
     <row r="422" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B422" s="1" t="s">
@@ -9267,7 +10105,9 @@
       <c r="F422" s="1">
         <v>487</v>
       </c>
-      <c r="G422" s="1"/>
+      <c r="G422" s="1">
+        <v>79</v>
+      </c>
     </row>
     <row r="423" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B423" s="1" t="s">
@@ -9285,7 +10125,9 @@
       <c r="F423" s="1">
         <v>155</v>
       </c>
-      <c r="G423" s="1"/>
+      <c r="G423" s="1">
+        <v>58</v>
+      </c>
     </row>
     <row r="424" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B424" s="1" t="s">
@@ -9303,7 +10145,9 @@
       <c r="F424" s="1">
         <v>165</v>
       </c>
-      <c r="G424" s="1"/>
+      <c r="G424" s="1">
+        <v>29</v>
+      </c>
     </row>
     <row r="425" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B425" s="1" t="s">
@@ -9321,7 +10165,9 @@
       <c r="F425" s="1">
         <v>168</v>
       </c>
-      <c r="G425" s="1"/>
+      <c r="G425" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="426" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B426" s="1" t="s">
@@ -9339,7 +10185,9 @@
       <c r="F426" s="1">
         <v>167</v>
       </c>
-      <c r="G426" s="1"/>
+      <c r="G426" s="1">
+        <v>65</v>
+      </c>
     </row>
     <row r="427" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B427" s="1" t="s">
@@ -9357,7 +10205,9 @@
       <c r="F427" s="1">
         <v>187</v>
       </c>
-      <c r="G427" s="1"/>
+      <c r="G427" s="1">
+        <v>39</v>
+      </c>
     </row>
     <row r="428" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B428" s="1" t="s">
@@ -9375,7 +10225,9 @@
       <c r="F428" s="1">
         <v>263</v>
       </c>
-      <c r="G428" s="1"/>
+      <c r="G428" s="1">
+        <v>70</v>
+      </c>
     </row>
     <row r="429" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B429" s="1" t="s">
@@ -9393,7 +10245,9 @@
       <c r="F429" s="1">
         <v>97</v>
       </c>
-      <c r="G429" s="1"/>
+      <c r="G429" s="1">
+        <v>6</v>
+      </c>
     </row>
     <row r="430" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B430" s="1" t="s">
@@ -9411,7 +10265,9 @@
       <c r="F430" s="1">
         <v>183</v>
       </c>
-      <c r="G430" s="1"/>
+      <c r="G430" s="1">
+        <v>40</v>
+      </c>
     </row>
     <row r="431" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B431" s="1" t="s">
@@ -9429,7 +10285,9 @@
       <c r="F431" s="1">
         <v>190</v>
       </c>
-      <c r="G431" s="1"/>
+      <c r="G431" s="1">
+        <v>64</v>
+      </c>
     </row>
     <row r="432" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B432" s="1" t="s">
@@ -9447,7 +10305,9 @@
       <c r="F432" s="1">
         <v>55</v>
       </c>
-      <c r="G432" s="1"/>
+      <c r="G432" s="1">
+        <v>52</v>
+      </c>
     </row>
     <row r="433" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B433" s="1" t="s">
@@ -9465,7 +10325,9 @@
       <c r="F433" s="1">
         <v>390</v>
       </c>
-      <c r="G433" s="1"/>
+      <c r="G433" s="1">
+        <v>52</v>
+      </c>
     </row>
     <row r="434" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B434" s="1" t="s">
@@ -9483,7 +10345,9 @@
       <c r="F434" s="1">
         <v>315</v>
       </c>
-      <c r="G434" s="1"/>
+      <c r="G434" s="1">
+        <v>78</v>
+      </c>
     </row>
     <row r="435" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B435" s="1" t="s">
@@ -9501,7 +10365,9 @@
       <c r="F435" s="1">
         <v>109</v>
       </c>
-      <c r="G435" s="1"/>
+      <c r="G435" s="1">
+        <v>26</v>
+      </c>
     </row>
     <row r="436" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B436" s="1" t="s">
@@ -9519,7 +10385,9 @@
       <c r="F436" s="1">
         <v>111</v>
       </c>
-      <c r="G436" s="1"/>
+      <c r="G436" s="1">
+        <v>10</v>
+      </c>
     </row>
     <row r="437" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B437" s="1" t="s">
@@ -9537,7 +10405,9 @@
       <c r="F437" s="1">
         <v>58</v>
       </c>
-      <c r="G437" s="1"/>
+      <c r="G437" s="1">
+        <v>9</v>
+      </c>
     </row>
     <row r="438" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B438" s="1" t="s">
@@ -9555,7 +10425,9 @@
       <c r="F438" s="1">
         <v>48</v>
       </c>
-      <c r="G438" s="1"/>
+      <c r="G438" s="1">
+        <v>35</v>
+      </c>
     </row>
     <row r="439" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B439" s="1" t="s">
@@ -9573,7 +10445,9 @@
       <c r="F439" s="1">
         <v>123</v>
       </c>
-      <c r="G439" s="1"/>
+      <c r="G439" s="1">
+        <v>55</v>
+      </c>
     </row>
     <row r="440" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B440" s="1" t="s">
@@ -9591,7 +10465,9 @@
       <c r="F440" s="1">
         <v>113</v>
       </c>
-      <c r="G440" s="1"/>
+      <c r="G440" s="1">
+        <v>29</v>
+      </c>
     </row>
     <row r="441" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B441" s="1" t="s">
@@ -9609,7 +10485,9 @@
       <c r="F441" s="1">
         <v>35</v>
       </c>
-      <c r="G441" s="1"/>
+      <c r="G441" s="1">
+        <v>19</v>
+      </c>
     </row>
     <row r="442" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B442" s="1" t="s">
@@ -9627,7 +10505,9 @@
       <c r="F442" s="1">
         <v>118</v>
       </c>
-      <c r="G442" s="1"/>
+      <c r="G442" s="1">
+        <v>30</v>
+      </c>
     </row>
     <row r="443" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B443" s="1" t="s">
@@ -9645,7 +10525,9 @@
       <c r="F443" s="1">
         <v>107</v>
       </c>
-      <c r="G443" s="1"/>
+      <c r="G443" s="1">
+        <v>27</v>
+      </c>
     </row>
     <row r="444" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B444" s="1" t="s">
@@ -9663,7 +10545,9 @@
       <c r="F444" s="1">
         <v>108</v>
       </c>
-      <c r="G444" s="1"/>
+      <c r="G444" s="1">
+        <v>73</v>
+      </c>
     </row>
     <row r="445" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B445" s="1" t="s">
@@ -9681,7 +10565,9 @@
       <c r="F445" s="1">
         <v>165</v>
       </c>
-      <c r="G445" s="1"/>
+      <c r="G445" s="1">
+        <v>28</v>
+      </c>
     </row>
     <row r="446" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B446" s="1" t="s">
@@ -9699,7 +10585,9 @@
       <c r="F446" s="1">
         <v>165</v>
       </c>
-      <c r="G446" s="1"/>
+      <c r="G446" s="1">
+        <v>26</v>
+      </c>
     </row>
     <row r="447" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B447" s="1" t="s">
@@ -9717,7 +10605,9 @@
       <c r="F447" s="1">
         <v>98</v>
       </c>
-      <c r="G447" s="1"/>
+      <c r="G447" s="1">
+        <v>18</v>
+      </c>
     </row>
     <row r="448" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B448" s="1" t="s">
@@ -9735,7 +10625,9 @@
       <c r="F448" s="1">
         <v>164</v>
       </c>
-      <c r="G448" s="1"/>
+      <c r="G448" s="1">
+        <v>53</v>
+      </c>
     </row>
     <row r="449" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B449" s="1" t="s">
@@ -9753,7 +10645,9 @@
       <c r="F449" s="1">
         <v>126</v>
       </c>
-      <c r="G449" s="1"/>
+      <c r="G449" s="1">
+        <v>14</v>
+      </c>
     </row>
     <row r="450" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B450" s="1" t="s">
@@ -9771,7 +10665,9 @@
       <c r="F450" s="1">
         <v>285</v>
       </c>
-      <c r="G450" s="1"/>
+      <c r="G450" s="1">
+        <v>19</v>
+      </c>
     </row>
     <row r="451" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B451" s="1" t="s">
@@ -9789,7 +10685,9 @@
       <c r="F451" s="1">
         <v>110</v>
       </c>
-      <c r="G451" s="1"/>
+      <c r="G451" s="1">
+        <v>64</v>
+      </c>
     </row>
     <row r="452" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B452" s="1" t="s">
@@ -9807,7 +10705,9 @@
       <c r="F452" s="1">
         <v>110</v>
       </c>
-      <c r="G452" s="1"/>
+      <c r="G452" s="1">
+        <v>42</v>
+      </c>
     </row>
     <row r="453" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B453" s="1" t="s">
@@ -9825,7 +10725,9 @@
       <c r="F453" s="1">
         <v>55</v>
       </c>
-      <c r="G453" s="1"/>
+      <c r="G453" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="454" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B454" s="1" t="s">
@@ -9843,7 +10745,9 @@
       <c r="F454" s="1">
         <v>48</v>
       </c>
-      <c r="G454" s="1"/>
+      <c r="G454" s="1">
+        <v>36</v>
+      </c>
     </row>
     <row r="455" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B455" s="1" t="s">
@@ -9861,7 +10765,9 @@
       <c r="F455" s="1">
         <v>122</v>
       </c>
-      <c r="G455" s="1"/>
+      <c r="G455" s="1">
+        <v>71</v>
+      </c>
     </row>
     <row r="456" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B456" s="1" t="s">
@@ -9879,7 +10785,9 @@
       <c r="F456" s="1">
         <v>118</v>
       </c>
-      <c r="G456" s="1"/>
+      <c r="G456" s="1">
+        <v>52</v>
+      </c>
     </row>
     <row r="457" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B457" s="1" t="s">
@@ -9897,7 +10805,9 @@
       <c r="F457" s="1">
         <v>32</v>
       </c>
-      <c r="G457" s="1"/>
+      <c r="G457" s="1">
+        <v>55</v>
+      </c>
     </row>
     <row r="458" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B458" s="1" t="s">
@@ -9915,7 +10825,9 @@
       <c r="F458" s="1">
         <v>325</v>
       </c>
-      <c r="G458" s="1"/>
+      <c r="G458" s="1">
+        <v>44</v>
+      </c>
     </row>
     <row r="459" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B459" s="1" t="s">
@@ -9933,7 +10845,9 @@
       <c r="F459" s="1">
         <v>169</v>
       </c>
-      <c r="G459" s="1"/>
+      <c r="G459" s="1">
+        <v>54</v>
+      </c>
     </row>
     <row r="460" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B460" s="1" t="s">
@@ -9951,7 +10865,9 @@
       <c r="F460" s="1">
         <v>167</v>
       </c>
-      <c r="G460" s="1"/>
+      <c r="G460" s="1">
+        <v>6</v>
+      </c>
     </row>
     <row r="461" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B461" s="1" t="s">
@@ -9969,7 +10885,9 @@
       <c r="F461" s="1">
         <v>187</v>
       </c>
-      <c r="G461" s="1"/>
+      <c r="G461" s="1">
+        <v>25</v>
+      </c>
     </row>
     <row r="462" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B462" s="1" t="s">
@@ -9987,7 +10905,9 @@
       <c r="F462" s="1">
         <v>148</v>
       </c>
-      <c r="G462" s="1"/>
+      <c r="G462" s="1">
+        <v>44</v>
+      </c>
     </row>
     <row r="463" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B463" s="1" t="s">
@@ -10005,7 +10925,9 @@
       <c r="F463" s="1">
         <v>131</v>
       </c>
-      <c r="G463" s="1"/>
+      <c r="G463" s="1">
+        <v>63</v>
+      </c>
     </row>
     <row r="464" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B464" s="1" t="s">
@@ -10023,7 +10945,9 @@
       <c r="F464" s="1">
         <v>216</v>
       </c>
-      <c r="G464" s="1"/>
+      <c r="G464" s="1">
+        <v>67</v>
+      </c>
     </row>
     <row r="465" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B465" s="1" t="s">
@@ -10041,7 +10965,9 @@
       <c r="F465" s="1">
         <v>215</v>
       </c>
-      <c r="G465" s="1"/>
+      <c r="G465" s="1">
+        <v>30</v>
+      </c>
     </row>
     <row r="466" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B466" s="1" t="s">
@@ -10059,7 +10985,9 @@
       <c r="F466" s="1">
         <v>154</v>
       </c>
-      <c r="G466" s="1"/>
+      <c r="G466" s="1">
+        <v>28</v>
+      </c>
     </row>
     <row r="467" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B467" s="1" t="s">
@@ -10077,7 +11005,9 @@
       <c r="F467" s="1">
         <v>158</v>
       </c>
-      <c r="G467" s="1"/>
+      <c r="G467" s="1">
+        <v>46</v>
+      </c>
     </row>
     <row r="468" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B468" s="1" t="s">
@@ -10095,7 +11025,9 @@
       <c r="F468" s="1">
         <v>105</v>
       </c>
-      <c r="G468" s="1"/>
+      <c r="G468" s="1">
+        <v>59</v>
+      </c>
     </row>
     <row r="469" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B469" s="1" t="s">
@@ -10113,7 +11045,9 @@
       <c r="F469" s="1">
         <v>315</v>
       </c>
-      <c r="G469" s="1"/>
+      <c r="G469" s="1">
+        <v>63</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10127,7 +11061,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95E88962-D2FE-492F-89E7-E20802D0BEC8}">
   <dimension ref="B2:D182"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>

--- a/parametros.xlsx
+++ b/parametros.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4b42ecb6cf71bf9e/Documentos/UC docs/2022-1/ICS1113 - Optimización/Proyecto/BICIStreckennetz/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="316" documentId="11_AD4D2F04E46CFB4ACB3E201BA5D6D81A693EDF27" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{97C97DD2-4835-4663-9C10-C598FD30FEAB}"/>
+  <xr:revisionPtr revIDLastSave="336" documentId="11_AD4D2F04E46CFB4ACB3E201BA5D6D81A693EDF27" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F0793E8E-23DC-405E-9661-38AC9B8C2964}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-4965" windowWidth="29040" windowHeight="15840" tabRatio="722" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="722" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Parametros generales" sheetId="5" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1154" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1157" uniqueCount="302">
   <si>
     <t>s</t>
   </si>
@@ -939,13 +939,22 @@
   </si>
   <si>
     <t>Uc [dias/m]</t>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>Column2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -961,6 +970,20 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -983,10 +1006,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1000,11 +1025,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Moneda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{00D0ECA9-3B05-43D9-8286-D4F4162CF4AF}"/>
   </cellStyles>
-  <dxfs count="44">
+  <dxfs count="46">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1081,6 +1114,9 @@
           <color indexed="64"/>
         </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1216,74 +1252,76 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{5971FE81-43A6-4F1A-8405-917F80AF47B3}" name="Tabla7" displayName="Tabla7" ref="A1:C3" totalsRowShown="0" headerRowDxfId="43" dataDxfId="42" tableBorderDxfId="41">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{5971FE81-43A6-4F1A-8405-917F80AF47B3}" name="Tabla7" displayName="Tabla7" ref="A1:C3" totalsRowShown="0" headerRowDxfId="45" dataDxfId="44" tableBorderDxfId="43">
   <autoFilter ref="A1:C3" xr:uid="{5971FE81-43A6-4F1A-8405-917F80AF47B3}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{C4646EA6-15E8-4F49-8660-8BC743BA6AEB}" name="P" dataDxfId="40"/>
-    <tableColumn id="2" xr3:uid="{BCC58997-8A28-4E33-A831-CAF6FFAA1D3D}" name="T" dataDxfId="39"/>
-    <tableColumn id="3" xr3:uid="{9DE2B7BB-01C5-4111-A209-1B469CE041D0}" name="S" dataDxfId="38"/>
+    <tableColumn id="1" xr3:uid="{C4646EA6-15E8-4F49-8660-8BC743BA6AEB}" name="P" dataDxfId="42"/>
+    <tableColumn id="2" xr3:uid="{BCC58997-8A28-4E33-A831-CAF6FFAA1D3D}" name="T" dataDxfId="41"/>
+    <tableColumn id="3" xr3:uid="{9DE2B7BB-01C5-4111-A209-1B469CE041D0}" name="S" dataDxfId="40"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9EBF1B6A-543F-48CE-914E-1AE3C5987315}" name="Tabla1" displayName="Tabla1" ref="A1:G9" totalsRowShown="0" headerRowDxfId="37" dataDxfId="36" tableBorderDxfId="35">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9EBF1B6A-543F-48CE-914E-1AE3C5987315}" name="Tabla1" displayName="Tabla1" ref="A1:G9" totalsRowShown="0" headerRowDxfId="39" dataDxfId="38" tableBorderDxfId="37">
   <autoFilter ref="A1:G9" xr:uid="{9EBF1B6A-543F-48CE-914E-1AE3C5987315}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{F3E98B7E-71ED-4323-A688-507E0E4D30F8}" name="c" dataDxfId="34"/>
-    <tableColumn id="2" xr3:uid="{69AA7FF1-F6AA-4D73-8D00-DAA5E4C8663A}" name="Referencia" dataDxfId="33"/>
-    <tableColumn id="3" xr3:uid="{FC18F7FD-2AF8-46E5-AD67-DBBF16CEE9A0}" name="Kc [$/m]" dataDxfId="32"/>
-    <tableColumn id="4" xr3:uid="{D95694F2-2899-491C-A596-9A285A37BA46}" name="Gc [$]" dataDxfId="31"/>
-    <tableColumn id="5" xr3:uid="{3ECED9B0-52C5-4131-8C26-E285B1072DC4}" name="Dc [$/m]" dataDxfId="30"/>
-    <tableColumn id="6" xr3:uid="{B5439923-DE56-4CB7-9948-3F44BAEC5334}" name="Uc [dias/m]" dataDxfId="29"/>
-    <tableColumn id="7" xr3:uid="{66DA3E3E-93C5-4886-9FA3-D96E254E4154}" name="Jc [personas]" dataDxfId="28"/>
+    <tableColumn id="1" xr3:uid="{F3E98B7E-71ED-4323-A688-507E0E4D30F8}" name="c" dataDxfId="36"/>
+    <tableColumn id="2" xr3:uid="{69AA7FF1-F6AA-4D73-8D00-DAA5E4C8663A}" name="Referencia" dataDxfId="35"/>
+    <tableColumn id="3" xr3:uid="{FC18F7FD-2AF8-46E5-AD67-DBBF16CEE9A0}" name="Kc [$/m]" dataDxfId="34"/>
+    <tableColumn id="4" xr3:uid="{D95694F2-2899-491C-A596-9A285A37BA46}" name="Gc [$]" dataDxfId="33"/>
+    <tableColumn id="5" xr3:uid="{3ECED9B0-52C5-4131-8C26-E285B1072DC4}" name="Dc [$/m]" dataDxfId="32"/>
+    <tableColumn id="6" xr3:uid="{B5439923-DE56-4CB7-9948-3F44BAEC5334}" name="Uc [dias/m]" dataDxfId="31"/>
+    <tableColumn id="7" xr3:uid="{66DA3E3E-93C5-4886-9FA3-D96E254E4154}" name="Jc [personas]" dataDxfId="30"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2A8CF024-17E2-4932-AE29-897F3F06695B}" name="Tabla2" displayName="Tabla2" ref="A1:F468" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26" tableBorderDxfId="25">
-  <autoFilter ref="A1:F468" xr:uid="{2A8CF024-17E2-4932-AE29-897F3F06695B}"/>
-  <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{8057DC41-0E5E-4281-A9E4-A586B2E82B5B}" name="Referencia" dataDxfId="24"/>
-    <tableColumn id="2" xr3:uid="{2FBF424D-2F6A-492A-B6D0-B1F455E70D5F}" name="n" dataDxfId="23"/>
-    <tableColumn id="3" xr3:uid="{9EA9F0A7-6F85-4F5A-B709-DBBEB8D0B145}" name="En" dataDxfId="22"/>
-    <tableColumn id="4" xr3:uid="{961C809F-A72E-4D1D-B80D-E6DD4ADCB1C9}" name="In" dataDxfId="21"/>
-    <tableColumn id="5" xr3:uid="{CCFD3E71-1EE7-4D11-A5C5-C8187509C6BF}" name="Ln" dataDxfId="20"/>
-    <tableColumn id="6" xr3:uid="{6203E591-F1CF-4148-9439-2379766711BE}" name="An" dataDxfId="19"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2A8CF024-17E2-4932-AE29-897F3F06695B}" name="Tabla2" displayName="Tabla2" ref="A1:H468" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28" tableBorderDxfId="27">
+  <autoFilter ref="A1:H468" xr:uid="{2A8CF024-17E2-4932-AE29-897F3F06695B}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{8057DC41-0E5E-4281-A9E4-A586B2E82B5B}" name="Referencia" dataDxfId="26"/>
+    <tableColumn id="2" xr3:uid="{2FBF424D-2F6A-492A-B6D0-B1F455E70D5F}" name="n" dataDxfId="25"/>
+    <tableColumn id="3" xr3:uid="{9EA9F0A7-6F85-4F5A-B709-DBBEB8D0B145}" name="En" dataDxfId="24"/>
+    <tableColumn id="4" xr3:uid="{961C809F-A72E-4D1D-B80D-E6DD4ADCB1C9}" name="In" dataDxfId="23"/>
+    <tableColumn id="5" xr3:uid="{CCFD3E71-1EE7-4D11-A5C5-C8187509C6BF}" name="Ln" dataDxfId="22"/>
+    <tableColumn id="6" xr3:uid="{6203E591-F1CF-4148-9439-2379766711BE}" name="An" dataDxfId="21"/>
+    <tableColumn id="7" xr3:uid="{E6C2F95C-ECD5-4675-A07B-130EA39DC376}" name="Column1" dataDxfId="20"/>
+    <tableColumn id="8" xr3:uid="{40331988-B81E-48FE-A75F-E3990DAC7387}" name="Column2" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{862B27E5-2D44-4A5B-8F8B-16A9DCA3A3B1}" name="Tabla8" displayName="Tabla8" ref="A1:C181" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17" tableBorderDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{862B27E5-2D44-4A5B-8F8B-16A9DCA3A3B1}" name="Tabla8" displayName="Tabla8" ref="A1:C181" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18" tableBorderDxfId="17">
   <autoFilter ref="A1:C181" xr:uid="{862B27E5-2D44-4A5B-8F8B-16A9DCA3A3B1}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{98FE0935-E7DA-471F-A97E-C92405B802C1}" name="Dia de la semana" dataDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{D9E09358-C5D7-4873-B32F-1F7CD3693B13}" name="t" dataDxfId="14"/>
-    <tableColumn id="3" xr3:uid="{3F3267B9-EF8E-4102-8D89-C3F4DFE6DF27}" name="Ot" dataDxfId="13"/>
+    <tableColumn id="1" xr3:uid="{98FE0935-E7DA-471F-A97E-C92405B802C1}" name="Dia de la semana" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{D9E09358-C5D7-4873-B32F-1F7CD3693B13}" name="t" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{3F3267B9-EF8E-4102-8D89-C3F4DFE6DF27}" name="Ot" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{88664100-7612-42F1-9C59-FF959EFFD2B7}" name="Tabla5" displayName="Tabla5" ref="A1:J468" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11" tableBorderDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{88664100-7612-42F1-9C59-FF959EFFD2B7}" name="Tabla5" displayName="Tabla5" ref="A1:J468" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12" tableBorderDxfId="11">
   <autoFilter ref="A1:J468" xr:uid="{88664100-7612-42F1-9C59-FF959EFFD2B7}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{C2BCA3DE-A822-4011-9A45-9A478D0C13FB}" name="Referencia" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{DFC92D2B-A5E7-48FA-878B-9C271085C627}" name="calle" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{F6969306-72AD-4295-A677-F1CD3D712354}" name="1" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{4608FC47-CC61-4C76-9C38-0C657C173AE1}" name="2" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{40DA8E0B-9A93-417E-A6DC-599C0C422FC4}" name="3" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{07300A1E-E462-4C41-AC0E-44B39BEF54A3}" name="4" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{5B1D248D-79B2-47E7-96A6-1C192C00525D}" name="5" dataDxfId="3"/>
-    <tableColumn id="8" xr3:uid="{04AC6036-2005-414E-B3B2-23BC04CDA514}" name="6" dataDxfId="2"/>
-    <tableColumn id="9" xr3:uid="{D40CD1F9-347C-4476-A9C2-75D110668527}" name="7" dataDxfId="1"/>
-    <tableColumn id="10" xr3:uid="{84CDA245-7F68-4FE1-9614-DAB683985A88}" name="8" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{C2BCA3DE-A822-4011-9A45-9A478D0C13FB}" name="Referencia" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{DFC92D2B-A5E7-48FA-878B-9C271085C627}" name="calle" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{F6969306-72AD-4295-A677-F1CD3D712354}" name="1" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{4608FC47-CC61-4C76-9C38-0C657C173AE1}" name="2" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{40DA8E0B-9A93-417E-A6DC-599C0C422FC4}" name="3" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{07300A1E-E462-4C41-AC0E-44B39BEF54A3}" name="4" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{5B1D248D-79B2-47E7-96A6-1C192C00525D}" name="5" dataDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{04AC6036-2005-414E-B3B2-23BC04CDA514}" name="6" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{D40CD1F9-347C-4476-A9C2-75D110668527}" name="7" dataDxfId="2"/>
+    <tableColumn id="10" xr3:uid="{84CDA245-7F68-4FE1-9614-DAB683985A88}" name="8" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1552,13 +1590,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBEC9640-0C3A-441F-AE08-157E9A452F08}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30.7109375" bestFit="1" customWidth="1"/>
@@ -1588,8 +1626,8 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
-        <v>1838643389</v>
+      <c r="A3" s="5">
+        <v>280062161.07999998</v>
       </c>
       <c r="B3" s="1">
         <v>180</v>
@@ -1597,6 +1635,12 @@
       <c r="C3" s="3">
         <f>(525380/22)*0.15</f>
         <v>3582.1363636363635</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <f>525380/22</f>
+        <v>23880.909090909092</v>
       </c>
     </row>
   </sheetData>
@@ -1612,7 +1656,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F9"/>
+      <selection activeCell="G26" sqref="B19:G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1846,13 +1890,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B4921FE-0515-4240-9072-541F4458CC70}">
-  <dimension ref="A1:F468"/>
+  <dimension ref="A1:H471"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B12:B19"/>
+    <sheetView tabSelected="1" topLeftCell="A437" workbookViewId="0">
+      <selection activeCell="H458" sqref="H458"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.7109375" bestFit="1" customWidth="1"/>
@@ -1861,7 +1905,7 @@
     <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -1880,8 +1924,14 @@
       <c r="F1" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
@@ -1897,11 +1947,13 @@
       <c r="E2" s="1">
         <v>254.54545450000001</v>
       </c>
-      <c r="F2" s="1">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F2" s="4">
+        <v>27</v>
+      </c>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>21</v>
       </c>
@@ -1917,11 +1969,13 @@
       <c r="E3" s="1">
         <v>254.54545450000001</v>
       </c>
-      <c r="F3" s="1">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F3" s="4">
+        <v>14</v>
+      </c>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>22</v>
       </c>
@@ -1937,11 +1991,13 @@
       <c r="E4" s="1">
         <v>254.54545450000001</v>
       </c>
-      <c r="F4" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F4" s="4">
+        <v>4</v>
+      </c>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>23</v>
       </c>
@@ -1957,11 +2013,13 @@
       <c r="E5" s="1">
         <v>254.54545450000001</v>
       </c>
-      <c r="F5" s="1">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F5" s="4">
+        <v>28</v>
+      </c>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>24</v>
       </c>
@@ -1977,11 +2035,13 @@
       <c r="E6" s="1">
         <v>254.54545450000001</v>
       </c>
-      <c r="F6" s="1">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F6" s="4">
+        <v>10</v>
+      </c>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>25</v>
       </c>
@@ -1997,11 +2057,13 @@
       <c r="E7" s="1">
         <v>254.54545450000001</v>
       </c>
-      <c r="F7" s="1">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F7" s="4">
+        <v>12</v>
+      </c>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>26</v>
       </c>
@@ -2017,11 +2079,13 @@
       <c r="E8" s="1">
         <v>254.54545450000001</v>
       </c>
-      <c r="F8" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F8" s="4">
+        <v>10</v>
+      </c>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>27</v>
       </c>
@@ -2037,11 +2101,13 @@
       <c r="E9" s="1">
         <v>254.54545450000001</v>
       </c>
-      <c r="F9" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F9" s="4">
+        <v>23</v>
+      </c>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>28</v>
       </c>
@@ -2057,11 +2123,13 @@
       <c r="E10" s="1">
         <v>254.54545450000001</v>
       </c>
-      <c r="F10" s="1">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F10" s="4">
+        <v>25</v>
+      </c>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>29</v>
       </c>
@@ -2077,11 +2145,13 @@
       <c r="E11" s="1">
         <v>254.54545450000001</v>
       </c>
-      <c r="F11" s="1">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F11" s="4">
+        <v>8</v>
+      </c>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>30</v>
       </c>
@@ -2097,11 +2167,13 @@
       <c r="E12" s="1">
         <v>254.54545450000001</v>
       </c>
-      <c r="F12" s="1">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F12" s="4">
+        <v>35</v>
+      </c>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>31</v>
       </c>
@@ -2117,11 +2189,13 @@
       <c r="E13" s="1">
         <v>254.54545450000001</v>
       </c>
-      <c r="F13" s="1">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F13" s="4">
+        <v>19</v>
+      </c>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>32</v>
       </c>
@@ -2137,11 +2211,13 @@
       <c r="E14" s="1">
         <v>254.54545450000001</v>
       </c>
-      <c r="F14" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F14" s="4">
+        <v>9</v>
+      </c>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>33</v>
       </c>
@@ -2157,11 +2233,13 @@
       <c r="E15" s="1">
         <v>254.54545450000001</v>
       </c>
-      <c r="F15" s="1">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F15" s="4">
+        <v>21</v>
+      </c>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>34</v>
       </c>
@@ -2177,11 +2255,13 @@
       <c r="E16" s="1">
         <v>254.54545450000001</v>
       </c>
-      <c r="F16" s="1">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F16" s="4">
+        <v>40</v>
+      </c>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>35</v>
       </c>
@@ -2197,11 +2277,13 @@
       <c r="E17" s="1">
         <v>254.54545450000001</v>
       </c>
-      <c r="F17" s="1">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F17" s="4">
+        <v>1</v>
+      </c>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>36</v>
       </c>
@@ -2217,11 +2299,13 @@
       <c r="E18" s="1">
         <v>254.54545450000001</v>
       </c>
-      <c r="F18" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F18" s="4">
+        <v>3</v>
+      </c>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>37</v>
       </c>
@@ -2237,11 +2321,13 @@
       <c r="E19" s="1">
         <v>254.54545450000001</v>
       </c>
-      <c r="F19" s="1">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F19" s="4">
+        <v>9</v>
+      </c>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>38</v>
       </c>
@@ -2257,11 +2343,13 @@
       <c r="E20" s="1">
         <v>254.54545450000001</v>
       </c>
-      <c r="F20" s="1">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F20" s="4">
+        <v>32</v>
+      </c>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>39</v>
       </c>
@@ -2277,11 +2365,13 @@
       <c r="E21" s="1">
         <v>254.54545450000001</v>
       </c>
-      <c r="F21" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F21" s="4">
+        <v>14</v>
+      </c>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>40</v>
       </c>
@@ -2297,11 +2387,13 @@
       <c r="E22" s="1">
         <v>254.54545450000001</v>
       </c>
-      <c r="F22" s="1">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F22" s="4">
+        <v>18</v>
+      </c>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>41</v>
       </c>
@@ -2317,11 +2409,13 @@
       <c r="E23" s="1">
         <v>254.54545450000001</v>
       </c>
-      <c r="F23" s="1">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F23" s="4">
+        <v>39</v>
+      </c>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>42</v>
       </c>
@@ -2337,11 +2431,13 @@
       <c r="E24" s="1">
         <v>259.09090909999998</v>
       </c>
-      <c r="F24" s="1">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F24" s="4">
+        <v>38</v>
+      </c>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>43</v>
       </c>
@@ -2357,11 +2453,13 @@
       <c r="E25" s="1">
         <v>259.09090909999998</v>
       </c>
-      <c r="F25" s="1">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F25" s="4">
+        <v>24</v>
+      </c>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>44</v>
       </c>
@@ -2377,11 +2475,13 @@
       <c r="E26" s="1">
         <v>259.09090909999998</v>
       </c>
-      <c r="F26" s="1">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F26" s="4">
+        <v>27</v>
+      </c>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>45</v>
       </c>
@@ -2397,11 +2497,13 @@
       <c r="E27" s="1">
         <v>259.09090909999998</v>
       </c>
-      <c r="F27" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F27" s="4">
+        <v>25</v>
+      </c>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>46</v>
       </c>
@@ -2417,11 +2519,13 @@
       <c r="E28" s="1">
         <v>259.09090909999998</v>
       </c>
-      <c r="F28" s="1">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F28" s="4">
+        <v>4</v>
+      </c>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>47</v>
       </c>
@@ -2437,11 +2541,13 @@
       <c r="E29" s="1">
         <v>259.09090909999998</v>
       </c>
-      <c r="F29" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F29" s="4">
+        <v>13</v>
+      </c>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>48</v>
       </c>
@@ -2457,11 +2563,13 @@
       <c r="E30" s="1">
         <v>259.09090909999998</v>
       </c>
-      <c r="F30" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F30" s="4">
+        <v>14</v>
+      </c>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>49</v>
       </c>
@@ -2477,11 +2585,13 @@
       <c r="E31" s="1">
         <v>259.09090909999998</v>
       </c>
-      <c r="F31" s="1">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F31" s="4">
+        <v>0</v>
+      </c>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>50</v>
       </c>
@@ -2497,11 +2607,13 @@
       <c r="E32" s="1">
         <v>259.09090909999998</v>
       </c>
-      <c r="F32" s="1">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F32" s="4">
+        <v>21</v>
+      </c>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>51</v>
       </c>
@@ -2517,11 +2629,13 @@
       <c r="E33" s="1">
         <v>259.09090909999998</v>
       </c>
-      <c r="F33" s="1">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F33" s="4">
+        <v>8</v>
+      </c>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>52</v>
       </c>
@@ -2537,11 +2651,13 @@
       <c r="E34" s="1">
         <v>259.09090909999998</v>
       </c>
-      <c r="F34" s="1">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F34" s="4">
+        <v>28</v>
+      </c>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>53</v>
       </c>
@@ -2557,11 +2673,13 @@
       <c r="E35" s="1">
         <v>237.5</v>
       </c>
-      <c r="F35" s="1">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F35" s="4">
+        <v>4</v>
+      </c>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>54</v>
       </c>
@@ -2577,11 +2695,13 @@
       <c r="E36" s="1">
         <v>237.5</v>
       </c>
-      <c r="F36" s="1">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F36" s="4">
+        <v>24</v>
+      </c>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>55</v>
       </c>
@@ -2597,11 +2717,13 @@
       <c r="E37" s="1">
         <v>237.5</v>
       </c>
-      <c r="F37" s="1">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F37" s="4">
+        <v>22</v>
+      </c>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>56</v>
       </c>
@@ -2617,11 +2739,13 @@
       <c r="E38" s="1">
         <v>237.5</v>
       </c>
-      <c r="F38" s="1">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F38" s="4">
+        <v>23</v>
+      </c>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>57</v>
       </c>
@@ -2637,11 +2761,13 @@
       <c r="E39" s="1">
         <v>237.5</v>
       </c>
-      <c r="F39" s="1">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F39" s="4">
+        <v>39</v>
+      </c>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>58</v>
       </c>
@@ -2657,11 +2783,13 @@
       <c r="E40" s="1">
         <v>237.5</v>
       </c>
-      <c r="F40" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F40" s="4">
+        <v>25</v>
+      </c>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>59</v>
       </c>
@@ -2677,11 +2805,13 @@
       <c r="E41" s="1">
         <v>237.5</v>
       </c>
-      <c r="F41" s="1">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F41" s="4">
+        <v>34</v>
+      </c>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>60</v>
       </c>
@@ -2697,11 +2827,13 @@
       <c r="E42" s="1">
         <v>237.5</v>
       </c>
-      <c r="F42" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F42" s="4">
+        <v>32</v>
+      </c>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>61</v>
       </c>
@@ -2717,11 +2849,13 @@
       <c r="E43" s="1">
         <v>237.5</v>
       </c>
-      <c r="F43" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F43" s="4">
+        <v>25</v>
+      </c>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>62</v>
       </c>
@@ -2737,11 +2871,13 @@
       <c r="E44" s="1">
         <v>237.5</v>
       </c>
-      <c r="F44" s="1">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F44" s="4">
+        <v>1</v>
+      </c>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>63</v>
       </c>
@@ -2757,11 +2893,13 @@
       <c r="E45" s="1">
         <v>237.5</v>
       </c>
-      <c r="F45" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F45" s="4">
+        <v>31</v>
+      </c>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>64</v>
       </c>
@@ -2777,11 +2915,13 @@
       <c r="E46" s="1">
         <v>237.5</v>
       </c>
-      <c r="F46" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F46" s="4">
+        <v>10</v>
+      </c>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>65</v>
       </c>
@@ -2797,11 +2937,13 @@
       <c r="E47" s="1">
         <v>241.66666670000001</v>
       </c>
-      <c r="F47" s="1">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F47" s="4">
+        <v>34</v>
+      </c>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>66</v>
       </c>
@@ -2817,11 +2959,13 @@
       <c r="E48" s="1">
         <v>241.66666670000001</v>
       </c>
-      <c r="F48" s="1">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F48" s="4">
+        <v>11</v>
+      </c>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>67</v>
       </c>
@@ -2837,11 +2981,13 @@
       <c r="E49" s="1">
         <v>241.66666670000001</v>
       </c>
-      <c r="F49" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F49" s="4">
+        <v>20</v>
+      </c>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>68</v>
       </c>
@@ -2857,11 +3003,13 @@
       <c r="E50" s="1">
         <v>241.66666670000001</v>
       </c>
-      <c r="F50" s="1">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F50" s="4">
+        <v>29</v>
+      </c>
+      <c r="G50" s="4"/>
+      <c r="H50" s="4"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>69</v>
       </c>
@@ -2877,11 +3025,13 @@
       <c r="E51" s="1">
         <v>241.66666670000001</v>
       </c>
-      <c r="F51" s="1">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F51" s="4">
+        <v>6</v>
+      </c>
+      <c r="G51" s="4"/>
+      <c r="H51" s="4"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>70</v>
       </c>
@@ -2897,11 +3047,13 @@
       <c r="E52" s="1">
         <v>241.66666670000001</v>
       </c>
-      <c r="F52" s="1">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F52" s="4">
+        <v>31</v>
+      </c>
+      <c r="G52" s="4"/>
+      <c r="H52" s="4"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>71</v>
       </c>
@@ -2917,11 +3069,13 @@
       <c r="E53" s="1">
         <v>241.66666670000001</v>
       </c>
-      <c r="F53" s="1">
+      <c r="F53" s="4">
         <v>34</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G53" s="4"/>
+      <c r="H53" s="4"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>72</v>
       </c>
@@ -2937,11 +3091,13 @@
       <c r="E54" s="1">
         <v>241.66666670000001</v>
       </c>
-      <c r="F54" s="1">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F54" s="4">
+        <v>11</v>
+      </c>
+      <c r="G54" s="4"/>
+      <c r="H54" s="4"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>73</v>
       </c>
@@ -2957,11 +3113,13 @@
       <c r="E55" s="1">
         <v>241.66666670000001</v>
       </c>
-      <c r="F55" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F55" s="4">
+        <v>29</v>
+      </c>
+      <c r="G55" s="4"/>
+      <c r="H55" s="4"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>74</v>
       </c>
@@ -2977,11 +3135,13 @@
       <c r="E56" s="1">
         <v>241.66666670000001</v>
       </c>
-      <c r="F56" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F56" s="4">
+        <v>37</v>
+      </c>
+      <c r="G56" s="4"/>
+      <c r="H56" s="4"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>75</v>
       </c>
@@ -2997,11 +3157,13 @@
       <c r="E57" s="1">
         <v>241.66666670000001</v>
       </c>
-      <c r="F57" s="1">
+      <c r="F57" s="4">
         <v>30</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G57" s="4"/>
+      <c r="H57" s="4"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>76</v>
       </c>
@@ -3017,11 +3179,13 @@
       <c r="E58" s="1">
         <v>241.66666670000001</v>
       </c>
-      <c r="F58" s="1">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F58" s="4">
+        <v>4</v>
+      </c>
+      <c r="G58" s="4"/>
+      <c r="H58" s="4"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>77</v>
       </c>
@@ -3037,11 +3201,13 @@
       <c r="E59" s="1">
         <v>263.63636359999998</v>
       </c>
-      <c r="F59" s="1">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F59" s="4">
+        <v>27</v>
+      </c>
+      <c r="G59" s="4"/>
+      <c r="H59" s="4"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>78</v>
       </c>
@@ -3057,11 +3223,13 @@
       <c r="E60" s="1">
         <v>263.63636359999998</v>
       </c>
-      <c r="F60" s="1">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F60" s="4">
+        <v>31</v>
+      </c>
+      <c r="G60" s="4"/>
+      <c r="H60" s="4"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>79</v>
       </c>
@@ -3077,11 +3245,13 @@
       <c r="E61" s="1">
         <v>263.63636359999998</v>
       </c>
-      <c r="F61" s="1">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F61" s="4">
+        <v>23</v>
+      </c>
+      <c r="G61" s="4"/>
+      <c r="H61" s="4"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>80</v>
       </c>
@@ -3097,11 +3267,13 @@
       <c r="E62" s="1">
         <v>263.63636359999998</v>
       </c>
-      <c r="F62" s="1">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F62" s="4">
+        <v>15</v>
+      </c>
+      <c r="G62" s="4"/>
+      <c r="H62" s="4"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>81</v>
       </c>
@@ -3117,11 +3289,13 @@
       <c r="E63" s="1">
         <v>263.63636359999998</v>
       </c>
-      <c r="F63" s="1">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F63" s="4">
+        <v>27</v>
+      </c>
+      <c r="G63" s="4"/>
+      <c r="H63" s="4"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>82</v>
       </c>
@@ -3137,11 +3311,13 @@
       <c r="E64" s="1">
         <v>263.63636359999998</v>
       </c>
-      <c r="F64" s="1">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F64" s="4">
+        <v>18</v>
+      </c>
+      <c r="G64" s="4"/>
+      <c r="H64" s="4"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>83</v>
       </c>
@@ -3157,11 +3333,13 @@
       <c r="E65" s="1">
         <v>263.63636359999998</v>
       </c>
-      <c r="F65" s="1">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F65" s="4">
+        <v>31</v>
+      </c>
+      <c r="G65" s="4"/>
+      <c r="H65" s="4"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>84</v>
       </c>
@@ -3177,11 +3355,13 @@
       <c r="E66" s="1">
         <v>263.63636359999998</v>
       </c>
-      <c r="F66" s="1">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F66" s="4">
+        <v>4</v>
+      </c>
+      <c r="G66" s="4"/>
+      <c r="H66" s="4"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>85</v>
       </c>
@@ -3197,11 +3377,13 @@
       <c r="E67" s="1">
         <v>263.63636359999998</v>
       </c>
-      <c r="F67" s="1">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F67" s="4">
+        <v>11</v>
+      </c>
+      <c r="G67" s="4"/>
+      <c r="H67" s="4"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>86</v>
       </c>
@@ -3217,11 +3399,13 @@
       <c r="E68" s="1">
         <v>263.63636359999998</v>
       </c>
-      <c r="F68" s="1">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F68" s="4">
+        <v>2</v>
+      </c>
+      <c r="G68" s="4"/>
+      <c r="H68" s="4"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>87</v>
       </c>
@@ -3237,11 +3421,13 @@
       <c r="E69" s="1">
         <v>263.63636359999998</v>
       </c>
-      <c r="F69" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F69" s="4">
+        <v>4</v>
+      </c>
+      <c r="G69" s="4"/>
+      <c r="H69" s="4"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>88</v>
       </c>
@@ -3257,11 +3443,13 @@
       <c r="E70" s="1">
         <v>241.66666670000001</v>
       </c>
-      <c r="F70" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F70" s="4">
+        <v>5</v>
+      </c>
+      <c r="G70" s="4"/>
+      <c r="H70" s="4"/>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>89</v>
       </c>
@@ -3277,11 +3465,13 @@
       <c r="E71" s="1">
         <v>241.66666670000001</v>
       </c>
-      <c r="F71" s="1">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F71" s="4">
+        <v>2</v>
+      </c>
+      <c r="G71" s="4"/>
+      <c r="H71" s="4"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>90</v>
       </c>
@@ -3297,11 +3487,13 @@
       <c r="E72" s="1">
         <v>241.66666670000001</v>
       </c>
-      <c r="F72" s="1">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F72" s="4">
+        <v>13</v>
+      </c>
+      <c r="G72" s="4"/>
+      <c r="H72" s="4"/>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>91</v>
       </c>
@@ -3317,11 +3509,13 @@
       <c r="E73" s="1">
         <v>241.66666670000001</v>
       </c>
-      <c r="F73" s="1">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F73" s="4">
+        <v>26</v>
+      </c>
+      <c r="G73" s="4"/>
+      <c r="H73" s="4"/>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>92</v>
       </c>
@@ -3337,11 +3531,13 @@
       <c r="E74" s="1">
         <v>241.66666670000001</v>
       </c>
-      <c r="F74" s="1">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F74" s="4">
+        <v>0</v>
+      </c>
+      <c r="G74" s="4"/>
+      <c r="H74" s="4"/>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>93</v>
       </c>
@@ -3357,11 +3553,13 @@
       <c r="E75" s="1">
         <v>241.66666670000001</v>
       </c>
-      <c r="F75" s="1">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F75" s="4">
+        <v>26</v>
+      </c>
+      <c r="G75" s="4"/>
+      <c r="H75" s="4"/>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>94</v>
       </c>
@@ -3377,11 +3575,13 @@
       <c r="E76" s="1">
         <v>241.66666670000001</v>
       </c>
-      <c r="F76" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F76" s="4">
+        <v>22</v>
+      </c>
+      <c r="G76" s="4"/>
+      <c r="H76" s="4"/>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>95</v>
       </c>
@@ -3397,11 +3597,13 @@
       <c r="E77" s="1">
         <v>241.66666670000001</v>
       </c>
-      <c r="F77" s="1">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F77" s="4">
+        <v>37</v>
+      </c>
+      <c r="G77" s="4"/>
+      <c r="H77" s="4"/>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>96</v>
       </c>
@@ -3417,11 +3619,13 @@
       <c r="E78" s="1">
         <v>241.66666670000001</v>
       </c>
-      <c r="F78" s="1">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F78" s="4">
+        <v>10</v>
+      </c>
+      <c r="G78" s="4"/>
+      <c r="H78" s="4"/>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>97</v>
       </c>
@@ -3437,11 +3641,13 @@
       <c r="E79" s="1">
         <v>241.66666670000001</v>
       </c>
-      <c r="F79" s="1">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F79" s="4">
+        <v>25</v>
+      </c>
+      <c r="G79" s="4"/>
+      <c r="H79" s="4"/>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>98</v>
       </c>
@@ -3457,11 +3663,13 @@
       <c r="E80" s="1">
         <v>241.66666670000001</v>
       </c>
-      <c r="F80" s="1">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F80" s="4">
+        <v>36</v>
+      </c>
+      <c r="G80" s="4"/>
+      <c r="H80" s="4"/>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>99</v>
       </c>
@@ -3477,11 +3685,13 @@
       <c r="E81" s="1">
         <v>241.66666670000001</v>
       </c>
-      <c r="F81" s="1">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F81" s="4">
+        <v>37</v>
+      </c>
+      <c r="G81" s="4"/>
+      <c r="H81" s="4"/>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>100</v>
       </c>
@@ -3497,11 +3707,13 @@
       <c r="E82" s="1">
         <v>272.72727270000001</v>
       </c>
-      <c r="F82" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F82" s="4">
+        <v>12</v>
+      </c>
+      <c r="G82" s="4"/>
+      <c r="H82" s="4"/>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>101</v>
       </c>
@@ -3517,11 +3729,13 @@
       <c r="E83" s="1">
         <v>272.72727270000001</v>
       </c>
-      <c r="F83" s="1">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F83" s="4">
+        <v>6</v>
+      </c>
+      <c r="G83" s="4"/>
+      <c r="H83" s="4"/>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>102</v>
       </c>
@@ -3537,11 +3751,13 @@
       <c r="E84" s="1">
         <v>272.72727270000001</v>
       </c>
-      <c r="F84" s="1">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F84" s="4">
+        <v>3</v>
+      </c>
+      <c r="G84" s="4"/>
+      <c r="H84" s="4"/>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>103</v>
       </c>
@@ -3557,11 +3773,13 @@
       <c r="E85" s="1">
         <v>272.72727270000001</v>
       </c>
-      <c r="F85" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F85" s="4">
+        <v>22</v>
+      </c>
+      <c r="G85" s="4"/>
+      <c r="H85" s="4"/>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>104</v>
       </c>
@@ -3577,11 +3795,13 @@
       <c r="E86" s="1">
         <v>272.72727270000001</v>
       </c>
-      <c r="F86" s="1">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F86" s="4">
+        <v>23</v>
+      </c>
+      <c r="G86" s="4"/>
+      <c r="H86" s="4"/>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>105</v>
       </c>
@@ -3597,11 +3817,13 @@
       <c r="E87" s="1">
         <v>272.72727270000001</v>
       </c>
-      <c r="F87" s="1">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F87" s="4">
+        <v>20</v>
+      </c>
+      <c r="G87" s="4"/>
+      <c r="H87" s="4"/>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>106</v>
       </c>
@@ -3617,11 +3839,13 @@
       <c r="E88" s="1">
         <v>272.72727270000001</v>
       </c>
-      <c r="F88" s="1">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F88" s="4">
+        <v>22</v>
+      </c>
+      <c r="G88" s="4"/>
+      <c r="H88" s="4"/>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>107</v>
       </c>
@@ -3637,11 +3861,13 @@
       <c r="E89" s="1">
         <v>272.72727270000001</v>
       </c>
-      <c r="F89" s="1">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F89" s="4">
+        <v>34</v>
+      </c>
+      <c r="G89" s="4"/>
+      <c r="H89" s="4"/>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>108</v>
       </c>
@@ -3657,11 +3883,13 @@
       <c r="E90" s="1">
         <v>272.72727270000001</v>
       </c>
-      <c r="F90" s="1">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F90" s="4">
+        <v>2</v>
+      </c>
+      <c r="G90" s="4"/>
+      <c r="H90" s="4"/>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>109</v>
       </c>
@@ -3677,11 +3905,13 @@
       <c r="E91" s="1">
         <v>272.72727270000001</v>
       </c>
-      <c r="F91" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F91" s="4">
+        <v>1</v>
+      </c>
+      <c r="G91" s="4"/>
+      <c r="H91" s="4"/>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>110</v>
       </c>
@@ -3697,11 +3927,13 @@
       <c r="E92" s="1">
         <v>272.72727270000001</v>
       </c>
-      <c r="F92" s="1">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F92" s="4">
+        <v>10</v>
+      </c>
+      <c r="G92" s="4"/>
+      <c r="H92" s="4"/>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>111</v>
       </c>
@@ -3717,11 +3949,13 @@
       <c r="E93" s="1">
         <v>281.81818179999999</v>
       </c>
-      <c r="F93" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F93" s="4">
+        <v>17</v>
+      </c>
+      <c r="G93" s="4"/>
+      <c r="H93" s="4"/>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>112</v>
       </c>
@@ -3737,11 +3971,13 @@
       <c r="E94" s="1">
         <v>281.81818179999999</v>
       </c>
-      <c r="F94" s="1">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F94" s="4">
+        <v>32</v>
+      </c>
+      <c r="G94" s="4"/>
+      <c r="H94" s="4"/>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>113</v>
       </c>
@@ -3757,11 +3993,13 @@
       <c r="E95" s="1">
         <v>281.81818179999999</v>
       </c>
-      <c r="F95" s="1">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F95" s="4">
+        <v>12</v>
+      </c>
+      <c r="G95" s="4"/>
+      <c r="H95" s="4"/>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>114</v>
       </c>
@@ -3777,11 +4015,13 @@
       <c r="E96" s="1">
         <v>281.81818179999999</v>
       </c>
-      <c r="F96" s="1">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F96" s="4">
+        <v>32</v>
+      </c>
+      <c r="G96" s="4"/>
+      <c r="H96" s="4"/>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>115</v>
       </c>
@@ -3797,11 +4037,13 @@
       <c r="E97" s="1">
         <v>281.81818179999999</v>
       </c>
-      <c r="F97" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F97" s="4">
+        <v>7</v>
+      </c>
+      <c r="G97" s="4"/>
+      <c r="H97" s="4"/>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>116</v>
       </c>
@@ -3817,11 +4059,13 @@
       <c r="E98" s="1">
         <v>281.81818179999999</v>
       </c>
-      <c r="F98" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F98" s="4">
+        <v>13</v>
+      </c>
+      <c r="G98" s="4"/>
+      <c r="H98" s="4"/>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>117</v>
       </c>
@@ -3837,11 +4081,13 @@
       <c r="E99" s="1">
         <v>281.81818179999999</v>
       </c>
-      <c r="F99" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F99" s="4">
+        <v>32</v>
+      </c>
+      <c r="G99" s="4"/>
+      <c r="H99" s="4"/>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>118</v>
       </c>
@@ -3857,11 +4103,13 @@
       <c r="E100" s="1">
         <v>281.81818179999999</v>
       </c>
-      <c r="F100" s="1">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F100" s="4">
+        <v>0</v>
+      </c>
+      <c r="G100" s="4"/>
+      <c r="H100" s="4"/>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>119</v>
       </c>
@@ -3877,11 +4125,13 @@
       <c r="E101" s="1">
         <v>281.81818179999999</v>
       </c>
-      <c r="F101" s="1">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F101" s="4">
+        <v>32</v>
+      </c>
+      <c r="G101" s="4"/>
+      <c r="H101" s="4"/>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>120</v>
       </c>
@@ -3897,11 +4147,13 @@
       <c r="E102" s="1">
         <v>281.81818179999999</v>
       </c>
-      <c r="F102" s="1">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F102" s="4">
+        <v>28</v>
+      </c>
+      <c r="G102" s="4"/>
+      <c r="H102" s="4"/>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>121</v>
       </c>
@@ -3917,11 +4169,13 @@
       <c r="E103" s="1">
         <v>281.81818179999999</v>
       </c>
-      <c r="F103" s="1">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F103" s="4">
+        <v>37</v>
+      </c>
+      <c r="G103" s="4"/>
+      <c r="H103" s="4"/>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>122</v>
       </c>
@@ -3937,11 +4191,13 @@
       <c r="E104" s="1">
         <v>258.33333329999999</v>
       </c>
-      <c r="F104" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F104" s="4">
+        <v>10</v>
+      </c>
+      <c r="G104" s="4"/>
+      <c r="H104" s="4"/>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>123</v>
       </c>
@@ -3957,11 +4213,13 @@
       <c r="E105" s="1">
         <v>258.33333329999999</v>
       </c>
-      <c r="F105" s="1">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F105" s="4">
+        <v>29</v>
+      </c>
+      <c r="G105" s="4"/>
+      <c r="H105" s="4"/>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>124</v>
       </c>
@@ -3977,11 +4235,13 @@
       <c r="E106" s="1">
         <v>258.33333329999999</v>
       </c>
-      <c r="F106" s="1">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F106" s="4">
+        <v>35</v>
+      </c>
+      <c r="G106" s="4"/>
+      <c r="H106" s="4"/>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>125</v>
       </c>
@@ -3997,11 +4257,13 @@
       <c r="E107" s="1">
         <v>258.33333329999999</v>
       </c>
-      <c r="F107" s="1">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F107" s="4">
+        <v>26</v>
+      </c>
+      <c r="G107" s="4"/>
+      <c r="H107" s="4"/>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>126</v>
       </c>
@@ -4017,11 +4279,13 @@
       <c r="E108" s="1">
         <v>258.33333329999999</v>
       </c>
-      <c r="F108" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F108" s="4">
+        <v>16</v>
+      </c>
+      <c r="G108" s="4"/>
+      <c r="H108" s="4"/>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>127</v>
       </c>
@@ -4037,11 +4301,13 @@
       <c r="E109" s="1">
         <v>258.33333329999999</v>
       </c>
-      <c r="F109" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F109" s="4">
+        <v>32</v>
+      </c>
+      <c r="G109" s="4"/>
+      <c r="H109" s="4"/>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>128</v>
       </c>
@@ -4057,11 +4323,13 @@
       <c r="E110" s="1">
         <v>258.33333329999999</v>
       </c>
-      <c r="F110" s="1">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F110" s="4">
+        <v>25</v>
+      </c>
+      <c r="G110" s="4"/>
+      <c r="H110" s="4"/>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>129</v>
       </c>
@@ -4077,11 +4345,13 @@
       <c r="E111" s="1">
         <v>258.33333329999999</v>
       </c>
-      <c r="F111" s="1">
+      <c r="F111" s="4">
         <v>15</v>
       </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G111" s="4"/>
+      <c r="H111" s="4"/>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>130</v>
       </c>
@@ -4097,11 +4367,13 @@
       <c r="E112" s="1">
         <v>258.33333329999999</v>
       </c>
-      <c r="F112" s="1">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F112" s="4">
+        <v>33</v>
+      </c>
+      <c r="G112" s="4"/>
+      <c r="H112" s="4"/>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>131</v>
       </c>
@@ -4117,11 +4389,13 @@
       <c r="E113" s="1">
         <v>258.33333329999999</v>
       </c>
-      <c r="F113" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F113" s="4">
+        <v>25</v>
+      </c>
+      <c r="G113" s="4"/>
+      <c r="H113" s="4"/>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>132</v>
       </c>
@@ -4137,11 +4411,13 @@
       <c r="E114" s="1">
         <v>258.33333329999999</v>
       </c>
-      <c r="F114" s="1">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F114" s="4">
+        <v>19</v>
+      </c>
+      <c r="G114" s="4"/>
+      <c r="H114" s="4"/>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>133</v>
       </c>
@@ -4157,11 +4433,13 @@
       <c r="E115" s="1">
         <v>258.33333329999999</v>
       </c>
-      <c r="F115" s="1">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F115" s="4">
+        <v>26</v>
+      </c>
+      <c r="G115" s="4"/>
+      <c r="H115" s="4"/>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>134</v>
       </c>
@@ -4177,11 +4455,13 @@
       <c r="E116" s="1">
         <v>370</v>
       </c>
-      <c r="F116" s="1">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F116" s="4">
+        <v>37</v>
+      </c>
+      <c r="G116" s="4"/>
+      <c r="H116" s="4"/>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>135</v>
       </c>
@@ -4197,11 +4477,13 @@
       <c r="E117" s="1">
         <v>190</v>
       </c>
-      <c r="F117" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F117" s="4">
+        <v>11</v>
+      </c>
+      <c r="G117" s="4"/>
+      <c r="H117" s="4"/>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>136</v>
       </c>
@@ -4217,11 +4499,13 @@
       <c r="E118" s="1">
         <v>420</v>
       </c>
-      <c r="F118" s="1">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F118" s="4">
+        <v>10</v>
+      </c>
+      <c r="G118" s="4"/>
+      <c r="H118" s="4"/>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>137</v>
       </c>
@@ -4237,11 +4521,13 @@
       <c r="E119" s="1">
         <v>165</v>
       </c>
-      <c r="F119" s="1">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F119" s="4">
+        <v>10</v>
+      </c>
+      <c r="G119" s="4"/>
+      <c r="H119" s="4"/>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>138</v>
       </c>
@@ -4257,11 +4543,13 @@
       <c r="E120" s="1">
         <v>170</v>
       </c>
-      <c r="F120" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F120" s="4">
+        <v>34</v>
+      </c>
+      <c r="G120" s="4"/>
+      <c r="H120" s="4"/>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>139</v>
       </c>
@@ -4277,11 +4565,13 @@
       <c r="E121" s="1">
         <v>120</v>
       </c>
-      <c r="F121" s="1">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F121" s="4">
+        <v>13</v>
+      </c>
+      <c r="G121" s="4"/>
+      <c r="H121" s="4"/>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>140</v>
       </c>
@@ -4297,11 +4587,13 @@
       <c r="E122" s="1">
         <v>270</v>
       </c>
-      <c r="F122" s="1">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F122" s="4">
+        <v>7</v>
+      </c>
+      <c r="G122" s="4"/>
+      <c r="H122" s="4"/>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>141</v>
       </c>
@@ -4317,11 +4609,13 @@
       <c r="E123" s="1">
         <v>190</v>
       </c>
-      <c r="F123" s="1">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F123" s="4">
+        <v>23</v>
+      </c>
+      <c r="G123" s="4"/>
+      <c r="H123" s="4"/>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>142</v>
       </c>
@@ -4337,11 +4631,13 @@
       <c r="E124" s="1">
         <v>710</v>
       </c>
-      <c r="F124" s="1">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F124" s="4">
+        <v>2</v>
+      </c>
+      <c r="G124" s="4"/>
+      <c r="H124" s="4"/>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>143</v>
       </c>
@@ -4357,11 +4653,13 @@
       <c r="E125" s="1">
         <v>175</v>
       </c>
-      <c r="F125" s="1">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F125" s="4">
+        <v>28</v>
+      </c>
+      <c r="G125" s="4"/>
+      <c r="H125" s="4"/>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>144</v>
       </c>
@@ -4377,11 +4675,13 @@
       <c r="E126" s="1">
         <v>115</v>
       </c>
-      <c r="F126" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F126" s="4">
+        <v>1</v>
+      </c>
+      <c r="G126" s="4"/>
+      <c r="H126" s="4"/>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>145</v>
       </c>
@@ -4397,11 +4697,13 @@
       <c r="E127" s="1">
         <v>140</v>
       </c>
-      <c r="F127" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F127" s="4">
+        <v>15</v>
+      </c>
+      <c r="G127" s="4"/>
+      <c r="H127" s="4"/>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>146</v>
       </c>
@@ -4417,11 +4719,13 @@
       <c r="E128" s="1">
         <v>170</v>
       </c>
-      <c r="F128" s="1">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F128" s="4">
+        <v>9</v>
+      </c>
+      <c r="G128" s="4"/>
+      <c r="H128" s="4"/>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>147</v>
       </c>
@@ -4437,11 +4741,13 @@
       <c r="E129" s="1">
         <v>400</v>
       </c>
-      <c r="F129" s="1">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F129" s="4">
+        <v>16</v>
+      </c>
+      <c r="G129" s="4"/>
+      <c r="H129" s="4"/>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>148</v>
       </c>
@@ -4457,11 +4763,13 @@
       <c r="E130" s="1">
         <v>150</v>
       </c>
-      <c r="F130" s="1">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F130" s="4">
+        <v>10</v>
+      </c>
+      <c r="G130" s="4"/>
+      <c r="H130" s="4"/>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>149</v>
       </c>
@@ -4477,11 +4785,13 @@
       <c r="E131" s="1">
         <v>490</v>
       </c>
-      <c r="F131" s="1">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F131" s="4">
+        <v>11</v>
+      </c>
+      <c r="G131" s="4"/>
+      <c r="H131" s="4"/>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>150</v>
       </c>
@@ -4497,11 +4807,13 @@
       <c r="E132" s="1">
         <v>340</v>
       </c>
-      <c r="F132" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F132" s="4">
+        <v>16</v>
+      </c>
+      <c r="G132" s="4"/>
+      <c r="H132" s="4"/>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>151</v>
       </c>
@@ -4517,11 +4829,13 @@
       <c r="E133" s="1">
         <v>120</v>
       </c>
-      <c r="F133" s="1">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F133" s="4">
+        <v>24</v>
+      </c>
+      <c r="G133" s="4"/>
+      <c r="H133" s="4"/>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>152</v>
       </c>
@@ -4537,11 +4851,13 @@
       <c r="E134" s="1">
         <v>340</v>
       </c>
-      <c r="F134" s="1">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F134" s="4">
+        <v>28</v>
+      </c>
+      <c r="G134" s="4"/>
+      <c r="H134" s="4"/>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>153</v>
       </c>
@@ -4557,11 +4873,13 @@
       <c r="E135" s="1">
         <v>160</v>
       </c>
-      <c r="F135" s="1">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F135" s="4">
+        <v>23</v>
+      </c>
+      <c r="G135" s="4"/>
+      <c r="H135" s="4"/>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>154</v>
       </c>
@@ -4575,11 +4893,13 @@
         <v>0</v>
       </c>
       <c r="E136" s="1"/>
-      <c r="F136" s="1">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F136" s="4">
+        <v>11</v>
+      </c>
+      <c r="G136" s="4"/>
+      <c r="H136" s="4"/>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>155</v>
       </c>
@@ -4593,11 +4913,13 @@
         <v>0</v>
       </c>
       <c r="E137" s="1"/>
-      <c r="F137" s="1">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F137" s="4">
+        <v>38</v>
+      </c>
+      <c r="G137" s="4"/>
+      <c r="H137" s="4"/>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>156</v>
       </c>
@@ -4611,11 +4933,13 @@
         <v>0</v>
       </c>
       <c r="E138" s="1"/>
-      <c r="F138" s="1">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F138" s="4">
+        <v>8</v>
+      </c>
+      <c r="G138" s="4"/>
+      <c r="H138" s="4"/>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>157</v>
       </c>
@@ -4629,11 +4953,13 @@
         <v>0</v>
       </c>
       <c r="E139" s="1"/>
-      <c r="F139" s="1">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F139" s="4">
+        <v>21</v>
+      </c>
+      <c r="G139" s="4"/>
+      <c r="H139" s="4"/>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>158</v>
       </c>
@@ -4647,11 +4973,13 @@
         <v>0</v>
       </c>
       <c r="E140" s="1"/>
-      <c r="F140" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F140" s="4">
+        <v>7</v>
+      </c>
+      <c r="G140" s="4"/>
+      <c r="H140" s="4"/>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>159</v>
       </c>
@@ -4667,11 +4995,13 @@
       <c r="E141" s="1">
         <v>370</v>
       </c>
-      <c r="F141" s="1">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F141" s="4">
+        <v>1</v>
+      </c>
+      <c r="G141" s="4"/>
+      <c r="H141" s="4"/>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>159</v>
       </c>
@@ -4687,11 +5017,13 @@
       <c r="E142" s="1">
         <v>170</v>
       </c>
-      <c r="F142" s="1">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F142" s="4">
+        <v>37</v>
+      </c>
+      <c r="G142" s="4"/>
+      <c r="H142" s="4"/>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>159</v>
       </c>
@@ -4707,11 +5039,13 @@
       <c r="E143" s="1">
         <v>560</v>
       </c>
-      <c r="F143" s="1">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F143" s="4">
+        <v>7</v>
+      </c>
+      <c r="G143" s="4"/>
+      <c r="H143" s="4"/>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>159</v>
       </c>
@@ -4727,11 +5061,13 @@
       <c r="E144" s="1">
         <v>180</v>
       </c>
-      <c r="F144" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F144" s="4">
+        <v>40</v>
+      </c>
+      <c r="G144" s="4"/>
+      <c r="H144" s="4"/>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>159</v>
       </c>
@@ -4747,11 +5083,13 @@
       <c r="E145" s="1">
         <v>170</v>
       </c>
-      <c r="F145" s="1">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F145" s="4">
+        <v>14</v>
+      </c>
+      <c r="G145" s="4"/>
+      <c r="H145" s="4"/>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>159</v>
       </c>
@@ -4767,11 +5105,13 @@
       <c r="E146" s="1">
         <v>140</v>
       </c>
-      <c r="F146" s="1">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F146" s="4">
+        <v>27</v>
+      </c>
+      <c r="G146" s="4"/>
+      <c r="H146" s="4"/>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>159</v>
       </c>
@@ -4787,11 +5127,13 @@
       <c r="E147" s="1">
         <v>300</v>
       </c>
-      <c r="F147" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F147" s="4">
+        <v>29</v>
+      </c>
+      <c r="G147" s="4"/>
+      <c r="H147" s="4"/>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>159</v>
       </c>
@@ -4807,11 +5149,13 @@
       <c r="E148" s="1">
         <v>310</v>
       </c>
-      <c r="F148" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F148" s="4">
+        <v>38</v>
+      </c>
+      <c r="G148" s="4"/>
+      <c r="H148" s="4"/>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>159</v>
       </c>
@@ -4827,11 +5171,13 @@
       <c r="E149" s="1">
         <v>500</v>
       </c>
-      <c r="F149" s="1">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F149" s="4">
+        <v>4</v>
+      </c>
+      <c r="G149" s="4"/>
+      <c r="H149" s="4"/>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>159</v>
       </c>
@@ -4847,11 +5193,13 @@
       <c r="E150" s="1">
         <v>260</v>
       </c>
-      <c r="F150" s="1">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F150" s="4">
+        <v>2</v>
+      </c>
+      <c r="G150" s="4"/>
+      <c r="H150" s="4"/>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>159</v>
       </c>
@@ -4867,11 +5215,13 @@
       <c r="E151" s="1">
         <v>160</v>
       </c>
-      <c r="F151" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F151" s="4">
+        <v>5</v>
+      </c>
+      <c r="G151" s="4"/>
+      <c r="H151" s="4"/>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>159</v>
       </c>
@@ -4887,11 +5237,13 @@
       <c r="E152" s="1">
         <v>160</v>
       </c>
-      <c r="F152" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F152" s="4">
+        <v>4</v>
+      </c>
+      <c r="G152" s="4"/>
+      <c r="H152" s="4"/>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>160</v>
       </c>
@@ -4907,11 +5259,13 @@
       <c r="E153" s="1">
         <v>340</v>
       </c>
-      <c r="F153" s="1">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F153" s="4">
+        <v>11</v>
+      </c>
+      <c r="G153" s="4"/>
+      <c r="H153" s="4"/>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>160</v>
       </c>
@@ -4927,11 +5281,13 @@
       <c r="E154" s="1">
         <v>180</v>
       </c>
-      <c r="F154" s="1">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F154" s="4">
+        <v>39</v>
+      </c>
+      <c r="G154" s="4"/>
+      <c r="H154" s="4"/>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>160</v>
       </c>
@@ -4947,11 +5303,13 @@
       <c r="E155" s="1">
         <v>640</v>
       </c>
-      <c r="F155" s="1">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F155" s="4">
+        <v>12</v>
+      </c>
+      <c r="G155" s="4"/>
+      <c r="H155" s="4"/>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
         <v>160</v>
       </c>
@@ -4967,11 +5325,13 @@
       <c r="E156" s="1">
         <v>210</v>
       </c>
-      <c r="F156" s="1">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F156" s="4">
+        <v>4</v>
+      </c>
+      <c r="G156" s="4"/>
+      <c r="H156" s="4"/>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
         <v>160</v>
       </c>
@@ -4987,11 +5347,13 @@
       <c r="E157" s="1">
         <v>270</v>
       </c>
-      <c r="F157" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F157" s="4">
+        <v>26</v>
+      </c>
+      <c r="G157" s="4"/>
+      <c r="H157" s="4"/>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
         <v>160</v>
       </c>
@@ -5007,11 +5369,13 @@
       <c r="E158" s="1">
         <v>310</v>
       </c>
-      <c r="F158" s="1">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F158" s="4">
+        <v>7</v>
+      </c>
+      <c r="G158" s="4"/>
+      <c r="H158" s="4"/>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
         <v>160</v>
       </c>
@@ -5027,11 +5391,13 @@
       <c r="E159" s="1">
         <v>320</v>
       </c>
-      <c r="F159" s="1">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F159" s="4">
+        <v>34</v>
+      </c>
+      <c r="G159" s="4"/>
+      <c r="H159" s="4"/>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>160</v>
       </c>
@@ -5047,11 +5413,13 @@
       <c r="E160" s="1">
         <v>480</v>
       </c>
-      <c r="F160" s="1">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F160" s="4">
+        <v>17</v>
+      </c>
+      <c r="G160" s="4"/>
+      <c r="H160" s="4"/>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>160</v>
       </c>
@@ -5067,11 +5435,13 @@
       <c r="E161" s="1">
         <v>210</v>
       </c>
-      <c r="F161" s="1">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F161" s="4">
+        <v>9</v>
+      </c>
+      <c r="G161" s="4"/>
+      <c r="H161" s="4"/>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
         <v>160</v>
       </c>
@@ -5087,11 +5457,13 @@
       <c r="E162" s="1">
         <v>310</v>
       </c>
-      <c r="F162" s="1">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F162" s="4">
+        <v>9</v>
+      </c>
+      <c r="G162" s="4"/>
+      <c r="H162" s="4"/>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>160</v>
       </c>
@@ -5105,11 +5477,13 @@
         <v>0</v>
       </c>
       <c r="E163" s="1"/>
-      <c r="F163" s="1">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F163" s="4">
+        <v>6</v>
+      </c>
+      <c r="G163" s="4"/>
+      <c r="H163" s="4"/>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>160</v>
       </c>
@@ -5123,11 +5497,13 @@
         <v>0</v>
       </c>
       <c r="E164" s="1"/>
-      <c r="F164" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F164" s="4">
+        <v>15</v>
+      </c>
+      <c r="G164" s="4"/>
+      <c r="H164" s="4"/>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>161</v>
       </c>
@@ -5143,11 +5519,13 @@
       <c r="E165" s="1">
         <v>250</v>
       </c>
-      <c r="F165" s="1">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F165" s="4">
+        <v>23</v>
+      </c>
+      <c r="G165" s="4"/>
+      <c r="H165" s="4"/>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>161</v>
       </c>
@@ -5163,11 +5541,13 @@
       <c r="E166" s="1">
         <v>690</v>
       </c>
-      <c r="F166" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F166" s="4">
+        <v>4</v>
+      </c>
+      <c r="G166" s="4"/>
+      <c r="H166" s="4"/>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>161</v>
       </c>
@@ -5183,11 +5563,13 @@
       <c r="E167" s="1">
         <v>240</v>
       </c>
-      <c r="F167" s="1">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F167" s="4">
+        <v>33</v>
+      </c>
+      <c r="G167" s="4"/>
+      <c r="H167" s="4"/>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
         <v>161</v>
       </c>
@@ -5203,11 +5585,13 @@
       <c r="E168" s="1">
         <v>260</v>
       </c>
-      <c r="F168" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F168" s="4">
+        <v>18</v>
+      </c>
+      <c r="G168" s="4"/>
+      <c r="H168" s="4"/>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
         <v>161</v>
       </c>
@@ -5221,11 +5605,13 @@
         <v>0</v>
       </c>
       <c r="E169" s="1"/>
-      <c r="F169" s="1">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F169" s="4">
+        <v>15</v>
+      </c>
+      <c r="G169" s="4"/>
+      <c r="H169" s="4"/>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
         <v>161</v>
       </c>
@@ -5239,11 +5625,13 @@
         <v>0</v>
       </c>
       <c r="E170" s="1"/>
-      <c r="F170" s="1">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F170" s="4">
+        <v>31</v>
+      </c>
+      <c r="G170" s="4"/>
+      <c r="H170" s="4"/>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
         <v>161</v>
       </c>
@@ -5257,11 +5645,13 @@
         <v>0</v>
       </c>
       <c r="E171" s="1"/>
-      <c r="F171" s="1">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F171" s="4">
+        <v>36</v>
+      </c>
+      <c r="G171" s="4"/>
+      <c r="H171" s="4"/>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>161</v>
       </c>
@@ -5275,11 +5665,13 @@
         <v>0</v>
       </c>
       <c r="E172" s="1"/>
-      <c r="F172" s="1">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F172" s="4">
+        <v>11</v>
+      </c>
+      <c r="G172" s="4"/>
+      <c r="H172" s="4"/>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
         <v>161</v>
       </c>
@@ -5293,11 +5685,13 @@
         <v>0</v>
       </c>
       <c r="E173" s="1"/>
-      <c r="F173" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F173" s="4">
+        <v>16</v>
+      </c>
+      <c r="G173" s="4"/>
+      <c r="H173" s="4"/>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
         <v>161</v>
       </c>
@@ -5311,11 +5705,13 @@
         <v>0</v>
       </c>
       <c r="E174" s="1"/>
-      <c r="F174" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F174" s="4">
+        <v>12</v>
+      </c>
+      <c r="G174" s="4"/>
+      <c r="H174" s="4"/>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
         <v>162</v>
       </c>
@@ -5331,11 +5727,13 @@
       <c r="E175" s="1">
         <v>750</v>
       </c>
-      <c r="F175" s="1">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F175" s="4">
+        <v>33</v>
+      </c>
+      <c r="G175" s="4"/>
+      <c r="H175" s="4"/>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
         <v>162</v>
       </c>
@@ -5351,11 +5749,13 @@
       <c r="E176" s="1">
         <v>170</v>
       </c>
-      <c r="F176" s="1">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F176" s="4">
+        <v>39</v>
+      </c>
+      <c r="G176" s="4"/>
+      <c r="H176" s="4"/>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
         <v>162</v>
       </c>
@@ -5371,11 +5771,13 @@
       <c r="E177" s="1">
         <v>270</v>
       </c>
-      <c r="F177" s="1">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F177" s="4">
+        <v>11</v>
+      </c>
+      <c r="G177" s="4"/>
+      <c r="H177" s="4"/>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
         <v>162</v>
       </c>
@@ -5391,11 +5793,13 @@
       <c r="E178" s="1">
         <v>610</v>
       </c>
-      <c r="F178" s="1">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F178" s="4">
+        <v>0</v>
+      </c>
+      <c r="G178" s="4"/>
+      <c r="H178" s="4"/>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
         <v>162</v>
       </c>
@@ -5411,11 +5815,13 @@
       <c r="E179" s="1">
         <v>530</v>
       </c>
-      <c r="F179" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F179" s="4">
+        <v>18</v>
+      </c>
+      <c r="G179" s="4"/>
+      <c r="H179" s="4"/>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
         <v>162</v>
       </c>
@@ -5431,11 +5837,13 @@
       <c r="E180" s="1">
         <v>310</v>
       </c>
-      <c r="F180" s="1">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F180" s="4">
+        <v>10</v>
+      </c>
+      <c r="G180" s="4"/>
+      <c r="H180" s="4"/>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
         <v>162</v>
       </c>
@@ -5451,11 +5859,13 @@
       <c r="E181" s="1">
         <v>310</v>
       </c>
-      <c r="F181" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F181" s="4">
+        <v>0</v>
+      </c>
+      <c r="G181" s="4"/>
+      <c r="H181" s="4"/>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
         <v>162</v>
       </c>
@@ -5469,11 +5879,13 @@
         <v>0</v>
       </c>
       <c r="E182" s="1"/>
-      <c r="F182" s="1">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F182" s="4">
+        <v>17</v>
+      </c>
+      <c r="G182" s="4"/>
+      <c r="H182" s="4"/>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
         <v>162</v>
       </c>
@@ -5487,11 +5899,13 @@
         <v>0</v>
       </c>
       <c r="E183" s="1"/>
-      <c r="F183" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F183" s="4">
+        <v>25</v>
+      </c>
+      <c r="G183" s="4"/>
+      <c r="H183" s="4"/>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
         <v>162</v>
       </c>
@@ -5505,11 +5919,13 @@
         <v>0</v>
       </c>
       <c r="E184" s="1"/>
-      <c r="F184" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F184" s="4">
+        <v>5</v>
+      </c>
+      <c r="G184" s="4"/>
+      <c r="H184" s="4"/>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
         <v>163</v>
       </c>
@@ -5525,11 +5941,13 @@
       <c r="E185" s="1">
         <v>760</v>
       </c>
-      <c r="F185" s="1">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F185" s="4">
+        <v>19</v>
+      </c>
+      <c r="G185" s="4"/>
+      <c r="H185" s="4"/>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
         <v>163</v>
       </c>
@@ -5545,11 +5963,13 @@
       <c r="E186" s="1">
         <v>180</v>
       </c>
-      <c r="F186" s="1">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F186" s="4">
+        <v>8</v>
+      </c>
+      <c r="G186" s="4"/>
+      <c r="H186" s="4"/>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
         <v>163</v>
       </c>
@@ -5565,11 +5985,13 @@
       <c r="E187" s="1">
         <v>260</v>
       </c>
-      <c r="F187" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F187" s="4">
+        <v>21</v>
+      </c>
+      <c r="G187" s="4"/>
+      <c r="H187" s="4"/>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
         <v>163</v>
       </c>
@@ -5583,11 +6005,13 @@
         <v>0</v>
       </c>
       <c r="E188" s="1"/>
-      <c r="F188" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F188" s="4">
+        <v>7</v>
+      </c>
+      <c r="G188" s="4"/>
+      <c r="H188" s="4"/>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
         <v>163</v>
       </c>
@@ -5601,11 +6025,13 @@
         <v>0</v>
       </c>
       <c r="E189" s="1"/>
-      <c r="F189" s="1">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F189" s="4">
+        <v>23</v>
+      </c>
+      <c r="G189" s="4"/>
+      <c r="H189" s="4"/>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
         <v>163</v>
       </c>
@@ -5619,11 +6045,13 @@
         <v>0</v>
       </c>
       <c r="E190" s="1"/>
-      <c r="F190" s="1">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F190" s="4">
+        <v>12</v>
+      </c>
+      <c r="G190" s="4"/>
+      <c r="H190" s="4"/>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
         <v>163</v>
       </c>
@@ -5637,11 +6065,13 @@
         <v>0</v>
       </c>
       <c r="E191" s="1"/>
-      <c r="F191" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F191" s="4">
+        <v>25</v>
+      </c>
+      <c r="G191" s="4"/>
+      <c r="H191" s="4"/>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
         <v>163</v>
       </c>
@@ -5655,11 +6085,13 @@
         <v>0</v>
       </c>
       <c r="E192" s="1"/>
-      <c r="F192" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F192" s="4">
+        <v>28</v>
+      </c>
+      <c r="G192" s="4"/>
+      <c r="H192" s="4"/>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
         <v>164</v>
       </c>
@@ -5673,11 +6105,13 @@
         <v>0</v>
       </c>
       <c r="E193" s="1"/>
-      <c r="F193" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F193" s="4">
+        <v>19</v>
+      </c>
+      <c r="G193" s="4"/>
+      <c r="H193" s="4"/>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
         <v>164</v>
       </c>
@@ -5691,11 +6125,13 @@
         <v>0</v>
       </c>
       <c r="E194" s="1"/>
-      <c r="F194" s="1">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F194" s="4">
+        <v>14</v>
+      </c>
+      <c r="G194" s="4"/>
+      <c r="H194" s="4"/>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
         <v>164</v>
       </c>
@@ -5709,11 +6145,13 @@
         <v>0</v>
       </c>
       <c r="E195" s="1"/>
-      <c r="F195" s="1">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F195" s="4">
+        <v>37</v>
+      </c>
+      <c r="G195" s="4"/>
+      <c r="H195" s="4"/>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
         <v>164</v>
       </c>
@@ -5727,11 +6165,13 @@
         <v>0</v>
       </c>
       <c r="E196" s="1"/>
-      <c r="F196" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F196" s="4">
+        <v>9</v>
+      </c>
+      <c r="G196" s="4"/>
+      <c r="H196" s="4"/>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
         <v>164</v>
       </c>
@@ -5745,11 +6185,13 @@
         <v>0</v>
       </c>
       <c r="E197" s="1"/>
-      <c r="F197" s="1">
+      <c r="F197" s="4">
         <v>23</v>
       </c>
-    </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G197" s="4"/>
+      <c r="H197" s="4"/>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
         <v>164</v>
       </c>
@@ -5763,11 +6205,13 @@
         <v>0</v>
       </c>
       <c r="E198" s="1"/>
-      <c r="F198" s="1">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F198" s="4">
+        <v>16</v>
+      </c>
+      <c r="G198" s="4"/>
+      <c r="H198" s="4"/>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
         <v>164</v>
       </c>
@@ -5781,11 +6225,13 @@
         <v>0</v>
       </c>
       <c r="E199" s="1"/>
-      <c r="F199" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F199" s="4">
+        <v>20</v>
+      </c>
+      <c r="G199" s="4"/>
+      <c r="H199" s="4"/>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
         <v>164</v>
       </c>
@@ -5799,11 +6245,13 @@
         <v>0</v>
       </c>
       <c r="E200" s="1"/>
-      <c r="F200" s="1">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F200" s="4">
+        <v>1</v>
+      </c>
+      <c r="G200" s="4"/>
+      <c r="H200" s="4"/>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
         <v>165</v>
       </c>
@@ -5819,11 +6267,13 @@
       <c r="E201" s="1">
         <v>580</v>
       </c>
-      <c r="F201" s="1">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F201" s="4">
+        <v>15</v>
+      </c>
+      <c r="G201" s="4"/>
+      <c r="H201" s="4"/>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
         <v>165</v>
       </c>
@@ -5839,11 +6289,13 @@
       <c r="E202" s="1">
         <v>180</v>
       </c>
-      <c r="F202" s="1">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F202" s="4">
+        <v>31</v>
+      </c>
+      <c r="G202" s="4"/>
+      <c r="H202" s="4"/>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
         <v>165</v>
       </c>
@@ -5859,11 +6311,13 @@
       <c r="E203" s="1">
         <v>250</v>
       </c>
-      <c r="F203" s="1">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F203" s="4">
+        <v>16</v>
+      </c>
+      <c r="G203" s="4"/>
+      <c r="H203" s="4"/>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
         <v>165</v>
       </c>
@@ -5879,11 +6333,13 @@
       <c r="E204" s="1">
         <v>650</v>
       </c>
-      <c r="F204" s="1">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F204" s="4">
+        <v>19</v>
+      </c>
+      <c r="G204" s="4"/>
+      <c r="H204" s="4"/>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
         <v>165</v>
       </c>
@@ -5897,11 +6353,13 @@
         <v>0</v>
       </c>
       <c r="E205" s="1"/>
-      <c r="F205" s="1">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F205" s="4">
+        <v>28</v>
+      </c>
+      <c r="G205" s="4"/>
+      <c r="H205" s="4"/>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
         <v>165</v>
       </c>
@@ -5915,11 +6373,13 @@
         <v>0</v>
       </c>
       <c r="E206" s="1"/>
-      <c r="F206" s="1">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F206" s="4">
+        <v>38</v>
+      </c>
+      <c r="G206" s="4"/>
+      <c r="H206" s="4"/>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
         <v>165</v>
       </c>
@@ -5933,11 +6393,13 @@
         <v>0</v>
       </c>
       <c r="E207" s="1"/>
-      <c r="F207" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F207" s="4">
+        <v>5</v>
+      </c>
+      <c r="G207" s="4"/>
+      <c r="H207" s="4"/>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
         <v>165</v>
       </c>
@@ -5951,11 +6413,13 @@
         <v>0</v>
       </c>
       <c r="E208" s="1"/>
-      <c r="F208" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F208" s="4">
+        <v>25</v>
+      </c>
+      <c r="G208" s="4"/>
+      <c r="H208" s="4"/>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
         <v>166</v>
       </c>
@@ -5971,11 +6435,13 @@
       <c r="E209" s="1">
         <v>440</v>
       </c>
-      <c r="F209" s="1">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F209" s="4">
+        <v>9</v>
+      </c>
+      <c r="G209" s="4"/>
+      <c r="H209" s="4"/>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
         <v>166</v>
       </c>
@@ -5991,11 +6457,13 @@
       <c r="E210" s="1">
         <v>280</v>
       </c>
-      <c r="F210" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F210" s="4">
+        <v>32</v>
+      </c>
+      <c r="G210" s="4"/>
+      <c r="H210" s="4"/>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
         <v>166</v>
       </c>
@@ -6011,11 +6479,13 @@
       <c r="E211" s="1">
         <v>200</v>
       </c>
-      <c r="F211" s="1">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F211" s="4">
+        <v>4</v>
+      </c>
+      <c r="G211" s="4"/>
+      <c r="H211" s="4"/>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
         <v>166</v>
       </c>
@@ -6031,11 +6501,13 @@
       <c r="E212" s="1">
         <v>680</v>
       </c>
-      <c r="F212" s="1">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F212" s="4">
+        <v>14</v>
+      </c>
+      <c r="G212" s="4"/>
+      <c r="H212" s="4"/>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
         <v>166</v>
       </c>
@@ -6051,11 +6523,13 @@
       <c r="E213" s="1">
         <v>670</v>
       </c>
-      <c r="F213" s="1">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F213" s="4">
+        <v>25</v>
+      </c>
+      <c r="G213" s="4"/>
+      <c r="H213" s="4"/>
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
         <v>166</v>
       </c>
@@ -6069,11 +6543,13 @@
         <v>0</v>
       </c>
       <c r="E214" s="1"/>
-      <c r="F214" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F214" s="4">
+        <v>24</v>
+      </c>
+      <c r="G214" s="4"/>
+      <c r="H214" s="4"/>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
         <v>166</v>
       </c>
@@ -6087,11 +6563,13 @@
         <v>0</v>
       </c>
       <c r="E215" s="1"/>
-      <c r="F215" s="1">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F215" s="4">
+        <v>4</v>
+      </c>
+      <c r="G215" s="4"/>
+      <c r="H215" s="4"/>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
         <v>166</v>
       </c>
@@ -6105,11 +6583,13 @@
         <v>0</v>
       </c>
       <c r="E216" s="1"/>
-      <c r="F216" s="1">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F216" s="4">
+        <v>15</v>
+      </c>
+      <c r="G216" s="4"/>
+      <c r="H216" s="4"/>
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
         <v>167</v>
       </c>
@@ -6125,11 +6605,13 @@
       <c r="E217" s="1">
         <v>490</v>
       </c>
-      <c r="F217" s="1">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F217" s="4">
+        <v>32</v>
+      </c>
+      <c r="G217" s="4"/>
+      <c r="H217" s="4"/>
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
         <v>167</v>
       </c>
@@ -6145,11 +6627,13 @@
       <c r="E218" s="1">
         <v>200</v>
       </c>
-      <c r="F218" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F218" s="4">
+        <v>3</v>
+      </c>
+      <c r="G218" s="4"/>
+      <c r="H218" s="4"/>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
         <v>167</v>
       </c>
@@ -6165,11 +6649,13 @@
       <c r="E219" s="1">
         <v>480</v>
       </c>
-      <c r="F219" s="1">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F219" s="4">
+        <v>16</v>
+      </c>
+      <c r="G219" s="4"/>
+      <c r="H219" s="4"/>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
         <v>167</v>
       </c>
@@ -6185,11 +6671,13 @@
       <c r="E220" s="1">
         <v>250</v>
       </c>
-      <c r="F220" s="1">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F220" s="4">
+        <v>17</v>
+      </c>
+      <c r="G220" s="4"/>
+      <c r="H220" s="4"/>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
         <v>167</v>
       </c>
@@ -6205,11 +6693,13 @@
       <c r="E221" s="1">
         <v>580</v>
       </c>
-      <c r="F221" s="1">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F221" s="4">
+        <v>29</v>
+      </c>
+      <c r="G221" s="4"/>
+      <c r="H221" s="4"/>
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
         <v>167</v>
       </c>
@@ -6223,11 +6713,13 @@
         <v>0</v>
       </c>
       <c r="E222" s="1"/>
-      <c r="F222" s="1">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F222" s="4">
+        <v>6</v>
+      </c>
+      <c r="G222" s="4"/>
+      <c r="H222" s="4"/>
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
         <v>167</v>
       </c>
@@ -6241,11 +6733,13 @@
         <v>0</v>
       </c>
       <c r="E223" s="1"/>
-      <c r="F223" s="1">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F223" s="4">
+        <v>38</v>
+      </c>
+      <c r="G223" s="4"/>
+      <c r="H223" s="4"/>
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
         <v>168</v>
       </c>
@@ -6259,11 +6753,13 @@
         <v>0</v>
       </c>
       <c r="E224" s="1"/>
-      <c r="F224" s="1">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F224" s="4">
+        <v>40</v>
+      </c>
+      <c r="G224" s="4"/>
+      <c r="H224" s="4"/>
+    </row>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
         <v>168</v>
       </c>
@@ -6277,11 +6773,13 @@
         <v>0</v>
       </c>
       <c r="E225" s="1"/>
-      <c r="F225" s="1">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F225" s="4">
+        <v>17</v>
+      </c>
+      <c r="G225" s="4"/>
+      <c r="H225" s="4"/>
+    </row>
+    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
         <v>168</v>
       </c>
@@ -6295,11 +6793,13 @@
         <v>0</v>
       </c>
       <c r="E226" s="1"/>
-      <c r="F226" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F226" s="4">
+        <v>28</v>
+      </c>
+      <c r="G226" s="4"/>
+      <c r="H226" s="4"/>
+    </row>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
         <v>168</v>
       </c>
@@ -6313,11 +6813,13 @@
         <v>0</v>
       </c>
       <c r="E227" s="1"/>
-      <c r="F227" s="1">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F227" s="4">
+        <v>26</v>
+      </c>
+      <c r="G227" s="4"/>
+      <c r="H227" s="4"/>
+    </row>
+    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
         <v>169</v>
       </c>
@@ -6333,11 +6835,13 @@
       <c r="E228" s="1">
         <v>200</v>
       </c>
-      <c r="F228" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F228" s="4">
+        <v>21</v>
+      </c>
+      <c r="G228" s="4"/>
+      <c r="H228" s="4"/>
+    </row>
+    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
         <v>169</v>
       </c>
@@ -6353,11 +6857,13 @@
       <c r="E229" s="1">
         <v>400</v>
       </c>
-      <c r="F229" s="1">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F229" s="4">
+        <v>1</v>
+      </c>
+      <c r="G229" s="4"/>
+      <c r="H229" s="4"/>
+    </row>
+    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
         <v>169</v>
       </c>
@@ -6373,11 +6879,13 @@
       <c r="E230" s="1">
         <v>180</v>
       </c>
-      <c r="F230" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F230" s="4">
+        <v>28</v>
+      </c>
+      <c r="G230" s="4"/>
+      <c r="H230" s="4"/>
+    </row>
+    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
         <v>169</v>
       </c>
@@ -6393,11 +6901,13 @@
       <c r="E231" s="1">
         <v>320</v>
       </c>
-      <c r="F231" s="1">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F231" s="4">
+        <v>6</v>
+      </c>
+      <c r="G231" s="4"/>
+      <c r="H231" s="4"/>
+    </row>
+    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
         <v>169</v>
       </c>
@@ -6413,11 +6923,13 @@
       <c r="E232" s="1">
         <v>350</v>
       </c>
-      <c r="F232" s="1">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F232" s="4">
+        <v>6</v>
+      </c>
+      <c r="G232" s="4"/>
+      <c r="H232" s="4"/>
+    </row>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
         <v>169</v>
       </c>
@@ -6433,11 +6945,13 @@
       <c r="E233" s="1">
         <v>820</v>
       </c>
-      <c r="F233" s="1">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F233" s="4">
+        <v>6</v>
+      </c>
+      <c r="G233" s="4"/>
+      <c r="H233" s="4"/>
+    </row>
+    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
         <v>169</v>
       </c>
@@ -6451,11 +6965,13 @@
         <v>0</v>
       </c>
       <c r="E234" s="1"/>
-      <c r="F234" s="1">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F234" s="4">
+        <v>0</v>
+      </c>
+      <c r="G234" s="4"/>
+      <c r="H234" s="4"/>
+    </row>
+    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
         <v>170</v>
       </c>
@@ -6471,11 +6987,13 @@
       <c r="E235" s="1">
         <v>120</v>
       </c>
-      <c r="F235" s="1">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F235" s="4">
+        <v>16</v>
+      </c>
+      <c r="G235" s="4"/>
+      <c r="H235" s="4"/>
+    </row>
+    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
         <v>170</v>
       </c>
@@ -6491,11 +7009,13 @@
       <c r="E236" s="1">
         <v>280</v>
       </c>
-      <c r="F236" s="1">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F236" s="4">
+        <v>22</v>
+      </c>
+      <c r="G236" s="4"/>
+      <c r="H236" s="4"/>
+    </row>
+    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
         <v>170</v>
       </c>
@@ -6511,11 +7031,13 @@
       <c r="E237" s="1">
         <v>400</v>
       </c>
-      <c r="F237" s="1">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F237" s="4">
+        <v>25</v>
+      </c>
+      <c r="G237" s="4"/>
+      <c r="H237" s="4"/>
+    </row>
+    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
         <v>170</v>
       </c>
@@ -6531,11 +7053,13 @@
       <c r="E238" s="1">
         <v>400</v>
       </c>
-      <c r="F238" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F238" s="4">
+        <v>35</v>
+      </c>
+      <c r="G238" s="4"/>
+      <c r="H238" s="4"/>
+    </row>
+    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
         <v>170</v>
       </c>
@@ -6551,11 +7075,13 @@
       <c r="E239" s="1">
         <v>600</v>
       </c>
-      <c r="F239" s="1">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F239" s="4">
+        <v>27</v>
+      </c>
+      <c r="G239" s="4"/>
+      <c r="H239" s="4"/>
+    </row>
+    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
         <v>170</v>
       </c>
@@ -6571,11 +7097,13 @@
       <c r="E240" s="1">
         <v>530</v>
       </c>
-      <c r="F240" s="1">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F240" s="4">
+        <v>9</v>
+      </c>
+      <c r="G240" s="4"/>
+      <c r="H240" s="4"/>
+    </row>
+    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
         <v>170</v>
       </c>
@@ -6589,11 +7117,13 @@
         <v>0</v>
       </c>
       <c r="E241" s="1"/>
-      <c r="F241" s="1">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F241" s="4">
+        <v>10</v>
+      </c>
+      <c r="G241" s="4"/>
+      <c r="H241" s="4"/>
+    </row>
+    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
         <v>170</v>
       </c>
@@ -6607,11 +7137,13 @@
         <v>0</v>
       </c>
       <c r="E242" s="1"/>
-      <c r="F242" s="1">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F242" s="4">
+        <v>38</v>
+      </c>
+      <c r="G242" s="4"/>
+      <c r="H242" s="4"/>
+    </row>
+    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
         <v>171</v>
       </c>
@@ -6627,11 +7159,13 @@
       <c r="E243" s="1">
         <v>290</v>
       </c>
-      <c r="F243" s="1">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F243" s="4">
+        <v>1</v>
+      </c>
+      <c r="G243" s="4"/>
+      <c r="H243" s="4"/>
+    </row>
+    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
         <v>171</v>
       </c>
@@ -6647,11 +7181,13 @@
       <c r="E244" s="1">
         <v>400</v>
       </c>
-      <c r="F244" s="1">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F244" s="4">
+        <v>22</v>
+      </c>
+      <c r="G244" s="4"/>
+      <c r="H244" s="4"/>
+    </row>
+    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
         <v>171</v>
       </c>
@@ -6667,11 +7203,13 @@
       <c r="E245" s="1">
         <v>295</v>
       </c>
-      <c r="F245" s="1">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F245" s="4">
+        <v>14</v>
+      </c>
+      <c r="G245" s="4"/>
+      <c r="H245" s="4"/>
+    </row>
+    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
         <v>171</v>
       </c>
@@ -6687,11 +7225,13 @@
       <c r="E246" s="1">
         <v>175</v>
       </c>
-      <c r="F246" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F246" s="4">
+        <v>38</v>
+      </c>
+      <c r="G246" s="4"/>
+      <c r="H246" s="4"/>
+    </row>
+    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
         <v>171</v>
       </c>
@@ -6707,11 +7247,13 @@
       <c r="E247" s="1">
         <v>240</v>
       </c>
-      <c r="F247" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F247" s="4">
+        <v>21</v>
+      </c>
+      <c r="G247" s="4"/>
+      <c r="H247" s="4"/>
+    </row>
+    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
         <v>171</v>
       </c>
@@ -6727,11 +7269,13 @@
       <c r="E248" s="1">
         <v>192</v>
       </c>
-      <c r="F248" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F248" s="4">
+        <v>29</v>
+      </c>
+      <c r="G248" s="4"/>
+      <c r="H248" s="4"/>
+    </row>
+    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
         <v>171</v>
       </c>
@@ -6747,11 +7291,13 @@
       <c r="E249" s="1">
         <v>366</v>
       </c>
-      <c r="F249" s="1">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F249" s="4">
+        <v>27</v>
+      </c>
+      <c r="G249" s="4"/>
+      <c r="H249" s="4"/>
+    </row>
+    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
         <v>171</v>
       </c>
@@ -6765,11 +7311,13 @@
         <v>0</v>
       </c>
       <c r="E250" s="1"/>
-      <c r="F250" s="1">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F250" s="4">
+        <v>4</v>
+      </c>
+      <c r="G250" s="4"/>
+      <c r="H250" s="4"/>
+    </row>
+    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
         <v>172</v>
       </c>
@@ -6785,11 +7333,13 @@
       <c r="E251" s="1">
         <v>111</v>
       </c>
-      <c r="F251" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F251" s="4">
+        <v>26</v>
+      </c>
+      <c r="G251" s="4"/>
+      <c r="H251" s="4"/>
+    </row>
+    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
         <v>172</v>
       </c>
@@ -6805,11 +7355,13 @@
       <c r="E252" s="1">
         <v>128</v>
       </c>
-      <c r="F252" s="1">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F252" s="4">
+        <v>15</v>
+      </c>
+      <c r="G252" s="4"/>
+      <c r="H252" s="4"/>
+    </row>
+    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
         <v>172</v>
       </c>
@@ -6825,11 +7377,13 @@
       <c r="E253" s="1">
         <v>273</v>
       </c>
-      <c r="F253" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F253" s="4">
+        <v>13</v>
+      </c>
+      <c r="G253" s="4"/>
+      <c r="H253" s="4"/>
+    </row>
+    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
         <v>172</v>
       </c>
@@ -6845,11 +7399,13 @@
       <c r="E254" s="1">
         <v>150</v>
       </c>
-      <c r="F254" s="1">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F254" s="4">
+        <v>2</v>
+      </c>
+      <c r="G254" s="4"/>
+      <c r="H254" s="4"/>
+    </row>
+    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
         <v>172</v>
       </c>
@@ -6865,11 +7421,13 @@
       <c r="E255" s="1">
         <v>280</v>
       </c>
-      <c r="F255" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F255" s="4">
+        <v>6</v>
+      </c>
+      <c r="G255" s="4"/>
+      <c r="H255" s="4"/>
+    </row>
+    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
         <v>172</v>
       </c>
@@ -6885,11 +7443,13 @@
       <c r="E256" s="1">
         <v>161</v>
       </c>
-      <c r="F256" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F256" s="4">
+        <v>39</v>
+      </c>
+      <c r="G256" s="4"/>
+      <c r="H256" s="4"/>
+    </row>
+    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
         <v>172</v>
       </c>
@@ -6905,11 +7465,13 @@
       <c r="E257" s="1">
         <v>315</v>
       </c>
-      <c r="F257" s="1">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F257" s="4">
+        <v>14</v>
+      </c>
+      <c r="G257" s="4"/>
+      <c r="H257" s="4"/>
+    </row>
+    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
         <v>172</v>
       </c>
@@ -6925,11 +7487,13 @@
       <c r="E258" s="1">
         <v>127</v>
       </c>
-      <c r="F258" s="1">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F258" s="4">
+        <v>9</v>
+      </c>
+      <c r="G258" s="4"/>
+      <c r="H258" s="4"/>
+    </row>
+    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
         <v>172</v>
       </c>
@@ -6945,11 +7509,13 @@
       <c r="E259" s="1">
         <v>200</v>
       </c>
-      <c r="F259" s="1">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F259" s="4">
+        <v>32</v>
+      </c>
+      <c r="G259" s="4"/>
+      <c r="H259" s="4"/>
+    </row>
+    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
         <v>172</v>
       </c>
@@ -6965,11 +7531,13 @@
       <c r="E260" s="1">
         <v>371</v>
       </c>
-      <c r="F260" s="1">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F260" s="4">
+        <v>26</v>
+      </c>
+      <c r="G260" s="4"/>
+      <c r="H260" s="4"/>
+    </row>
+    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
         <v>172</v>
       </c>
@@ -6985,11 +7553,13 @@
       <c r="E261" s="1">
         <v>261</v>
       </c>
-      <c r="F261" s="1">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F261" s="4">
+        <v>15</v>
+      </c>
+      <c r="G261" s="4"/>
+      <c r="H261" s="4"/>
+    </row>
+    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
         <v>172</v>
       </c>
@@ -7005,11 +7575,13 @@
       <c r="E262" s="1">
         <v>200</v>
       </c>
-      <c r="F262" s="1">
+      <c r="F262" s="4">
         <v>9</v>
       </c>
-    </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G262" s="4"/>
+      <c r="H262" s="4"/>
+    </row>
+    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
         <v>172</v>
       </c>
@@ -7025,11 +7597,13 @@
       <c r="E263" s="1">
         <v>204</v>
       </c>
-      <c r="F263" s="1">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F263" s="4">
+        <v>34</v>
+      </c>
+      <c r="G263" s="4"/>
+      <c r="H263" s="4"/>
+    </row>
+    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
         <v>172</v>
       </c>
@@ -7045,11 +7619,13 @@
       <c r="E264" s="1">
         <v>435</v>
       </c>
-      <c r="F264" s="1">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F264" s="4">
+        <v>17</v>
+      </c>
+      <c r="G264" s="4"/>
+      <c r="H264" s="4"/>
+    </row>
+    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
         <v>172</v>
       </c>
@@ -7065,11 +7641,13 @@
       <c r="E265" s="1">
         <v>121</v>
       </c>
-      <c r="F265" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F265" s="4">
+        <v>18</v>
+      </c>
+      <c r="G265" s="4"/>
+      <c r="H265" s="4"/>
+    </row>
+    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
         <v>172</v>
       </c>
@@ -7085,11 +7663,13 @@
       <c r="E266" s="1">
         <v>199</v>
       </c>
-      <c r="F266" s="1">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F266" s="4">
+        <v>4</v>
+      </c>
+      <c r="G266" s="4"/>
+      <c r="H266" s="4"/>
+    </row>
+    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
         <v>172</v>
       </c>
@@ -7105,11 +7685,13 @@
       <c r="E267" s="1">
         <v>122</v>
       </c>
-      <c r="F267" s="1">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F267" s="4">
+        <v>28</v>
+      </c>
+      <c r="G267" s="4"/>
+      <c r="H267" s="4"/>
+    </row>
+    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
         <v>172</v>
       </c>
@@ -7125,11 +7707,13 @@
       <c r="E268" s="1">
         <v>240</v>
       </c>
-      <c r="F268" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F268" s="4">
+        <v>22</v>
+      </c>
+      <c r="G268" s="4"/>
+      <c r="H268" s="4"/>
+    </row>
+    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
         <v>172</v>
       </c>
@@ -7145,11 +7729,13 @@
       <c r="E269" s="1">
         <v>272</v>
       </c>
-      <c r="F269" s="1">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F269" s="4">
+        <v>3</v>
+      </c>
+      <c r="G269" s="4"/>
+      <c r="H269" s="4"/>
+    </row>
+    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
         <v>172</v>
       </c>
@@ -7165,11 +7751,13 @@
       <c r="E270" s="1">
         <v>274</v>
       </c>
-      <c r="F270" s="1">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F270" s="4">
+        <v>0</v>
+      </c>
+      <c r="G270" s="4"/>
+      <c r="H270" s="4"/>
+    </row>
+    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
         <v>172</v>
       </c>
@@ -7185,11 +7773,13 @@
       <c r="E271" s="1">
         <v>855</v>
       </c>
-      <c r="F271" s="1">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F271" s="4">
+        <v>24</v>
+      </c>
+      <c r="G271" s="4"/>
+      <c r="H271" s="4"/>
+    </row>
+    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
         <v>173</v>
       </c>
@@ -7203,11 +7793,13 @@
         <v>0</v>
       </c>
       <c r="E272" s="1"/>
-      <c r="F272" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F272" s="4">
+        <v>29</v>
+      </c>
+      <c r="G272" s="4"/>
+      <c r="H272" s="4"/>
+    </row>
+    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
         <v>173</v>
       </c>
@@ -7221,11 +7813,13 @@
         <v>0</v>
       </c>
       <c r="E273" s="1"/>
-      <c r="F273" s="1">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F273" s="4">
+        <v>18</v>
+      </c>
+      <c r="G273" s="4"/>
+      <c r="H273" s="4"/>
+    </row>
+    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
         <v>173</v>
       </c>
@@ -7239,11 +7833,13 @@
         <v>0</v>
       </c>
       <c r="E274" s="1"/>
-      <c r="F274" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F274" s="4">
+        <v>33</v>
+      </c>
+      <c r="G274" s="4"/>
+      <c r="H274" s="4"/>
+    </row>
+    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
         <v>173</v>
       </c>
@@ -7257,11 +7853,13 @@
         <v>0</v>
       </c>
       <c r="E275" s="1"/>
-      <c r="F275" s="1">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F275" s="4">
+        <v>15</v>
+      </c>
+      <c r="G275" s="4"/>
+      <c r="H275" s="4"/>
+    </row>
+    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
         <v>173</v>
       </c>
@@ -7275,11 +7873,13 @@
         <v>0</v>
       </c>
       <c r="E276" s="1"/>
-      <c r="F276" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F276" s="4">
+        <v>19</v>
+      </c>
+      <c r="G276" s="4"/>
+      <c r="H276" s="4"/>
+    </row>
+    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
         <v>173</v>
       </c>
@@ -7293,11 +7893,13 @@
         <v>0</v>
       </c>
       <c r="E277" s="1"/>
-      <c r="F277" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F277" s="4">
+        <v>25</v>
+      </c>
+      <c r="G277" s="4"/>
+      <c r="H277" s="4"/>
+    </row>
+    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
         <v>173</v>
       </c>
@@ -7311,11 +7913,13 @@
         <v>0</v>
       </c>
       <c r="E278" s="1"/>
-      <c r="F278" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F278" s="4">
+        <v>22</v>
+      </c>
+      <c r="G278" s="4"/>
+      <c r="H278" s="4"/>
+    </row>
+    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
         <v>173</v>
       </c>
@@ -7329,11 +7933,13 @@
         <v>0</v>
       </c>
       <c r="E279" s="1"/>
-      <c r="F279" s="1">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F279" s="4">
+        <v>8</v>
+      </c>
+      <c r="G279" s="4"/>
+      <c r="H279" s="4"/>
+    </row>
+    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
         <v>173</v>
       </c>
@@ -7347,11 +7953,13 @@
         <v>0</v>
       </c>
       <c r="E280" s="1"/>
-      <c r="F280" s="1">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F280" s="4">
+        <v>13</v>
+      </c>
+      <c r="G280" s="4"/>
+      <c r="H280" s="4"/>
+    </row>
+    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
         <v>173</v>
       </c>
@@ -7365,11 +7973,13 @@
         <v>0</v>
       </c>
       <c r="E281" s="1"/>
-      <c r="F281" s="1">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F281" s="4">
+        <v>3</v>
+      </c>
+      <c r="G281" s="4"/>
+      <c r="H281" s="4"/>
+    </row>
+    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A282" s="1" t="s">
         <v>173</v>
       </c>
@@ -7383,11 +7993,13 @@
         <v>0</v>
       </c>
       <c r="E282" s="1"/>
-      <c r="F282" s="1">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F282" s="4">
+        <v>25</v>
+      </c>
+      <c r="G282" s="4"/>
+      <c r="H282" s="4"/>
+    </row>
+    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A283" s="1" t="s">
         <v>174</v>
       </c>
@@ -7403,11 +8015,13 @@
       <c r="E283" s="1">
         <v>303</v>
       </c>
-      <c r="F283" s="1">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F283" s="4">
+        <v>18</v>
+      </c>
+      <c r="G283" s="4"/>
+      <c r="H283" s="4"/>
+    </row>
+    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
         <v>174</v>
       </c>
@@ -7423,11 +8037,13 @@
       <c r="E284" s="1">
         <v>149</v>
       </c>
-      <c r="F284" s="1">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F284" s="4">
+        <v>1</v>
+      </c>
+      <c r="G284" s="4"/>
+      <c r="H284" s="4"/>
+    </row>
+    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A285" s="1" t="s">
         <v>174</v>
       </c>
@@ -7443,11 +8059,13 @@
       <c r="E285" s="1">
         <v>350</v>
       </c>
-      <c r="F285" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F285" s="4">
+        <v>3</v>
+      </c>
+      <c r="G285" s="4"/>
+      <c r="H285" s="4"/>
+    </row>
+    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
         <v>174</v>
       </c>
@@ -7463,11 +8081,13 @@
       <c r="E286" s="1">
         <v>139</v>
       </c>
-      <c r="F286" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F286" s="4">
+        <v>1</v>
+      </c>
+      <c r="G286" s="4"/>
+      <c r="H286" s="4"/>
+    </row>
+    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A287" s="1" t="s">
         <v>174</v>
       </c>
@@ -7483,11 +8103,13 @@
       <c r="E287" s="1">
         <v>157</v>
       </c>
-      <c r="F287" s="1">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F287" s="4">
+        <v>30</v>
+      </c>
+      <c r="G287" s="4"/>
+      <c r="H287" s="4"/>
+    </row>
+    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A288" s="1" t="s">
         <v>174</v>
       </c>
@@ -7503,11 +8125,13 @@
       <c r="E288" s="1">
         <v>106</v>
       </c>
-      <c r="F288" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F288" s="4">
+        <v>21</v>
+      </c>
+      <c r="G288" s="4"/>
+      <c r="H288" s="4"/>
+    </row>
+    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A289" s="1" t="s">
         <v>174</v>
       </c>
@@ -7523,11 +8147,13 @@
       <c r="E289" s="1">
         <v>178</v>
       </c>
-      <c r="F289" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F289" s="4">
+        <v>23</v>
+      </c>
+      <c r="G289" s="4"/>
+      <c r="H289" s="4"/>
+    </row>
+    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A290" s="1" t="s">
         <v>174</v>
       </c>
@@ -7543,11 +8169,13 @@
       <c r="E290" s="1">
         <v>213</v>
       </c>
-      <c r="F290" s="1">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F290" s="4">
+        <v>22</v>
+      </c>
+      <c r="G290" s="4"/>
+      <c r="H290" s="4"/>
+    </row>
+    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A291" s="1" t="s">
         <v>174</v>
       </c>
@@ -7563,11 +8191,13 @@
       <c r="E291" s="1">
         <v>230</v>
       </c>
-      <c r="F291" s="1">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F291" s="4">
+        <v>13</v>
+      </c>
+      <c r="G291" s="4"/>
+      <c r="H291" s="4"/>
+    </row>
+    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A292" s="1" t="s">
         <v>174</v>
       </c>
@@ -7583,11 +8213,13 @@
       <c r="E292" s="1">
         <v>201</v>
       </c>
-      <c r="F292" s="1">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F292" s="4">
+        <v>20</v>
+      </c>
+      <c r="G292" s="4"/>
+      <c r="H292" s="4"/>
+    </row>
+    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A293" s="1" t="s">
         <v>174</v>
       </c>
@@ -7603,11 +8235,13 @@
       <c r="E293" s="1">
         <v>339</v>
       </c>
-      <c r="F293" s="1">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F293" s="4">
+        <v>7</v>
+      </c>
+      <c r="G293" s="4"/>
+      <c r="H293" s="4"/>
+    </row>
+    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A294" s="1" t="s">
         <v>174</v>
       </c>
@@ -7623,11 +8257,13 @@
       <c r="E294" s="1">
         <v>268</v>
       </c>
-      <c r="F294" s="1">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F294" s="4">
+        <v>7</v>
+      </c>
+      <c r="G294" s="4"/>
+      <c r="H294" s="4"/>
+    </row>
+    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A295" s="1" t="s">
         <v>174</v>
       </c>
@@ -7643,11 +8279,13 @@
       <c r="E295" s="1">
         <v>281</v>
       </c>
-      <c r="F295" s="1">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F295" s="4">
+        <v>3</v>
+      </c>
+      <c r="G295" s="4"/>
+      <c r="H295" s="4"/>
+    </row>
+    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A296" s="1" t="s">
         <v>174</v>
       </c>
@@ -7663,11 +8301,13 @@
       <c r="E296" s="1">
         <v>184</v>
       </c>
-      <c r="F296" s="1">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F296" s="4">
+        <v>1</v>
+      </c>
+      <c r="G296" s="4"/>
+      <c r="H296" s="4"/>
+    </row>
+    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A297" s="1" t="s">
         <v>174</v>
       </c>
@@ -7683,11 +8323,13 @@
       <c r="E297" s="1">
         <v>359</v>
       </c>
-      <c r="F297" s="1">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F297" s="4">
+        <v>17</v>
+      </c>
+      <c r="G297" s="4"/>
+      <c r="H297" s="4"/>
+    </row>
+    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A298" s="1" t="s">
         <v>174</v>
       </c>
@@ -7703,11 +8345,13 @@
       <c r="E298" s="1">
         <v>339</v>
       </c>
-      <c r="F298" s="1">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F298" s="4">
+        <v>40</v>
+      </c>
+      <c r="G298" s="4"/>
+      <c r="H298" s="4"/>
+    </row>
+    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A299" s="1" t="s">
         <v>174</v>
       </c>
@@ -7723,11 +8367,13 @@
       <c r="E299" s="1">
         <v>345</v>
       </c>
-      <c r="F299" s="1">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F299" s="4">
+        <v>29</v>
+      </c>
+      <c r="G299" s="4"/>
+      <c r="H299" s="4"/>
+    </row>
+    <row r="300" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A300" s="1" t="s">
         <v>174</v>
       </c>
@@ -7743,11 +8389,13 @@
       <c r="E300" s="1">
         <v>226</v>
       </c>
-      <c r="F300" s="1">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F300" s="4">
+        <v>32</v>
+      </c>
+      <c r="G300" s="4"/>
+      <c r="H300" s="4"/>
+    </row>
+    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A301" s="1" t="s">
         <v>174</v>
       </c>
@@ -7763,11 +8411,13 @@
       <c r="E301" s="1">
         <v>325</v>
       </c>
-      <c r="F301" s="1">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F301" s="4">
+        <v>27</v>
+      </c>
+      <c r="G301" s="4"/>
+      <c r="H301" s="4"/>
+    </row>
+    <row r="302" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A302" s="1" t="s">
         <v>174</v>
       </c>
@@ -7783,11 +8433,13 @@
       <c r="E302" s="1">
         <v>143</v>
       </c>
-      <c r="F302" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F302" s="4">
+        <v>15</v>
+      </c>
+      <c r="G302" s="4"/>
+      <c r="H302" s="4"/>
+    </row>
+    <row r="303" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A303" s="1" t="s">
         <v>174</v>
       </c>
@@ -7803,11 +8455,13 @@
       <c r="E303" s="1">
         <v>256</v>
       </c>
-      <c r="F303" s="1">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F303" s="4">
+        <v>34</v>
+      </c>
+      <c r="G303" s="4"/>
+      <c r="H303" s="4"/>
+    </row>
+    <row r="304" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A304" s="1" t="s">
         <v>174</v>
       </c>
@@ -7823,11 +8477,13 @@
       <c r="E304" s="1">
         <v>355</v>
       </c>
-      <c r="F304" s="1">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F304" s="4">
+        <v>13</v>
+      </c>
+      <c r="G304" s="4"/>
+      <c r="H304" s="4"/>
+    </row>
+    <row r="305" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A305" s="1" t="s">
         <v>174</v>
       </c>
@@ -7841,11 +8497,13 @@
         <v>0</v>
       </c>
       <c r="E305" s="1"/>
-      <c r="F305" s="1">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F305" s="4">
+        <v>34</v>
+      </c>
+      <c r="G305" s="4"/>
+      <c r="H305" s="4"/>
+    </row>
+    <row r="306" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A306" s="1" t="s">
         <v>175</v>
       </c>
@@ -7861,11 +8519,13 @@
       <c r="E306" s="1">
         <v>78</v>
       </c>
-      <c r="F306" s="1">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F306" s="4">
+        <v>15</v>
+      </c>
+      <c r="G306" s="4"/>
+      <c r="H306" s="4"/>
+    </row>
+    <row r="307" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A307" s="1" t="s">
         <v>175</v>
       </c>
@@ -7881,11 +8541,13 @@
       <c r="E307" s="1">
         <v>157</v>
       </c>
-      <c r="F307" s="1">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F307" s="4">
+        <v>15</v>
+      </c>
+      <c r="G307" s="4"/>
+      <c r="H307" s="4"/>
+    </row>
+    <row r="308" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A308" s="1" t="s">
         <v>175</v>
       </c>
@@ -7901,11 +8563,13 @@
       <c r="E308" s="1">
         <v>245</v>
       </c>
-      <c r="F308" s="1">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F308" s="4">
+        <v>40</v>
+      </c>
+      <c r="G308" s="4"/>
+      <c r="H308" s="4"/>
+    </row>
+    <row r="309" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A309" s="1" t="s">
         <v>175</v>
       </c>
@@ -7921,11 +8585,13 @@
       <c r="E309" s="1">
         <v>199</v>
       </c>
-      <c r="F309" s="1">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F309" s="4">
+        <v>18</v>
+      </c>
+      <c r="G309" s="4"/>
+      <c r="H309" s="4"/>
+    </row>
+    <row r="310" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A310" s="1" t="s">
         <v>175</v>
       </c>
@@ -7941,11 +8607,13 @@
       <c r="E310" s="1">
         <v>79</v>
       </c>
-      <c r="F310" s="1">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F310" s="4">
+        <v>5</v>
+      </c>
+      <c r="G310" s="4"/>
+      <c r="H310" s="4"/>
+    </row>
+    <row r="311" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A311" s="1" t="s">
         <v>175</v>
       </c>
@@ -7961,11 +8629,13 @@
       <c r="E311" s="1">
         <v>187</v>
       </c>
-      <c r="F311" s="1">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F311" s="4">
+        <v>10</v>
+      </c>
+      <c r="G311" s="4"/>
+      <c r="H311" s="4"/>
+    </row>
+    <row r="312" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A312" s="1" t="s">
         <v>175</v>
       </c>
@@ -7981,11 +8651,13 @@
       <c r="E312" s="1">
         <v>230</v>
       </c>
-      <c r="F312" s="1">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F312" s="4">
+        <v>26</v>
+      </c>
+      <c r="G312" s="4"/>
+      <c r="H312" s="4"/>
+    </row>
+    <row r="313" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A313" s="1" t="s">
         <v>175</v>
       </c>
@@ -8001,11 +8673,13 @@
       <c r="E313" s="1">
         <v>183</v>
       </c>
-      <c r="F313" s="1">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F313" s="4">
+        <v>21</v>
+      </c>
+      <c r="G313" s="4"/>
+      <c r="H313" s="4"/>
+    </row>
+    <row r="314" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A314" s="1" t="s">
         <v>175</v>
       </c>
@@ -8021,11 +8695,13 @@
       <c r="E314" s="1">
         <v>360</v>
       </c>
-      <c r="F314" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F314" s="4">
+        <v>12</v>
+      </c>
+      <c r="G314" s="4"/>
+      <c r="H314" s="4"/>
+    </row>
+    <row r="315" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A315" s="1" t="s">
         <v>175</v>
       </c>
@@ -8041,11 +8717,13 @@
       <c r="E315" s="1">
         <v>219</v>
       </c>
-      <c r="F315" s="1">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F315" s="4">
+        <v>33</v>
+      </c>
+      <c r="G315" s="4"/>
+      <c r="H315" s="4"/>
+    </row>
+    <row r="316" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A316" s="1" t="s">
         <v>175</v>
       </c>
@@ -8061,11 +8739,13 @@
       <c r="E316" s="1">
         <v>285</v>
       </c>
-      <c r="F316" s="1">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F316" s="4">
+        <v>11</v>
+      </c>
+      <c r="G316" s="4"/>
+      <c r="H316" s="4"/>
+    </row>
+    <row r="317" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A317" s="1" t="s">
         <v>175</v>
       </c>
@@ -8081,11 +8761,13 @@
       <c r="E317" s="1">
         <v>166</v>
       </c>
-      <c r="F317" s="1">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F317" s="4">
+        <v>27</v>
+      </c>
+      <c r="G317" s="4"/>
+      <c r="H317" s="4"/>
+    </row>
+    <row r="318" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A318" s="1" t="s">
         <v>175</v>
       </c>
@@ -8101,11 +8783,13 @@
       <c r="E318" s="1">
         <v>368</v>
       </c>
-      <c r="F318" s="1">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F318" s="4">
+        <v>13</v>
+      </c>
+      <c r="G318" s="4"/>
+      <c r="H318" s="4"/>
+    </row>
+    <row r="319" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A319" s="1" t="s">
         <v>175</v>
       </c>
@@ -8121,11 +8805,13 @@
       <c r="E319" s="1">
         <v>343</v>
       </c>
-      <c r="F319" s="1">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F319" s="4">
+        <v>26</v>
+      </c>
+      <c r="G319" s="4"/>
+      <c r="H319" s="4"/>
+    </row>
+    <row r="320" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A320" s="1" t="s">
         <v>175</v>
       </c>
@@ -8141,11 +8827,13 @@
       <c r="E320" s="1">
         <v>121</v>
       </c>
-      <c r="F320" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F320" s="4">
+        <v>14</v>
+      </c>
+      <c r="G320" s="4"/>
+      <c r="H320" s="4"/>
+    </row>
+    <row r="321" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A321" s="1" t="s">
         <v>175</v>
       </c>
@@ -8161,11 +8849,13 @@
       <c r="E321" s="1">
         <v>197</v>
       </c>
-      <c r="F321" s="1">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F321" s="4">
+        <v>20</v>
+      </c>
+      <c r="G321" s="4"/>
+      <c r="H321" s="4"/>
+    </row>
+    <row r="322" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A322" s="1" t="s">
         <v>175</v>
       </c>
@@ -8181,11 +8871,13 @@
       <c r="E322" s="1">
         <v>120</v>
       </c>
-      <c r="F322" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F322" s="4">
+        <v>9</v>
+      </c>
+      <c r="G322" s="4"/>
+      <c r="H322" s="4"/>
+    </row>
+    <row r="323" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A323" s="1" t="s">
         <v>175</v>
       </c>
@@ -8201,11 +8893,13 @@
       <c r="E323" s="1">
         <v>113</v>
       </c>
-      <c r="F323" s="1">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F323" s="4">
+        <v>33</v>
+      </c>
+      <c r="G323" s="4"/>
+      <c r="H323" s="4"/>
+    </row>
+    <row r="324" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A324" s="1" t="s">
         <v>175</v>
       </c>
@@ -8221,11 +8915,13 @@
       <c r="E324" s="1">
         <v>352</v>
       </c>
-      <c r="F324" s="1">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F324" s="4">
+        <v>14</v>
+      </c>
+      <c r="G324" s="4"/>
+      <c r="H324" s="4"/>
+    </row>
+    <row r="325" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A325" s="1" t="s">
         <v>175</v>
       </c>
@@ -8241,11 +8937,13 @@
       <c r="E325" s="1">
         <v>650</v>
       </c>
-      <c r="F325" s="1">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F325" s="4">
+        <v>4</v>
+      </c>
+      <c r="G325" s="4"/>
+      <c r="H325" s="4"/>
+    </row>
+    <row r="326" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A326" s="1" t="s">
         <v>175</v>
       </c>
@@ -8259,11 +8957,13 @@
         <v>0</v>
       </c>
       <c r="E326" s="1"/>
-      <c r="F326" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F326" s="4">
+        <v>21</v>
+      </c>
+      <c r="G326" s="4"/>
+      <c r="H326" s="4"/>
+    </row>
+    <row r="327" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A327" s="1" t="s">
         <v>176</v>
       </c>
@@ -8279,11 +8979,13 @@
       <c r="E327" s="1">
         <v>175</v>
       </c>
-      <c r="F327" s="1">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F327" s="4">
+        <v>12</v>
+      </c>
+      <c r="G327" s="4"/>
+      <c r="H327" s="4"/>
+    </row>
+    <row r="328" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A328" s="1" t="s">
         <v>176</v>
       </c>
@@ -8299,11 +9001,13 @@
       <c r="E328" s="1">
         <v>203</v>
       </c>
-      <c r="F328" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F328" s="4">
+        <v>34</v>
+      </c>
+      <c r="G328" s="4"/>
+      <c r="H328" s="4"/>
+    </row>
+    <row r="329" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A329" s="1" t="s">
         <v>176</v>
       </c>
@@ -8319,11 +9023,13 @@
       <c r="E329" s="1">
         <v>340</v>
       </c>
-      <c r="F329" s="1">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F329" s="4">
+        <v>0</v>
+      </c>
+      <c r="G329" s="4"/>
+      <c r="H329" s="4"/>
+    </row>
+    <row r="330" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A330" s="1" t="s">
         <v>176</v>
       </c>
@@ -8339,11 +9045,13 @@
       <c r="E330" s="1">
         <v>427</v>
       </c>
-      <c r="F330" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F330" s="4">
+        <v>24</v>
+      </c>
+      <c r="G330" s="4"/>
+      <c r="H330" s="4"/>
+    </row>
+    <row r="331" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A331" s="1" t="s">
         <v>176</v>
       </c>
@@ -8359,11 +9067,13 @@
       <c r="E331" s="1">
         <v>360</v>
       </c>
-      <c r="F331" s="1">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F331" s="4">
+        <v>35</v>
+      </c>
+      <c r="G331" s="4"/>
+      <c r="H331" s="4"/>
+    </row>
+    <row r="332" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A332" s="1" t="s">
         <v>176</v>
       </c>
@@ -8379,11 +9089,13 @@
       <c r="E332" s="1">
         <v>500</v>
       </c>
-      <c r="F332" s="1">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F332" s="4">
+        <v>24</v>
+      </c>
+      <c r="G332" s="4"/>
+      <c r="H332" s="4"/>
+    </row>
+    <row r="333" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A333" s="1" t="s">
         <v>176</v>
       </c>
@@ -8399,11 +9111,13 @@
       <c r="E333" s="1">
         <v>881</v>
       </c>
-      <c r="F333" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F333" s="4">
+        <v>16</v>
+      </c>
+      <c r="G333" s="4"/>
+      <c r="H333" s="4"/>
+    </row>
+    <row r="334" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A334" s="1" t="s">
         <v>176</v>
       </c>
@@ -8419,11 +9133,13 @@
       <c r="E334" s="1">
         <v>104</v>
       </c>
-      <c r="F334" s="1">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F334" s="4">
+        <v>30</v>
+      </c>
+      <c r="G334" s="4"/>
+      <c r="H334" s="4"/>
+    </row>
+    <row r="335" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A335" s="1" t="s">
         <v>176</v>
       </c>
@@ -8437,11 +9153,13 @@
         <v>0</v>
       </c>
       <c r="E335" s="1"/>
-      <c r="F335" s="1">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F335" s="4">
+        <v>15</v>
+      </c>
+      <c r="G335" s="4"/>
+      <c r="H335" s="4"/>
+    </row>
+    <row r="336" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A336" s="1" t="s">
         <v>176</v>
       </c>
@@ -8455,11 +9173,13 @@
         <v>0</v>
       </c>
       <c r="E336" s="1"/>
-      <c r="F336" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F336" s="4">
+        <v>10</v>
+      </c>
+      <c r="G336" s="4"/>
+      <c r="H336" s="4"/>
+    </row>
+    <row r="337" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A337" s="1" t="s">
         <v>176</v>
       </c>
@@ -8473,11 +9193,13 @@
         <v>0</v>
       </c>
       <c r="E337" s="1"/>
-      <c r="F337" s="1">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F337" s="4">
+        <v>33</v>
+      </c>
+      <c r="G337" s="4"/>
+      <c r="H337" s="4"/>
+    </row>
+    <row r="338" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A338" s="1" t="s">
         <v>176</v>
       </c>
@@ -8491,11 +9213,13 @@
         <v>0</v>
       </c>
       <c r="E338" s="1"/>
-      <c r="F338" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="339" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F338" s="4">
+        <v>16</v>
+      </c>
+      <c r="G338" s="4"/>
+      <c r="H338" s="4"/>
+    </row>
+    <row r="339" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A339" s="1" t="s">
         <v>176</v>
       </c>
@@ -8509,11 +9233,13 @@
         <v>0</v>
       </c>
       <c r="E339" s="1"/>
-      <c r="F339" s="1">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F339" s="4">
+        <v>28</v>
+      </c>
+      <c r="G339" s="4"/>
+      <c r="H339" s="4"/>
+    </row>
+    <row r="340" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A340" s="1" t="s">
         <v>176</v>
       </c>
@@ -8527,11 +9253,13 @@
         <v>0</v>
       </c>
       <c r="E340" s="1"/>
-      <c r="F340" s="1">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F340" s="4">
+        <v>6</v>
+      </c>
+      <c r="G340" s="4"/>
+      <c r="H340" s="4"/>
+    </row>
+    <row r="341" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A341" s="1" t="s">
         <v>176</v>
       </c>
@@ -8545,11 +9273,13 @@
         <v>0</v>
       </c>
       <c r="E341" s="1"/>
-      <c r="F341" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F341" s="4">
+        <v>11</v>
+      </c>
+      <c r="G341" s="4"/>
+      <c r="H341" s="4"/>
+    </row>
+    <row r="342" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A342" s="1" t="s">
         <v>176</v>
       </c>
@@ -8563,11 +9293,13 @@
         <v>0</v>
       </c>
       <c r="E342" s="1"/>
-      <c r="F342" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F342" s="4">
+        <v>1</v>
+      </c>
+      <c r="G342" s="4"/>
+      <c r="H342" s="4"/>
+    </row>
+    <row r="343" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A343" s="1" t="s">
         <v>176</v>
       </c>
@@ -8581,11 +9313,13 @@
         <v>0</v>
       </c>
       <c r="E343" s="1"/>
-      <c r="F343" s="1">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F343" s="4">
+        <v>35</v>
+      </c>
+      <c r="G343" s="4"/>
+      <c r="H343" s="4"/>
+    </row>
+    <row r="344" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A344" s="1" t="s">
         <v>176</v>
       </c>
@@ -8599,11 +9333,13 @@
         <v>0</v>
       </c>
       <c r="E344" s="1"/>
-      <c r="F344" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="345" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F344" s="4">
+        <v>37</v>
+      </c>
+      <c r="G344" s="4"/>
+      <c r="H344" s="4"/>
+    </row>
+    <row r="345" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A345" s="1" t="s">
         <v>176</v>
       </c>
@@ -8617,11 +9353,13 @@
         <v>0</v>
       </c>
       <c r="E345" s="1"/>
-      <c r="F345" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="346" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F345" s="4">
+        <v>17</v>
+      </c>
+      <c r="G345" s="4"/>
+      <c r="H345" s="4"/>
+    </row>
+    <row r="346" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A346" s="1" t="s">
         <v>176</v>
       </c>
@@ -8635,11 +9373,13 @@
         <v>0</v>
       </c>
       <c r="E346" s="1"/>
-      <c r="F346" s="1">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F346" s="4">
+        <v>7</v>
+      </c>
+      <c r="G346" s="4"/>
+      <c r="H346" s="4"/>
+    </row>
+    <row r="347" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A347" s="1" t="s">
         <v>176</v>
       </c>
@@ -8653,11 +9393,13 @@
         <v>0</v>
       </c>
       <c r="E347" s="1"/>
-      <c r="F347" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F347" s="4">
+        <v>39</v>
+      </c>
+      <c r="G347" s="4"/>
+      <c r="H347" s="4"/>
+    </row>
+    <row r="348" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A348" s="1" t="s">
         <v>176</v>
       </c>
@@ -8671,11 +9413,13 @@
         <v>0</v>
       </c>
       <c r="E348" s="1"/>
-      <c r="F348" s="1">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F348" s="4">
+        <v>19</v>
+      </c>
+      <c r="G348" s="4"/>
+      <c r="H348" s="4"/>
+    </row>
+    <row r="349" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A349" s="1" t="s">
         <v>177</v>
       </c>
@@ -8691,11 +9435,13 @@
       <c r="E349" s="1">
         <v>565</v>
       </c>
-      <c r="F349" s="1">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="350" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F349" s="4">
+        <v>28</v>
+      </c>
+      <c r="G349" s="4"/>
+      <c r="H349" s="4"/>
+    </row>
+    <row r="350" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A350" s="1" t="s">
         <v>177</v>
       </c>
@@ -8711,11 +9457,13 @@
       <c r="E350" s="1">
         <v>302</v>
       </c>
-      <c r="F350" s="1">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="351" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F350" s="4">
+        <v>36</v>
+      </c>
+      <c r="G350" s="4"/>
+      <c r="H350" s="4"/>
+    </row>
+    <row r="351" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A351" s="1" t="s">
         <v>15</v>
       </c>
@@ -8731,11 +9479,13 @@
       <c r="E351" s="1">
         <v>75</v>
       </c>
-      <c r="F351" s="1">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F351" s="4">
+        <v>25</v>
+      </c>
+      <c r="G351" s="4"/>
+      <c r="H351" s="4"/>
+    </row>
+    <row r="352" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A352" s="1" t="s">
         <v>15</v>
       </c>
@@ -8751,11 +9501,13 @@
       <c r="E352" s="1">
         <v>75</v>
       </c>
-      <c r="F352" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F352" s="4">
+        <v>0</v>
+      </c>
+      <c r="G352" s="4"/>
+      <c r="H352" s="4"/>
+    </row>
+    <row r="353" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A353" s="1" t="s">
         <v>15</v>
       </c>
@@ -8771,11 +9523,13 @@
       <c r="E353" s="1">
         <v>173</v>
       </c>
-      <c r="F353" s="1">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F353" s="4">
+        <v>2</v>
+      </c>
+      <c r="G353" s="4"/>
+      <c r="H353" s="4"/>
+    </row>
+    <row r="354" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A354" s="1" t="s">
         <v>15</v>
       </c>
@@ -8791,11 +9545,13 @@
       <c r="E354" s="1">
         <v>142</v>
       </c>
-      <c r="F354" s="1">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F354" s="4">
+        <v>7</v>
+      </c>
+      <c r="G354" s="4"/>
+      <c r="H354" s="4"/>
+    </row>
+    <row r="355" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A355" s="1" t="s">
         <v>15</v>
       </c>
@@ -8811,11 +9567,13 @@
       <c r="E355" s="1">
         <v>170</v>
       </c>
-      <c r="F355" s="1">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="356" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F355" s="4">
+        <v>9</v>
+      </c>
+      <c r="G355" s="4"/>
+      <c r="H355" s="4"/>
+    </row>
+    <row r="356" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A356" s="1" t="s">
         <v>15</v>
       </c>
@@ -8831,11 +9589,13 @@
       <c r="E356" s="1">
         <v>290</v>
       </c>
-      <c r="F356" s="1">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F356" s="4">
+        <v>9</v>
+      </c>
+      <c r="G356" s="4"/>
+      <c r="H356" s="4"/>
+    </row>
+    <row r="357" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A357" s="1" t="s">
         <v>15</v>
       </c>
@@ -8851,11 +9611,13 @@
       <c r="E357" s="1">
         <v>194</v>
       </c>
-      <c r="F357" s="1">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="358" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F357" s="4">
+        <v>27</v>
+      </c>
+      <c r="G357" s="4"/>
+      <c r="H357" s="4"/>
+    </row>
+    <row r="358" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A358" s="1" t="s">
         <v>15</v>
       </c>
@@ -8871,11 +9633,13 @@
       <c r="E358" s="1">
         <v>185</v>
       </c>
-      <c r="F358" s="1">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="359" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F358" s="4">
+        <v>13</v>
+      </c>
+      <c r="G358" s="4"/>
+      <c r="H358" s="4"/>
+    </row>
+    <row r="359" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A359" s="1" t="s">
         <v>15</v>
       </c>
@@ -8891,11 +9655,13 @@
       <c r="E359" s="1">
         <v>183</v>
       </c>
-      <c r="F359" s="1">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="360" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F359" s="4">
+        <v>16</v>
+      </c>
+      <c r="G359" s="4"/>
+      <c r="H359" s="4"/>
+    </row>
+    <row r="360" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A360" s="1" t="s">
         <v>15</v>
       </c>
@@ -8911,11 +9677,13 @@
       <c r="E360" s="1">
         <v>197</v>
       </c>
-      <c r="F360" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="361" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F360" s="4">
+        <v>1</v>
+      </c>
+      <c r="G360" s="4"/>
+      <c r="H360" s="4"/>
+    </row>
+    <row r="361" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A361" s="1" t="s">
         <v>15</v>
       </c>
@@ -8931,11 +9699,13 @@
       <c r="E361" s="1">
         <v>210</v>
       </c>
-      <c r="F361" s="1">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="362" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F361" s="4">
+        <v>10</v>
+      </c>
+      <c r="G361" s="4"/>
+      <c r="H361" s="4"/>
+    </row>
+    <row r="362" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A362" s="1" t="s">
         <v>15</v>
       </c>
@@ -8951,11 +9721,13 @@
       <c r="E362" s="1">
         <v>395</v>
       </c>
-      <c r="F362" s="1">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="363" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F362" s="4">
+        <v>1</v>
+      </c>
+      <c r="G362" s="4"/>
+      <c r="H362" s="4"/>
+    </row>
+    <row r="363" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A363" s="1" t="s">
         <v>15</v>
       </c>
@@ -8971,11 +9743,13 @@
       <c r="E363" s="1">
         <v>185</v>
       </c>
-      <c r="F363" s="1">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="364" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F363" s="4">
+        <v>3</v>
+      </c>
+      <c r="G363" s="4"/>
+      <c r="H363" s="4"/>
+    </row>
+    <row r="364" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A364" s="1" t="s">
         <v>15</v>
       </c>
@@ -8991,11 +9765,13 @@
       <c r="E364" s="1">
         <v>375</v>
       </c>
-      <c r="F364" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="365" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F364" s="4">
+        <v>35</v>
+      </c>
+      <c r="G364" s="4"/>
+      <c r="H364" s="4"/>
+    </row>
+    <row r="365" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A365" s="1" t="s">
         <v>15</v>
       </c>
@@ -9011,11 +9787,13 @@
       <c r="E365" s="1">
         <v>300</v>
       </c>
-      <c r="F365" s="1">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="366" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F365" s="4">
+        <v>29</v>
+      </c>
+      <c r="G365" s="4"/>
+      <c r="H365" s="4"/>
+    </row>
+    <row r="366" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A366" s="1" t="s">
         <v>15</v>
       </c>
@@ -9031,11 +9809,13 @@
       <c r="E366" s="1">
         <v>105</v>
       </c>
-      <c r="F366" s="1">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="367" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F366" s="4">
+        <v>13</v>
+      </c>
+      <c r="G366" s="4"/>
+      <c r="H366" s="4"/>
+    </row>
+    <row r="367" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A367" s="1" t="s">
         <v>15</v>
       </c>
@@ -9051,11 +9831,13 @@
       <c r="E367" s="1">
         <v>155</v>
       </c>
-      <c r="F367" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="368" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F367" s="4">
+        <v>0</v>
+      </c>
+      <c r="G367" s="4"/>
+      <c r="H367" s="4"/>
+    </row>
+    <row r="368" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A368" s="1" t="s">
         <v>15</v>
       </c>
@@ -9071,11 +9853,13 @@
       <c r="E368" s="1">
         <v>250</v>
       </c>
-      <c r="F368" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="369" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F368" s="4">
+        <v>34</v>
+      </c>
+      <c r="G368" s="4"/>
+      <c r="H368" s="4"/>
+    </row>
+    <row r="369" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A369" s="1" t="s">
         <v>15</v>
       </c>
@@ -9091,11 +9875,13 @@
       <c r="E369" s="1">
         <v>390</v>
       </c>
-      <c r="F369" s="1">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="370" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F369" s="4">
+        <v>20</v>
+      </c>
+      <c r="G369" s="4"/>
+      <c r="H369" s="4"/>
+    </row>
+    <row r="370" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A370" s="1" t="s">
         <v>15</v>
       </c>
@@ -9111,11 +9897,13 @@
       <c r="E370" s="1">
         <v>470</v>
       </c>
-      <c r="F370" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="371" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F370" s="4">
+        <v>3</v>
+      </c>
+      <c r="G370" s="4"/>
+      <c r="H370" s="4"/>
+    </row>
+    <row r="371" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A371" s="1" t="s">
         <v>178</v>
       </c>
@@ -9131,11 +9919,13 @@
       <c r="E371" s="1">
         <v>395</v>
       </c>
-      <c r="F371" s="1">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="372" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F371" s="4">
+        <v>6</v>
+      </c>
+      <c r="G371" s="4"/>
+      <c r="H371" s="4"/>
+    </row>
+    <row r="372" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A372" s="1" t="s">
         <v>178</v>
       </c>
@@ -9151,11 +9941,13 @@
       <c r="E372" s="1">
         <v>255</v>
       </c>
-      <c r="F372" s="1">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="373" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F372" s="4">
+        <v>28</v>
+      </c>
+      <c r="G372" s="4"/>
+      <c r="H372" s="4"/>
+    </row>
+    <row r="373" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A373" s="1" t="s">
         <v>178</v>
       </c>
@@ -9171,11 +9963,13 @@
       <c r="E373" s="1">
         <v>300</v>
       </c>
-      <c r="F373" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="374" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F373" s="4">
+        <v>40</v>
+      </c>
+      <c r="G373" s="4"/>
+      <c r="H373" s="4"/>
+    </row>
+    <row r="374" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A374" s="1" t="s">
         <v>178</v>
       </c>
@@ -9191,11 +9985,13 @@
       <c r="E374" s="1">
         <v>178</v>
       </c>
-      <c r="F374" s="1">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="375" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F374" s="4">
+        <v>26</v>
+      </c>
+      <c r="G374" s="4"/>
+      <c r="H374" s="4"/>
+    </row>
+    <row r="375" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A375" s="1" t="s">
         <v>178</v>
       </c>
@@ -9211,11 +10007,13 @@
       <c r="E375" s="1">
         <v>138</v>
       </c>
-      <c r="F375" s="1">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="376" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F375" s="4">
+        <v>1</v>
+      </c>
+      <c r="G375" s="4"/>
+      <c r="H375" s="4"/>
+    </row>
+    <row r="376" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A376" s="1" t="s">
         <v>178</v>
       </c>
@@ -9231,11 +10029,13 @@
       <c r="E376" s="1">
         <v>34</v>
       </c>
-      <c r="F376" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="377" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F376" s="4">
+        <v>24</v>
+      </c>
+      <c r="G376" s="4"/>
+      <c r="H376" s="4"/>
+    </row>
+    <row r="377" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A377" s="1" t="s">
         <v>178</v>
       </c>
@@ -9251,11 +10051,13 @@
       <c r="E377" s="1">
         <v>208</v>
       </c>
-      <c r="F377" s="1">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="378" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F377" s="4">
+        <v>27</v>
+      </c>
+      <c r="G377" s="4"/>
+      <c r="H377" s="4"/>
+    </row>
+    <row r="378" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A378" s="1" t="s">
         <v>178</v>
       </c>
@@ -9271,11 +10073,13 @@
       <c r="E378" s="1">
         <v>150</v>
       </c>
-      <c r="F378" s="1">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="379" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F378" s="4">
+        <v>25</v>
+      </c>
+      <c r="G378" s="4"/>
+      <c r="H378" s="4"/>
+    </row>
+    <row r="379" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A379" s="1" t="s">
         <v>178</v>
       </c>
@@ -9291,11 +10095,13 @@
       <c r="E379" s="1">
         <v>42</v>
       </c>
-      <c r="F379" s="1">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="380" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F379" s="4">
+        <v>1</v>
+      </c>
+      <c r="G379" s="4"/>
+      <c r="H379" s="4"/>
+    </row>
+    <row r="380" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A380" s="1" t="s">
         <v>179</v>
       </c>
@@ -9311,11 +10117,13 @@
       <c r="E380" s="1">
         <v>88</v>
       </c>
-      <c r="F380" s="1">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="381" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F380" s="4">
+        <v>16</v>
+      </c>
+      <c r="G380" s="4"/>
+      <c r="H380" s="4"/>
+    </row>
+    <row r="381" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A381" s="1" t="s">
         <v>179</v>
       </c>
@@ -9331,11 +10139,13 @@
       <c r="E381" s="1">
         <v>82</v>
       </c>
-      <c r="F381" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="382" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F381" s="4">
+        <v>31</v>
+      </c>
+      <c r="G381" s="4"/>
+      <c r="H381" s="4"/>
+    </row>
+    <row r="382" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A382" s="1" t="s">
         <v>179</v>
       </c>
@@ -9351,11 +10161,13 @@
       <c r="E382" s="1">
         <v>87</v>
       </c>
-      <c r="F382" s="1">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="383" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F382" s="4">
+        <v>17</v>
+      </c>
+      <c r="G382" s="4"/>
+      <c r="H382" s="4"/>
+    </row>
+    <row r="383" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A383" s="1" t="s">
         <v>179</v>
       </c>
@@ -9371,11 +10183,13 @@
       <c r="E383" s="1">
         <v>295</v>
       </c>
-      <c r="F383" s="1">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="384" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F383" s="4">
+        <v>5</v>
+      </c>
+      <c r="G383" s="4"/>
+      <c r="H383" s="4"/>
+    </row>
+    <row r="384" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A384" s="1" t="s">
         <v>179</v>
       </c>
@@ -9391,11 +10205,13 @@
       <c r="E384" s="1">
         <v>200</v>
       </c>
-      <c r="F384" s="1">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="385" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F384" s="4">
+        <v>37</v>
+      </c>
+      <c r="G384" s="4"/>
+      <c r="H384" s="4"/>
+    </row>
+    <row r="385" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A385" s="1" t="s">
         <v>179</v>
       </c>
@@ -9411,11 +10227,13 @@
       <c r="E385" s="1">
         <v>248</v>
       </c>
-      <c r="F385" s="1">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="386" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F385" s="4">
+        <v>15</v>
+      </c>
+      <c r="G385" s="4"/>
+      <c r="H385" s="4"/>
+    </row>
+    <row r="386" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A386" s="1" t="s">
         <v>179</v>
       </c>
@@ -9431,11 +10249,13 @@
       <c r="E386" s="1">
         <v>281</v>
       </c>
-      <c r="F386" s="1">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="387" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F386" s="4">
+        <v>13</v>
+      </c>
+      <c r="G386" s="4"/>
+      <c r="H386" s="4"/>
+    </row>
+    <row r="387" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A387" s="1" t="s">
         <v>179</v>
       </c>
@@ -9451,11 +10271,13 @@
       <c r="E387" s="1">
         <v>477</v>
       </c>
-      <c r="F387" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="388" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F387" s="4">
+        <v>19</v>
+      </c>
+      <c r="G387" s="4"/>
+      <c r="H387" s="4"/>
+    </row>
+    <row r="388" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A388" s="1" t="s">
         <v>179</v>
       </c>
@@ -9471,11 +10293,13 @@
       <c r="E388" s="1">
         <v>288</v>
       </c>
-      <c r="F388" s="1">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="389" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F388" s="4">
+        <v>5</v>
+      </c>
+      <c r="G388" s="4"/>
+      <c r="H388" s="4"/>
+    </row>
+    <row r="389" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A389" s="1" t="s">
         <v>179</v>
       </c>
@@ -9491,11 +10315,13 @@
       <c r="E389" s="1">
         <v>167</v>
       </c>
-      <c r="F389" s="1">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="390" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F389" s="4">
+        <v>17</v>
+      </c>
+      <c r="G389" s="4"/>
+      <c r="H389" s="4"/>
+    </row>
+    <row r="390" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A390" s="1" t="s">
         <v>179</v>
       </c>
@@ -9511,11 +10337,13 @@
       <c r="E390" s="1">
         <v>194</v>
       </c>
-      <c r="F390" s="1">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="391" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F390" s="4">
+        <v>8</v>
+      </c>
+      <c r="G390" s="4"/>
+      <c r="H390" s="4"/>
+    </row>
+    <row r="391" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A391" s="1" t="s">
         <v>179</v>
       </c>
@@ -9531,11 +10359,13 @@
       <c r="E391" s="1">
         <v>360</v>
       </c>
-      <c r="F391" s="1">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="392" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F391" s="4">
+        <v>21</v>
+      </c>
+      <c r="G391" s="4"/>
+      <c r="H391" s="4"/>
+    </row>
+    <row r="392" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A392" s="1" t="s">
         <v>179</v>
       </c>
@@ -9549,11 +10379,13 @@
         <v>0</v>
       </c>
       <c r="E392" s="1"/>
-      <c r="F392" s="1">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="393" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F392" s="4">
+        <v>28</v>
+      </c>
+      <c r="G392" s="4"/>
+      <c r="H392" s="4"/>
+    </row>
+    <row r="393" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A393" s="1" t="s">
         <v>179</v>
       </c>
@@ -9567,11 +10399,13 @@
         <v>0</v>
       </c>
       <c r="E393" s="1"/>
-      <c r="F393" s="1">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="394" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F393" s="4">
+        <v>3</v>
+      </c>
+      <c r="G393" s="4"/>
+      <c r="H393" s="4"/>
+    </row>
+    <row r="394" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A394" s="1" t="s">
         <v>180</v>
       </c>
@@ -9587,11 +10421,13 @@
       <c r="E394" s="1">
         <v>228</v>
       </c>
-      <c r="F394" s="1">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="395" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F394" s="4">
+        <v>24</v>
+      </c>
+      <c r="G394" s="4"/>
+      <c r="H394" s="4"/>
+    </row>
+    <row r="395" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A395" s="1" t="s">
         <v>180</v>
       </c>
@@ -9607,11 +10443,13 @@
       <c r="E395" s="1">
         <v>283</v>
       </c>
-      <c r="F395" s="1">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="396" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F395" s="4">
+        <v>31</v>
+      </c>
+      <c r="G395" s="4"/>
+      <c r="H395" s="4"/>
+    </row>
+    <row r="396" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A396" s="1" t="s">
         <v>180</v>
       </c>
@@ -9627,11 +10465,13 @@
       <c r="E396" s="1">
         <v>112</v>
       </c>
-      <c r="F396" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="397" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F396" s="4">
+        <v>12</v>
+      </c>
+      <c r="G396" s="4"/>
+      <c r="H396" s="4"/>
+    </row>
+    <row r="397" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A397" s="1" t="s">
         <v>180</v>
       </c>
@@ -9647,11 +10487,13 @@
       <c r="E397" s="1">
         <v>237</v>
       </c>
-      <c r="F397" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="398" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F397" s="4">
+        <v>31</v>
+      </c>
+      <c r="G397" s="4"/>
+      <c r="H397" s="4"/>
+    </row>
+    <row r="398" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A398" s="1" t="s">
         <v>180</v>
       </c>
@@ -9667,11 +10509,13 @@
       <c r="E398" s="1">
         <v>195</v>
       </c>
-      <c r="F398" s="1">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="399" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F398" s="4">
+        <v>34</v>
+      </c>
+      <c r="G398" s="4"/>
+      <c r="H398" s="4"/>
+    </row>
+    <row r="399" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A399" s="1" t="s">
         <v>180</v>
       </c>
@@ -9687,11 +10531,13 @@
       <c r="E399" s="1">
         <v>185</v>
       </c>
-      <c r="F399" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="400" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F399" s="4">
+        <v>4</v>
+      </c>
+      <c r="G399" s="4"/>
+      <c r="H399" s="4"/>
+    </row>
+    <row r="400" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A400" s="1" t="s">
         <v>180</v>
       </c>
@@ -9707,11 +10553,13 @@
       <c r="E400" s="1">
         <v>244</v>
       </c>
-      <c r="F400" s="1">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="401" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F400" s="4">
+        <v>32</v>
+      </c>
+      <c r="G400" s="4"/>
+      <c r="H400" s="4"/>
+    </row>
+    <row r="401" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A401" s="1" t="s">
         <v>180</v>
       </c>
@@ -9727,11 +10575,13 @@
       <c r="E401" s="1">
         <v>195</v>
       </c>
-      <c r="F401" s="1">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="402" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F401" s="4">
+        <v>29</v>
+      </c>
+      <c r="G401" s="4"/>
+      <c r="H401" s="4"/>
+    </row>
+    <row r="402" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A402" s="1" t="s">
         <v>180</v>
       </c>
@@ -9747,11 +10597,13 @@
       <c r="E402" s="1">
         <v>374</v>
       </c>
-      <c r="F402" s="1">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="403" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F402" s="4">
+        <v>34</v>
+      </c>
+      <c r="G402" s="4"/>
+      <c r="H402" s="4"/>
+    </row>
+    <row r="403" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A403" s="1" t="s">
         <v>180</v>
       </c>
@@ -9767,11 +10619,13 @@
       <c r="E403" s="1">
         <v>230</v>
       </c>
-      <c r="F403" s="1">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="404" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F403" s="4">
+        <v>26</v>
+      </c>
+      <c r="G403" s="4"/>
+      <c r="H403" s="4"/>
+    </row>
+    <row r="404" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A404" s="1" t="s">
         <v>180</v>
       </c>
@@ -9787,11 +10641,13 @@
       <c r="E404" s="1">
         <v>300</v>
       </c>
-      <c r="F404" s="1">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="405" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F404" s="4">
+        <v>18</v>
+      </c>
+      <c r="G404" s="4"/>
+      <c r="H404" s="4"/>
+    </row>
+    <row r="405" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A405" s="1" t="s">
         <v>180</v>
       </c>
@@ -9807,11 +10663,13 @@
       <c r="E405" s="1">
         <v>165</v>
       </c>
-      <c r="F405" s="1">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="406" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F405" s="4">
+        <v>9</v>
+      </c>
+      <c r="G405" s="4"/>
+      <c r="H405" s="4"/>
+    </row>
+    <row r="406" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A406" s="1" t="s">
         <v>180</v>
       </c>
@@ -9827,11 +10685,13 @@
       <c r="E406" s="1">
         <v>120</v>
       </c>
-      <c r="F406" s="1">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="407" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F406" s="4">
+        <v>38</v>
+      </c>
+      <c r="G406" s="4"/>
+      <c r="H406" s="4"/>
+    </row>
+    <row r="407" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A407" s="1" t="s">
         <v>181</v>
       </c>
@@ -9847,11 +10707,13 @@
       <c r="E407" s="1">
         <v>260</v>
       </c>
-      <c r="F407" s="1">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="408" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F407" s="4">
+        <v>23</v>
+      </c>
+      <c r="G407" s="4"/>
+      <c r="H407" s="4"/>
+    </row>
+    <row r="408" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A408" s="1" t="s">
         <v>181</v>
       </c>
@@ -9867,11 +10729,13 @@
       <c r="E408" s="1">
         <v>140</v>
       </c>
-      <c r="F408" s="1">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="409" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F408" s="4">
+        <v>18</v>
+      </c>
+      <c r="G408" s="4"/>
+      <c r="H408" s="4"/>
+    </row>
+    <row r="409" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A409" s="1" t="s">
         <v>181</v>
       </c>
@@ -9887,11 +10751,13 @@
       <c r="E409" s="1">
         <v>160</v>
       </c>
-      <c r="F409" s="1">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="410" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F409" s="4">
+        <v>18</v>
+      </c>
+      <c r="G409" s="4"/>
+      <c r="H409" s="4"/>
+    </row>
+    <row r="410" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A410" s="1" t="s">
         <v>181</v>
       </c>
@@ -9907,11 +10773,13 @@
       <c r="E410" s="1">
         <v>45</v>
       </c>
-      <c r="F410" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="411" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F410" s="4">
+        <v>34</v>
+      </c>
+      <c r="G410" s="4"/>
+      <c r="H410" s="4"/>
+    </row>
+    <row r="411" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A411" s="1" t="s">
         <v>181</v>
       </c>
@@ -9927,11 +10795,13 @@
       <c r="E411" s="1">
         <v>150</v>
       </c>
-      <c r="F411" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="412" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F411" s="4">
+        <v>5</v>
+      </c>
+      <c r="G411" s="4"/>
+      <c r="H411" s="4"/>
+    </row>
+    <row r="412" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A412" s="1" t="s">
         <v>181</v>
       </c>
@@ -9947,11 +10817,13 @@
       <c r="E412" s="1">
         <v>315</v>
       </c>
-      <c r="F412" s="1">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="413" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F412" s="4">
+        <v>15</v>
+      </c>
+      <c r="G412" s="4"/>
+      <c r="H412" s="4"/>
+    </row>
+    <row r="413" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A413" s="1" t="s">
         <v>0</v>
       </c>
@@ -9967,11 +10839,13 @@
       <c r="E413" s="1">
         <v>200</v>
       </c>
-      <c r="F413" s="1">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="414" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F413" s="4">
+        <v>35</v>
+      </c>
+      <c r="G413" s="4"/>
+      <c r="H413" s="4"/>
+    </row>
+    <row r="414" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A414" s="1" t="s">
         <v>0</v>
       </c>
@@ -9987,11 +10861,13 @@
       <c r="E414" s="1">
         <v>255</v>
       </c>
-      <c r="F414" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="415" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F414" s="4">
+        <v>20</v>
+      </c>
+      <c r="G414" s="4"/>
+      <c r="H414" s="4"/>
+    </row>
+    <row r="415" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A415" s="1" t="s">
         <v>0</v>
       </c>
@@ -10007,11 +10883,13 @@
       <c r="E415" s="1">
         <v>203</v>
       </c>
-      <c r="F415" s="1">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="416" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F415" s="4">
+        <v>13</v>
+      </c>
+      <c r="G415" s="4"/>
+      <c r="H415" s="4"/>
+    </row>
+    <row r="416" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A416" s="1" t="s">
         <v>0</v>
       </c>
@@ -10027,11 +10905,13 @@
       <c r="E416" s="1">
         <v>234</v>
       </c>
-      <c r="F416" s="1">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="417" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F416" s="4">
+        <v>37</v>
+      </c>
+      <c r="G416" s="4"/>
+      <c r="H416" s="4"/>
+    </row>
+    <row r="417" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A417" s="1" t="s">
         <v>0</v>
       </c>
@@ -10047,11 +10927,13 @@
       <c r="E417" s="1">
         <v>46</v>
       </c>
-      <c r="F417" s="1">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="418" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F417" s="4">
+        <v>23</v>
+      </c>
+      <c r="G417" s="4"/>
+      <c r="H417" s="4"/>
+    </row>
+    <row r="418" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A418" s="1" t="s">
         <v>0</v>
       </c>
@@ -10067,11 +10949,13 @@
       <c r="E418" s="1">
         <v>323</v>
       </c>
-      <c r="F418" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="419" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F418" s="4">
+        <v>24</v>
+      </c>
+      <c r="G418" s="4"/>
+      <c r="H418" s="4"/>
+    </row>
+    <row r="419" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A419" s="1" t="s">
         <v>0</v>
       </c>
@@ -10087,11 +10971,13 @@
       <c r="E419" s="1">
         <v>167</v>
       </c>
-      <c r="F419" s="1">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="420" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F419" s="4">
+        <v>25</v>
+      </c>
+      <c r="G419" s="4"/>
+      <c r="H419" s="4"/>
+    </row>
+    <row r="420" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A420" s="1" t="s">
         <v>0</v>
       </c>
@@ -10107,11 +10993,13 @@
       <c r="E420" s="1">
         <v>165</v>
       </c>
-      <c r="F420" s="1">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="421" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F420" s="4">
+        <v>40</v>
+      </c>
+      <c r="G420" s="4"/>
+      <c r="H420" s="4"/>
+    </row>
+    <row r="421" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A421" s="1" t="s">
         <v>0</v>
       </c>
@@ -10127,11 +11015,13 @@
       <c r="E421" s="1">
         <v>487</v>
       </c>
-      <c r="F421" s="1">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="422" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F421" s="4">
+        <v>20</v>
+      </c>
+      <c r="G421" s="4"/>
+      <c r="H421" s="4"/>
+    </row>
+    <row r="422" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A422" s="1" t="s">
         <v>182</v>
       </c>
@@ -10147,11 +11037,13 @@
       <c r="E422" s="1">
         <v>155</v>
       </c>
-      <c r="F422" s="1">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="423" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F422" s="4">
+        <v>39</v>
+      </c>
+      <c r="G422" s="4"/>
+      <c r="H422" s="4"/>
+    </row>
+    <row r="423" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A423" s="1" t="s">
         <v>182</v>
       </c>
@@ -10167,11 +11059,13 @@
       <c r="E423" s="1">
         <v>165</v>
       </c>
-      <c r="F423" s="1">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="424" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F423" s="4">
+        <v>6</v>
+      </c>
+      <c r="G423" s="4"/>
+      <c r="H423" s="4"/>
+    </row>
+    <row r="424" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A424" s="1" t="s">
         <v>182</v>
       </c>
@@ -10187,11 +11081,13 @@
       <c r="E424" s="1">
         <v>168</v>
       </c>
-      <c r="F424" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="425" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F424" s="4">
+        <v>36</v>
+      </c>
+      <c r="G424" s="4"/>
+      <c r="H424" s="4"/>
+    </row>
+    <row r="425" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A425" s="1" t="s">
         <v>182</v>
       </c>
@@ -10207,11 +11103,13 @@
       <c r="E425" s="1">
         <v>167</v>
       </c>
-      <c r="F425" s="1">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="426" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F425" s="4">
+        <v>11</v>
+      </c>
+      <c r="G425" s="4"/>
+      <c r="H425" s="4"/>
+    </row>
+    <row r="426" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A426" s="1" t="s">
         <v>182</v>
       </c>
@@ -10227,11 +11125,13 @@
       <c r="E426" s="1">
         <v>187</v>
       </c>
-      <c r="F426" s="1">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="427" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F426" s="4">
+        <v>20</v>
+      </c>
+      <c r="G426" s="4"/>
+      <c r="H426" s="4"/>
+    </row>
+    <row r="427" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A427" s="1" t="s">
         <v>182</v>
       </c>
@@ -10247,11 +11147,13 @@
       <c r="E427" s="1">
         <v>263</v>
       </c>
-      <c r="F427" s="1">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="428" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F427" s="4">
+        <v>32</v>
+      </c>
+      <c r="G427" s="4"/>
+      <c r="H427" s="4"/>
+    </row>
+    <row r="428" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A428" s="1" t="s">
         <v>182</v>
       </c>
@@ -10267,11 +11169,13 @@
       <c r="E428" s="1">
         <v>97</v>
       </c>
-      <c r="F428" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="429" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F428" s="4">
+        <v>19</v>
+      </c>
+      <c r="G428" s="4"/>
+      <c r="H428" s="4"/>
+    </row>
+    <row r="429" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A429" s="1" t="s">
         <v>182</v>
       </c>
@@ -10287,11 +11191,13 @@
       <c r="E429" s="1">
         <v>183</v>
       </c>
-      <c r="F429" s="1">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="430" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F429" s="4">
+        <v>31</v>
+      </c>
+      <c r="G429" s="4"/>
+      <c r="H429" s="4"/>
+    </row>
+    <row r="430" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A430" s="1" t="s">
         <v>182</v>
       </c>
@@ -10307,11 +11213,13 @@
       <c r="E430" s="1">
         <v>190</v>
       </c>
-      <c r="F430" s="1">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="431" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F430" s="4">
+        <v>31</v>
+      </c>
+      <c r="G430" s="4"/>
+      <c r="H430" s="4"/>
+    </row>
+    <row r="431" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A431" s="1" t="s">
         <v>182</v>
       </c>
@@ -10327,11 +11235,13 @@
       <c r="E431" s="1">
         <v>55</v>
       </c>
-      <c r="F431" s="1">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="432" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F431" s="4">
+        <v>35</v>
+      </c>
+      <c r="G431" s="4"/>
+      <c r="H431" s="4"/>
+    </row>
+    <row r="432" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A432" s="1" t="s">
         <v>182</v>
       </c>
@@ -10347,11 +11257,13 @@
       <c r="E432" s="1">
         <v>390</v>
       </c>
-      <c r="F432" s="1">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="433" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F432" s="4">
+        <v>30</v>
+      </c>
+      <c r="G432" s="4"/>
+      <c r="H432" s="4"/>
+    </row>
+    <row r="433" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A433" s="1" t="s">
         <v>183</v>
       </c>
@@ -10367,11 +11279,13 @@
       <c r="E433" s="1">
         <v>315</v>
       </c>
-      <c r="F433" s="1">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="434" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F433" s="4">
+        <v>32</v>
+      </c>
+      <c r="G433" s="4"/>
+      <c r="H433" s="4"/>
+    </row>
+    <row r="434" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A434" s="1" t="s">
         <v>183</v>
       </c>
@@ -10387,11 +11301,13 @@
       <c r="E434" s="1">
         <v>109</v>
       </c>
-      <c r="F434" s="1">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="435" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F434" s="4">
+        <v>16</v>
+      </c>
+      <c r="G434" s="4"/>
+      <c r="H434" s="4"/>
+    </row>
+    <row r="435" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A435" s="1" t="s">
         <v>183</v>
       </c>
@@ -10407,11 +11323,13 @@
       <c r="E435" s="1">
         <v>111</v>
       </c>
-      <c r="F435" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="436" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F435" s="4">
+        <v>8</v>
+      </c>
+      <c r="G435" s="4"/>
+      <c r="H435" s="4"/>
+    </row>
+    <row r="436" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A436" s="1" t="s">
         <v>183</v>
       </c>
@@ -10427,11 +11345,13 @@
       <c r="E436" s="1">
         <v>58</v>
       </c>
-      <c r="F436" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="437" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F436" s="4">
+        <v>12</v>
+      </c>
+      <c r="G436" s="4"/>
+      <c r="H436" s="4"/>
+    </row>
+    <row r="437" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A437" s="1" t="s">
         <v>183</v>
       </c>
@@ -10447,11 +11367,13 @@
       <c r="E437" s="1">
         <v>48</v>
       </c>
-      <c r="F437" s="1">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="438" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F437" s="4">
+        <v>40</v>
+      </c>
+      <c r="G437" s="4"/>
+      <c r="H437" s="4"/>
+    </row>
+    <row r="438" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A438" s="1" t="s">
         <v>183</v>
       </c>
@@ -10467,11 +11389,13 @@
       <c r="E438" s="1">
         <v>123</v>
       </c>
-      <c r="F438" s="1">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="439" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F438" s="4">
+        <v>13</v>
+      </c>
+      <c r="G438" s="4"/>
+      <c r="H438" s="4"/>
+    </row>
+    <row r="439" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A439" s="1" t="s">
         <v>183</v>
       </c>
@@ -10487,11 +11411,13 @@
       <c r="E439" s="1">
         <v>113</v>
       </c>
-      <c r="F439" s="1">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="440" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F439" s="4">
+        <v>8</v>
+      </c>
+      <c r="G439" s="4"/>
+      <c r="H439" s="4"/>
+    </row>
+    <row r="440" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A440" s="1" t="s">
         <v>183</v>
       </c>
@@ -10507,11 +11433,13 @@
       <c r="E440" s="1">
         <v>35</v>
       </c>
-      <c r="F440" s="1">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="441" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F440" s="4">
+        <v>18</v>
+      </c>
+      <c r="G440" s="4"/>
+      <c r="H440" s="4"/>
+    </row>
+    <row r="441" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A441" s="1" t="s">
         <v>183</v>
       </c>
@@ -10527,11 +11455,13 @@
       <c r="E441" s="1">
         <v>118</v>
       </c>
-      <c r="F441" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="442" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F441" s="4">
+        <v>16</v>
+      </c>
+      <c r="G441" s="4"/>
+      <c r="H441" s="4"/>
+    </row>
+    <row r="442" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A442" s="1" t="s">
         <v>183</v>
       </c>
@@ -10547,11 +11477,13 @@
       <c r="E442" s="1">
         <v>107</v>
       </c>
-      <c r="F442" s="1">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="443" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F442" s="4">
+        <v>16</v>
+      </c>
+      <c r="G442" s="4"/>
+      <c r="H442" s="4"/>
+    </row>
+    <row r="443" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A443" s="1" t="s">
         <v>183</v>
       </c>
@@ -10567,11 +11499,13 @@
       <c r="E443" s="1">
         <v>108</v>
       </c>
-      <c r="F443" s="1">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="444" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F443" s="4">
+        <v>22</v>
+      </c>
+      <c r="G443" s="4"/>
+      <c r="H443" s="4"/>
+    </row>
+    <row r="444" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A444" s="1" t="s">
         <v>183</v>
       </c>
@@ -10587,11 +11521,13 @@
       <c r="E444" s="1">
         <v>165</v>
       </c>
-      <c r="F444" s="1">
+      <c r="F444" s="4">
         <v>28</v>
       </c>
-    </row>
-    <row r="445" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G444" s="4"/>
+      <c r="H444" s="4"/>
+    </row>
+    <row r="445" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A445" s="1" t="s">
         <v>183</v>
       </c>
@@ -10607,11 +11543,13 @@
       <c r="E445" s="1">
         <v>165</v>
       </c>
-      <c r="F445" s="1">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="446" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F445" s="4">
+        <v>40</v>
+      </c>
+      <c r="G445" s="4"/>
+      <c r="H445" s="4"/>
+    </row>
+    <row r="446" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A446" s="1" t="s">
         <v>183</v>
       </c>
@@ -10627,11 +11565,13 @@
       <c r="E446" s="1">
         <v>98</v>
       </c>
-      <c r="F446" s="1">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="447" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F446" s="4">
+        <v>38</v>
+      </c>
+      <c r="G446" s="4"/>
+      <c r="H446" s="4"/>
+    </row>
+    <row r="447" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A447" s="1" t="s">
         <v>183</v>
       </c>
@@ -10647,11 +11587,13 @@
       <c r="E447" s="1">
         <v>164</v>
       </c>
-      <c r="F447" s="1">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="448" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F447" s="4">
+        <v>9</v>
+      </c>
+      <c r="G447" s="4"/>
+      <c r="H447" s="4"/>
+    </row>
+    <row r="448" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A448" s="1" t="s">
         <v>183</v>
       </c>
@@ -10667,11 +11609,13 @@
       <c r="E448" s="1">
         <v>126</v>
       </c>
-      <c r="F448" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="449" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F448" s="4">
+        <v>37</v>
+      </c>
+      <c r="G448" s="4"/>
+      <c r="H448" s="4"/>
+    </row>
+    <row r="449" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A449" s="1" t="s">
         <v>184</v>
       </c>
@@ -10687,11 +11631,13 @@
       <c r="E449" s="1">
         <v>285</v>
       </c>
-      <c r="F449" s="1">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="450" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F449" s="4">
+        <v>3</v>
+      </c>
+      <c r="G449" s="4"/>
+      <c r="H449" s="4"/>
+    </row>
+    <row r="450" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A450" s="1" t="s">
         <v>184</v>
       </c>
@@ -10707,11 +11653,13 @@
       <c r="E450" s="1">
         <v>110</v>
       </c>
-      <c r="F450" s="1">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="451" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F450" s="4">
+        <v>3</v>
+      </c>
+      <c r="G450" s="4"/>
+      <c r="H450" s="4"/>
+    </row>
+    <row r="451" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A451" s="1" t="s">
         <v>184</v>
       </c>
@@ -10727,11 +11675,13 @@
       <c r="E451" s="1">
         <v>110</v>
       </c>
-      <c r="F451" s="1">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="452" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F451" s="4">
+        <v>4</v>
+      </c>
+      <c r="G451" s="4"/>
+      <c r="H451" s="4"/>
+    </row>
+    <row r="452" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A452" s="1" t="s">
         <v>184</v>
       </c>
@@ -10747,11 +11697,13 @@
       <c r="E452" s="1">
         <v>55</v>
       </c>
-      <c r="F452" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="453" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F452" s="4">
+        <v>15</v>
+      </c>
+      <c r="G452" s="4"/>
+      <c r="H452" s="4"/>
+    </row>
+    <row r="453" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A453" s="1" t="s">
         <v>184</v>
       </c>
@@ -10767,11 +11719,13 @@
       <c r="E453" s="1">
         <v>48</v>
       </c>
-      <c r="F453" s="1">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="454" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F453" s="4">
+        <v>7</v>
+      </c>
+      <c r="G453" s="4"/>
+      <c r="H453" s="4"/>
+    </row>
+    <row r="454" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A454" s="1" t="s">
         <v>184</v>
       </c>
@@ -10787,11 +11741,13 @@
       <c r="E454" s="1">
         <v>122</v>
       </c>
-      <c r="F454" s="1">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="455" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F454" s="4">
+        <v>27</v>
+      </c>
+      <c r="G454" s="4"/>
+      <c r="H454" s="4"/>
+    </row>
+    <row r="455" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A455" s="1" t="s">
         <v>184</v>
       </c>
@@ -10807,11 +11763,13 @@
       <c r="E455" s="1">
         <v>118</v>
       </c>
-      <c r="F455" s="1">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="456" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F455" s="4">
+        <v>16</v>
+      </c>
+      <c r="G455" s="4"/>
+      <c r="H455" s="4"/>
+    </row>
+    <row r="456" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A456" s="1" t="s">
         <v>184</v>
       </c>
@@ -10827,11 +11785,13 @@
       <c r="E456" s="1">
         <v>32</v>
       </c>
-      <c r="F456" s="1">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="457" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F456" s="4">
+        <v>38</v>
+      </c>
+      <c r="G456" s="4"/>
+      <c r="H456" s="4"/>
+    </row>
+    <row r="457" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A457" s="1" t="s">
         <v>184</v>
       </c>
@@ -10847,11 +11807,13 @@
       <c r="E457" s="1">
         <v>325</v>
       </c>
-      <c r="F457" s="1">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="458" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F457" s="4">
+        <v>25</v>
+      </c>
+      <c r="G457" s="4"/>
+      <c r="H457" s="4"/>
+    </row>
+    <row r="458" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A458" s="1" t="s">
         <v>184</v>
       </c>
@@ -10867,11 +11829,15 @@
       <c r="E458" s="1">
         <v>169</v>
       </c>
-      <c r="F458" s="1">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="459" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F458" s="4">
+        <v>17</v>
+      </c>
+      <c r="G458" s="4"/>
+      <c r="H458" s="4" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="459" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A459" s="1" t="s">
         <v>184</v>
       </c>
@@ -10887,11 +11853,13 @@
       <c r="E459" s="1">
         <v>167</v>
       </c>
-      <c r="F459" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="460" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F459" s="4">
+        <v>38</v>
+      </c>
+      <c r="G459" s="4"/>
+      <c r="H459" s="4"/>
+    </row>
+    <row r="460" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A460" s="1" t="s">
         <v>184</v>
       </c>
@@ -10907,11 +11875,13 @@
       <c r="E460" s="1">
         <v>187</v>
       </c>
-      <c r="F460" s="1">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="461" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F460" s="4">
+        <v>18</v>
+      </c>
+      <c r="G460" s="4"/>
+      <c r="H460" s="4"/>
+    </row>
+    <row r="461" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A461" s="1" t="s">
         <v>184</v>
       </c>
@@ -10927,11 +11897,13 @@
       <c r="E461" s="1">
         <v>148</v>
       </c>
-      <c r="F461" s="1">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="462" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F461" s="4">
+        <v>37</v>
+      </c>
+      <c r="G461" s="4"/>
+      <c r="H461" s="4"/>
+    </row>
+    <row r="462" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A462" s="1" t="s">
         <v>184</v>
       </c>
@@ -10947,11 +11919,13 @@
       <c r="E462" s="1">
         <v>131</v>
       </c>
-      <c r="F462" s="1">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="463" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F462" s="4">
+        <v>38</v>
+      </c>
+      <c r="G462" s="4"/>
+      <c r="H462" s="4"/>
+    </row>
+    <row r="463" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A463" s="1" t="s">
         <v>184</v>
       </c>
@@ -10967,11 +11941,13 @@
       <c r="E463" s="1">
         <v>216</v>
       </c>
-      <c r="F463" s="1">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="464" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F463" s="4">
+        <v>23</v>
+      </c>
+      <c r="G463" s="4"/>
+      <c r="H463" s="4"/>
+    </row>
+    <row r="464" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A464" s="1" t="s">
         <v>184</v>
       </c>
@@ -10987,11 +11963,13 @@
       <c r="E464" s="1">
         <v>215</v>
       </c>
-      <c r="F464" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="465" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F464" s="4">
+        <v>2</v>
+      </c>
+      <c r="G464" s="4"/>
+      <c r="H464" s="4"/>
+    </row>
+    <row r="465" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A465" s="1" t="s">
         <v>184</v>
       </c>
@@ -11007,11 +11985,13 @@
       <c r="E465" s="1">
         <v>154</v>
       </c>
-      <c r="F465" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="466" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F465" s="4">
+        <v>40</v>
+      </c>
+      <c r="G465" s="4"/>
+      <c r="H465" s="4"/>
+    </row>
+    <row r="466" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A466" s="1" t="s">
         <v>184</v>
       </c>
@@ -11027,11 +12007,13 @@
       <c r="E466" s="1">
         <v>158</v>
       </c>
-      <c r="F466" s="1">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="467" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F466" s="4">
+        <v>2</v>
+      </c>
+      <c r="G466" s="4"/>
+      <c r="H466" s="4"/>
+    </row>
+    <row r="467" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A467" s="1" t="s">
         <v>184</v>
       </c>
@@ -11047,11 +12029,13 @@
       <c r="E467" s="1">
         <v>105</v>
       </c>
-      <c r="F467" s="1">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="468" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F467" s="4">
+        <v>21</v>
+      </c>
+      <c r="G467" s="4"/>
+      <c r="H467" s="4"/>
+    </row>
+    <row r="468" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A468" s="1" t="s">
         <v>184</v>
       </c>
@@ -11067,14 +12051,24 @@
       <c r="E468" s="1">
         <v>315</v>
       </c>
-      <c r="F468" s="1">
-        <v>63</v>
+      <c r="F468" s="4">
+        <v>8</v>
+      </c>
+      <c r="G468" s="4"/>
+      <c r="H468" s="4"/>
+    </row>
+    <row r="471" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D471">
+        <f>MAX(Tabla2[In])</f>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -11087,7 +12081,7 @@
       <selection activeCell="D368" sqref="D368"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.28515625" bestFit="1" customWidth="1"/>
@@ -14022,7 +15016,7 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>

--- a/parametros.xlsx
+++ b/parametros.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4b42ecb6cf71bf9e/Documentos/UC docs/2022-1/ICS1113 - Optimización/Proyecto/BICIStreckennetz/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="336" documentId="11_AD4D2F04E46CFB4ACB3E201BA5D6D81A693EDF27" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F0793E8E-23DC-405E-9661-38AC9B8C2964}"/>
+  <xr:revisionPtr revIDLastSave="521" documentId="11_AD4D2F04E46CFB4ACB3E201BA5D6D81A693EDF27" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0F60A851-CE10-49D0-8A78-743358533722}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="722" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-4965" windowWidth="29040" windowHeight="15840" tabRatio="722" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Parametros generales" sheetId="5" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1157" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1154" uniqueCount="300">
   <si>
     <t>s</t>
   </si>
@@ -939,12 +939,6 @@
   </si>
   <si>
     <t>Uc [dias/m]</t>
-  </si>
-  <si>
-    <t>Column1</t>
-  </si>
-  <si>
-    <t>Column2</t>
   </si>
 </sst>
 </file>
@@ -1034,10 +1028,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{00D0ECA9-3B05-43D9-8286-D4F4162CF4AF}"/>
   </cellStyles>
-  <dxfs count="46">
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
+  <dxfs count="44">
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1114,9 +1105,6 @@
           <color indexed="64"/>
         </bottom>
       </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1252,76 +1240,74 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{5971FE81-43A6-4F1A-8405-917F80AF47B3}" name="Tabla7" displayName="Tabla7" ref="A1:C3" totalsRowShown="0" headerRowDxfId="45" dataDxfId="44" tableBorderDxfId="43">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{5971FE81-43A6-4F1A-8405-917F80AF47B3}" name="Tabla7" displayName="Tabla7" ref="A1:C3" totalsRowShown="0" headerRowDxfId="43" dataDxfId="42" tableBorderDxfId="41">
   <autoFilter ref="A1:C3" xr:uid="{5971FE81-43A6-4F1A-8405-917F80AF47B3}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{C4646EA6-15E8-4F49-8660-8BC743BA6AEB}" name="P" dataDxfId="42"/>
-    <tableColumn id="2" xr3:uid="{BCC58997-8A28-4E33-A831-CAF6FFAA1D3D}" name="T" dataDxfId="41"/>
-    <tableColumn id="3" xr3:uid="{9DE2B7BB-01C5-4111-A209-1B469CE041D0}" name="S" dataDxfId="40"/>
+    <tableColumn id="1" xr3:uid="{C4646EA6-15E8-4F49-8660-8BC743BA6AEB}" name="P" dataDxfId="40"/>
+    <tableColumn id="2" xr3:uid="{BCC58997-8A28-4E33-A831-CAF6FFAA1D3D}" name="T" dataDxfId="39"/>
+    <tableColumn id="3" xr3:uid="{9DE2B7BB-01C5-4111-A209-1B469CE041D0}" name="S" dataDxfId="38"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9EBF1B6A-543F-48CE-914E-1AE3C5987315}" name="Tabla1" displayName="Tabla1" ref="A1:G9" totalsRowShown="0" headerRowDxfId="39" dataDxfId="38" tableBorderDxfId="37">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9EBF1B6A-543F-48CE-914E-1AE3C5987315}" name="Tabla1" displayName="Tabla1" ref="A1:G9" totalsRowShown="0" headerRowDxfId="37" dataDxfId="36" tableBorderDxfId="35">
   <autoFilter ref="A1:G9" xr:uid="{9EBF1B6A-543F-48CE-914E-1AE3C5987315}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{F3E98B7E-71ED-4323-A688-507E0E4D30F8}" name="c" dataDxfId="36"/>
-    <tableColumn id="2" xr3:uid="{69AA7FF1-F6AA-4D73-8D00-DAA5E4C8663A}" name="Referencia" dataDxfId="35"/>
-    <tableColumn id="3" xr3:uid="{FC18F7FD-2AF8-46E5-AD67-DBBF16CEE9A0}" name="Kc [$/m]" dataDxfId="34"/>
-    <tableColumn id="4" xr3:uid="{D95694F2-2899-491C-A596-9A285A37BA46}" name="Gc [$]" dataDxfId="33"/>
-    <tableColumn id="5" xr3:uid="{3ECED9B0-52C5-4131-8C26-E285B1072DC4}" name="Dc [$/m]" dataDxfId="32"/>
-    <tableColumn id="6" xr3:uid="{B5439923-DE56-4CB7-9948-3F44BAEC5334}" name="Uc [dias/m]" dataDxfId="31"/>
-    <tableColumn id="7" xr3:uid="{66DA3E3E-93C5-4886-9FA3-D96E254E4154}" name="Jc [personas]" dataDxfId="30"/>
+    <tableColumn id="1" xr3:uid="{F3E98B7E-71ED-4323-A688-507E0E4D30F8}" name="c" dataDxfId="34"/>
+    <tableColumn id="2" xr3:uid="{69AA7FF1-F6AA-4D73-8D00-DAA5E4C8663A}" name="Referencia" dataDxfId="33"/>
+    <tableColumn id="3" xr3:uid="{FC18F7FD-2AF8-46E5-AD67-DBBF16CEE9A0}" name="Kc [$/m]" dataDxfId="32"/>
+    <tableColumn id="4" xr3:uid="{D95694F2-2899-491C-A596-9A285A37BA46}" name="Gc [$]" dataDxfId="31"/>
+    <tableColumn id="5" xr3:uid="{3ECED9B0-52C5-4131-8C26-E285B1072DC4}" name="Dc [$/m]" dataDxfId="30"/>
+    <tableColumn id="6" xr3:uid="{B5439923-DE56-4CB7-9948-3F44BAEC5334}" name="Uc [dias/m]" dataDxfId="29"/>
+    <tableColumn id="7" xr3:uid="{66DA3E3E-93C5-4886-9FA3-D96E254E4154}" name="Jc [personas]" dataDxfId="28"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2A8CF024-17E2-4932-AE29-897F3F06695B}" name="Tabla2" displayName="Tabla2" ref="A1:H468" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28" tableBorderDxfId="27">
-  <autoFilter ref="A1:H468" xr:uid="{2A8CF024-17E2-4932-AE29-897F3F06695B}"/>
-  <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{8057DC41-0E5E-4281-A9E4-A586B2E82B5B}" name="Referencia" dataDxfId="26"/>
-    <tableColumn id="2" xr3:uid="{2FBF424D-2F6A-492A-B6D0-B1F455E70D5F}" name="n" dataDxfId="25"/>
-    <tableColumn id="3" xr3:uid="{9EA9F0A7-6F85-4F5A-B709-DBBEB8D0B145}" name="En" dataDxfId="24"/>
-    <tableColumn id="4" xr3:uid="{961C809F-A72E-4D1D-B80D-E6DD4ADCB1C9}" name="In" dataDxfId="23"/>
-    <tableColumn id="5" xr3:uid="{CCFD3E71-1EE7-4D11-A5C5-C8187509C6BF}" name="Ln" dataDxfId="22"/>
-    <tableColumn id="6" xr3:uid="{6203E591-F1CF-4148-9439-2379766711BE}" name="An" dataDxfId="21"/>
-    <tableColumn id="7" xr3:uid="{E6C2F95C-ECD5-4675-A07B-130EA39DC376}" name="Column1" dataDxfId="20"/>
-    <tableColumn id="8" xr3:uid="{40331988-B81E-48FE-A75F-E3990DAC7387}" name="Column2" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2A8CF024-17E2-4932-AE29-897F3F06695B}" name="Tabla2" displayName="Tabla2" ref="A1:F468" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26" tableBorderDxfId="25">
+  <autoFilter ref="A1:F468" xr:uid="{2A8CF024-17E2-4932-AE29-897F3F06695B}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{8057DC41-0E5E-4281-A9E4-A586B2E82B5B}" name="Referencia" dataDxfId="24"/>
+    <tableColumn id="2" xr3:uid="{2FBF424D-2F6A-492A-B6D0-B1F455E70D5F}" name="n" dataDxfId="23"/>
+    <tableColumn id="3" xr3:uid="{9EA9F0A7-6F85-4F5A-B709-DBBEB8D0B145}" name="En" dataDxfId="22"/>
+    <tableColumn id="4" xr3:uid="{961C809F-A72E-4D1D-B80D-E6DD4ADCB1C9}" name="In" dataDxfId="21"/>
+    <tableColumn id="5" xr3:uid="{CCFD3E71-1EE7-4D11-A5C5-C8187509C6BF}" name="Ln" dataDxfId="20"/>
+    <tableColumn id="6" xr3:uid="{6203E591-F1CF-4148-9439-2379766711BE}" name="An" dataDxfId="19"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{862B27E5-2D44-4A5B-8F8B-16A9DCA3A3B1}" name="Tabla8" displayName="Tabla8" ref="A1:C181" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18" tableBorderDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{862B27E5-2D44-4A5B-8F8B-16A9DCA3A3B1}" name="Tabla8" displayName="Tabla8" ref="A1:C181" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17" tableBorderDxfId="16">
   <autoFilter ref="A1:C181" xr:uid="{862B27E5-2D44-4A5B-8F8B-16A9DCA3A3B1}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{98FE0935-E7DA-471F-A97E-C92405B802C1}" name="Dia de la semana" dataDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{D9E09358-C5D7-4873-B32F-1F7CD3693B13}" name="t" dataDxfId="15"/>
-    <tableColumn id="3" xr3:uid="{3F3267B9-EF8E-4102-8D89-C3F4DFE6DF27}" name="Ot" dataDxfId="14"/>
+    <tableColumn id="1" xr3:uid="{98FE0935-E7DA-471F-A97E-C92405B802C1}" name="Dia de la semana" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{D9E09358-C5D7-4873-B32F-1F7CD3693B13}" name="t" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{3F3267B9-EF8E-4102-8D89-C3F4DFE6DF27}" name="Ot" dataDxfId="13"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{88664100-7612-42F1-9C59-FF959EFFD2B7}" name="Tabla5" displayName="Tabla5" ref="A1:J468" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12" tableBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{88664100-7612-42F1-9C59-FF959EFFD2B7}" name="Tabla5" displayName="Tabla5" ref="A1:J468" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11" tableBorderDxfId="10">
   <autoFilter ref="A1:J468" xr:uid="{88664100-7612-42F1-9C59-FF959EFFD2B7}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{C2BCA3DE-A822-4011-9A45-9A478D0C13FB}" name="Referencia" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{DFC92D2B-A5E7-48FA-878B-9C271085C627}" name="calle" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{F6969306-72AD-4295-A677-F1CD3D712354}" name="1" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{4608FC47-CC61-4C76-9C38-0C657C173AE1}" name="2" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{40DA8E0B-9A93-417E-A6DC-599C0C422FC4}" name="3" dataDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{07300A1E-E462-4C41-AC0E-44B39BEF54A3}" name="4" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{5B1D248D-79B2-47E7-96A6-1C192C00525D}" name="5" dataDxfId="4"/>
-    <tableColumn id="8" xr3:uid="{04AC6036-2005-414E-B3B2-23BC04CDA514}" name="6" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{D40CD1F9-347C-4476-A9C2-75D110668527}" name="7" dataDxfId="2"/>
-    <tableColumn id="10" xr3:uid="{84CDA245-7F68-4FE1-9614-DAB683985A88}" name="8" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{C2BCA3DE-A822-4011-9A45-9A478D0C13FB}" name="Referencia" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{DFC92D2B-A5E7-48FA-878B-9C271085C627}" name="calle" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{F6969306-72AD-4295-A677-F1CD3D712354}" name="1" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{4608FC47-CC61-4C76-9C38-0C657C173AE1}" name="2" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{40DA8E0B-9A93-417E-A6DC-599C0C422FC4}" name="3" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{07300A1E-E462-4C41-AC0E-44B39BEF54A3}" name="4" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{5B1D248D-79B2-47E7-96A6-1C192C00525D}" name="5" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{04AC6036-2005-414E-B3B2-23BC04CDA514}" name="6" dataDxfId="2"/>
+    <tableColumn id="9" xr3:uid="{D40CD1F9-347C-4476-A9C2-75D110668527}" name="7" dataDxfId="1"/>
+    <tableColumn id="10" xr3:uid="{84CDA245-7F68-4FE1-9614-DAB683985A88}" name="8" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1892,8 +1878,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B4921FE-0515-4240-9072-541F4458CC70}">
   <dimension ref="A1:H471"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A437" workbookViewId="0">
-      <selection activeCell="H458" sqref="H458"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J465" sqref="J465"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1924,12 +1910,8 @@
       <c r="F1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>300</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>301</v>
-      </c>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -11833,9 +11815,7 @@
         <v>17</v>
       </c>
       <c r="G458" s="4"/>
-      <c r="H458" s="4" t="s">
-        <v>165</v>
-      </c>
+      <c r="H458" s="4"/>
     </row>
     <row r="459" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A459" s="1" t="s">
@@ -12077,8 +12057,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95E88962-D2FE-492F-89E7-E20802D0BEC8}">
   <dimension ref="A1:C365"/>
   <sheetViews>
-    <sheetView topLeftCell="A174" workbookViewId="0">
-      <selection activeCell="D368" sqref="D368"/>
+    <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12107,7 +12087,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="1">
-        <v>100</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -12118,7 +12098,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="1">
-        <v>100</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -12129,7 +12109,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="1">
-        <v>100</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -12140,7 +12120,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="1">
-        <v>100</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -12151,7 +12131,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="1">
-        <v>100</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -12162,7 +12142,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="1">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -12173,7 +12153,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="1">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -12184,7 +12164,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="1">
-        <v>100</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -12195,7 +12175,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="1">
-        <v>100</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -12206,7 +12186,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="1">
-        <v>100</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -12217,7 +12197,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="1">
-        <v>100</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -12228,7 +12208,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="1">
-        <v>100</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -12239,7 +12219,7 @@
         <v>13</v>
       </c>
       <c r="C14" s="1">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -12250,7 +12230,7 @@
         <v>14</v>
       </c>
       <c r="C15" s="1">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -12261,7 +12241,7 @@
         <v>15</v>
       </c>
       <c r="C16" s="1">
-        <v>100</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -12272,7 +12252,7 @@
         <v>16</v>
       </c>
       <c r="C17" s="1">
-        <v>100</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -12283,7 +12263,7 @@
         <v>17</v>
       </c>
       <c r="C18" s="1">
-        <v>100</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -12294,7 +12274,7 @@
         <v>18</v>
       </c>
       <c r="C19" s="1">
-        <v>100</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -12305,7 +12285,7 @@
         <v>19</v>
       </c>
       <c r="C20" s="1">
-        <v>100</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -12316,7 +12296,7 @@
         <v>20</v>
       </c>
       <c r="C21" s="1">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -12327,7 +12307,7 @@
         <v>21</v>
       </c>
       <c r="C22" s="1">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -12338,7 +12318,7 @@
         <v>22</v>
       </c>
       <c r="C23" s="1">
-        <v>100</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -12349,7 +12329,7 @@
         <v>23</v>
       </c>
       <c r="C24" s="1">
-        <v>100</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -12360,7 +12340,7 @@
         <v>24</v>
       </c>
       <c r="C25" s="1">
-        <v>100</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -12371,7 +12351,7 @@
         <v>25</v>
       </c>
       <c r="C26" s="1">
-        <v>100</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -12382,7 +12362,7 @@
         <v>26</v>
       </c>
       <c r="C27" s="1">
-        <v>100</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -12393,7 +12373,7 @@
         <v>27</v>
       </c>
       <c r="C28" s="1">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -12404,7 +12384,7 @@
         <v>28</v>
       </c>
       <c r="C29" s="1">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -12415,7 +12395,7 @@
         <v>29</v>
       </c>
       <c r="C30" s="1">
-        <v>100</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -12426,7 +12406,7 @@
         <v>30</v>
       </c>
       <c r="C31" s="1">
-        <v>100</v>
+        <v>17</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -12437,7 +12417,7 @@
         <v>31</v>
       </c>
       <c r="C32" s="1">
-        <v>100</v>
+        <v>17</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -12448,7 +12428,7 @@
         <v>32</v>
       </c>
       <c r="C33" s="1">
-        <v>100</v>
+        <v>17</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -12459,7 +12439,7 @@
         <v>33</v>
       </c>
       <c r="C34" s="1">
-        <v>100</v>
+        <v>17</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -12470,7 +12450,7 @@
         <v>34</v>
       </c>
       <c r="C35" s="1">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -12481,7 +12461,7 @@
         <v>35</v>
       </c>
       <c r="C36" s="1">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -12492,7 +12472,7 @@
         <v>36</v>
       </c>
       <c r="C37" s="1">
-        <v>100</v>
+        <v>17</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -12503,7 +12483,7 @@
         <v>37</v>
       </c>
       <c r="C38" s="1">
-        <v>100</v>
+        <v>17</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -12514,7 +12494,7 @@
         <v>38</v>
       </c>
       <c r="C39" s="1">
-        <v>100</v>
+        <v>17</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -12525,7 +12505,7 @@
         <v>39</v>
       </c>
       <c r="C40" s="1">
-        <v>100</v>
+        <v>17</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -12536,7 +12516,7 @@
         <v>40</v>
       </c>
       <c r="C41" s="1">
-        <v>100</v>
+        <v>17</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -12547,7 +12527,7 @@
         <v>41</v>
       </c>
       <c r="C42" s="1">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -12558,7 +12538,7 @@
         <v>42</v>
       </c>
       <c r="C43" s="1">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -12569,7 +12549,7 @@
         <v>43</v>
       </c>
       <c r="C44" s="1">
-        <v>100</v>
+        <v>17</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -12580,7 +12560,7 @@
         <v>44</v>
       </c>
       <c r="C45" s="1">
-        <v>100</v>
+        <v>17</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -12591,7 +12571,7 @@
         <v>45</v>
       </c>
       <c r="C46" s="1">
-        <v>100</v>
+        <v>17</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -12602,7 +12582,7 @@
         <v>46</v>
       </c>
       <c r="C47" s="1">
-        <v>100</v>
+        <v>17</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -12613,7 +12593,7 @@
         <v>47</v>
       </c>
       <c r="C48" s="1">
-        <v>100</v>
+        <v>17</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -12624,7 +12604,7 @@
         <v>48</v>
       </c>
       <c r="C49" s="1">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -12635,7 +12615,7 @@
         <v>49</v>
       </c>
       <c r="C50" s="1">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -12646,7 +12626,7 @@
         <v>50</v>
       </c>
       <c r="C51" s="1">
-        <v>100</v>
+        <v>17</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -12657,7 +12637,7 @@
         <v>51</v>
       </c>
       <c r="C52" s="1">
-        <v>100</v>
+        <v>17</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -12668,7 +12648,7 @@
         <v>52</v>
       </c>
       <c r="C53" s="1">
-        <v>100</v>
+        <v>17</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -12679,7 +12659,7 @@
         <v>53</v>
       </c>
       <c r="C54" s="1">
-        <v>100</v>
+        <v>17</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -12690,7 +12670,7 @@
         <v>54</v>
       </c>
       <c r="C55" s="1">
-        <v>100</v>
+        <v>17</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -12701,7 +12681,7 @@
         <v>55</v>
       </c>
       <c r="C56" s="1">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -12712,7 +12692,7 @@
         <v>56</v>
       </c>
       <c r="C57" s="1">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -12723,7 +12703,7 @@
         <v>57</v>
       </c>
       <c r="C58" s="1">
-        <v>100</v>
+        <v>17</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -12734,7 +12714,7 @@
         <v>58</v>
       </c>
       <c r="C59" s="1">
-        <v>100</v>
+        <v>17</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -12745,7 +12725,7 @@
         <v>59</v>
       </c>
       <c r="C60" s="1">
-        <v>100</v>
+        <v>17</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -12756,7 +12736,7 @@
         <v>60</v>
       </c>
       <c r="C61" s="1">
-        <v>100</v>
+        <v>17</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -12767,7 +12747,7 @@
         <v>61</v>
       </c>
       <c r="C62" s="1">
-        <v>100</v>
+        <v>17</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -12778,7 +12758,7 @@
         <v>62</v>
       </c>
       <c r="C63" s="1">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -12789,7 +12769,7 @@
         <v>63</v>
       </c>
       <c r="C64" s="1">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -12800,7 +12780,7 @@
         <v>64</v>
       </c>
       <c r="C65" s="1">
-        <v>100</v>
+        <v>17</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -12811,7 +12791,7 @@
         <v>65</v>
       </c>
       <c r="C66" s="1">
-        <v>100</v>
+        <v>17</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -12822,7 +12802,7 @@
         <v>66</v>
       </c>
       <c r="C67" s="1">
-        <v>100</v>
+        <v>17</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -12833,7 +12813,7 @@
         <v>67</v>
       </c>
       <c r="C68" s="1">
-        <v>100</v>
+        <v>17</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -12844,7 +12824,7 @@
         <v>68</v>
       </c>
       <c r="C69" s="1">
-        <v>100</v>
+        <v>17</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -12855,7 +12835,7 @@
         <v>69</v>
       </c>
       <c r="C70" s="1">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -12866,7 +12846,7 @@
         <v>70</v>
       </c>
       <c r="C71" s="1">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -12877,7 +12857,7 @@
         <v>71</v>
       </c>
       <c r="C72" s="1">
-        <v>100</v>
+        <v>17</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -12888,7 +12868,7 @@
         <v>72</v>
       </c>
       <c r="C73" s="1">
-        <v>100</v>
+        <v>17</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
@@ -12899,7 +12879,7 @@
         <v>73</v>
       </c>
       <c r="C74" s="1">
-        <v>100</v>
+        <v>17</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
@@ -12910,7 +12890,7 @@
         <v>74</v>
       </c>
       <c r="C75" s="1">
-        <v>100</v>
+        <v>17</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
@@ -12921,7 +12901,7 @@
         <v>75</v>
       </c>
       <c r="C76" s="1">
-        <v>100</v>
+        <v>17</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
@@ -12932,7 +12912,7 @@
         <v>76</v>
       </c>
       <c r="C77" s="1">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
@@ -12943,7 +12923,7 @@
         <v>77</v>
       </c>
       <c r="C78" s="1">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
@@ -12954,7 +12934,7 @@
         <v>78</v>
       </c>
       <c r="C79" s="1">
-        <v>100</v>
+        <v>17</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
@@ -12965,7 +12945,7 @@
         <v>79</v>
       </c>
       <c r="C80" s="1">
-        <v>100</v>
+        <v>17</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
@@ -12976,7 +12956,7 @@
         <v>80</v>
       </c>
       <c r="C81" s="1">
-        <v>100</v>
+        <v>17</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
@@ -12987,7 +12967,7 @@
         <v>81</v>
       </c>
       <c r="C82" s="1">
-        <v>100</v>
+        <v>17</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
@@ -12998,7 +12978,7 @@
         <v>82</v>
       </c>
       <c r="C83" s="1">
-        <v>100</v>
+        <v>17</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
@@ -13009,7 +12989,7 @@
         <v>83</v>
       </c>
       <c r="C84" s="1">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
@@ -13020,7 +13000,7 @@
         <v>84</v>
       </c>
       <c r="C85" s="1">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
@@ -13031,7 +13011,7 @@
         <v>85</v>
       </c>
       <c r="C86" s="1">
-        <v>100</v>
+        <v>17</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
@@ -13042,7 +13022,7 @@
         <v>86</v>
       </c>
       <c r="C87" s="1">
-        <v>100</v>
+        <v>17</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
@@ -13053,7 +13033,7 @@
         <v>87</v>
       </c>
       <c r="C88" s="1">
-        <v>100</v>
+        <v>17</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
@@ -13064,7 +13044,7 @@
         <v>88</v>
       </c>
       <c r="C89" s="1">
-        <v>100</v>
+        <v>17</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
@@ -13075,7 +13055,7 @@
         <v>89</v>
       </c>
       <c r="C90" s="1">
-        <v>100</v>
+        <v>17</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
@@ -13086,7 +13066,7 @@
         <v>90</v>
       </c>
       <c r="C91" s="1">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
@@ -13097,7 +13077,7 @@
         <v>91</v>
       </c>
       <c r="C92" s="1">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
@@ -13108,7 +13088,7 @@
         <v>92</v>
       </c>
       <c r="C93" s="1">
-        <v>100</v>
+        <v>17</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
@@ -13119,7 +13099,7 @@
         <v>93</v>
       </c>
       <c r="C94" s="1">
-        <v>100</v>
+        <v>17</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
@@ -13130,7 +13110,7 @@
         <v>94</v>
       </c>
       <c r="C95" s="1">
-        <v>100</v>
+        <v>17</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
@@ -13141,7 +13121,7 @@
         <v>95</v>
       </c>
       <c r="C96" s="1">
-        <v>100</v>
+        <v>17</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
@@ -13152,7 +13132,7 @@
         <v>96</v>
       </c>
       <c r="C97" s="1">
-        <v>100</v>
+        <v>17</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
@@ -13163,7 +13143,7 @@
         <v>97</v>
       </c>
       <c r="C98" s="1">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
@@ -13174,7 +13154,7 @@
         <v>98</v>
       </c>
       <c r="C99" s="1">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
@@ -13185,7 +13165,7 @@
         <v>99</v>
       </c>
       <c r="C100" s="1">
-        <v>100</v>
+        <v>17</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
@@ -13196,7 +13176,7 @@
         <v>100</v>
       </c>
       <c r="C101" s="1">
-        <v>100</v>
+        <v>17</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
@@ -13207,7 +13187,7 @@
         <v>101</v>
       </c>
       <c r="C102" s="1">
-        <v>100</v>
+        <v>17</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
@@ -13218,7 +13198,7 @@
         <v>102</v>
       </c>
       <c r="C103" s="1">
-        <v>100</v>
+        <v>17</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
@@ -13229,7 +13209,7 @@
         <v>103</v>
       </c>
       <c r="C104" s="1">
-        <v>100</v>
+        <v>17</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
@@ -13240,7 +13220,7 @@
         <v>104</v>
       </c>
       <c r="C105" s="1">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
@@ -13251,7 +13231,7 @@
         <v>105</v>
       </c>
       <c r="C106" s="1">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
@@ -13262,7 +13242,7 @@
         <v>106</v>
       </c>
       <c r="C107" s="1">
-        <v>100</v>
+        <v>17</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
@@ -13273,7 +13253,7 @@
         <v>107</v>
       </c>
       <c r="C108" s="1">
-        <v>100</v>
+        <v>17</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
@@ -13284,7 +13264,7 @@
         <v>108</v>
       </c>
       <c r="C109" s="1">
-        <v>100</v>
+        <v>17</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
@@ -13295,7 +13275,7 @@
         <v>109</v>
       </c>
       <c r="C110" s="1">
-        <v>100</v>
+        <v>17</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
@@ -13306,7 +13286,7 @@
         <v>110</v>
       </c>
       <c r="C111" s="1">
-        <v>100</v>
+        <v>17</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
@@ -13317,7 +13297,7 @@
         <v>111</v>
       </c>
       <c r="C112" s="1">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
@@ -13328,7 +13308,7 @@
         <v>112</v>
       </c>
       <c r="C113" s="1">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
@@ -13339,7 +13319,7 @@
         <v>113</v>
       </c>
       <c r="C114" s="1">
-        <v>100</v>
+        <v>17</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
@@ -13350,7 +13330,7 @@
         <v>114</v>
       </c>
       <c r="C115" s="1">
-        <v>100</v>
+        <v>17</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
@@ -13361,7 +13341,7 @@
         <v>115</v>
       </c>
       <c r="C116" s="1">
-        <v>100</v>
+        <v>17</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
@@ -13372,7 +13352,7 @@
         <v>116</v>
       </c>
       <c r="C117" s="1">
-        <v>100</v>
+        <v>17</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
@@ -13383,7 +13363,7 @@
         <v>117</v>
       </c>
       <c r="C118" s="1">
-        <v>100</v>
+        <v>17</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
@@ -13394,7 +13374,7 @@
         <v>118</v>
       </c>
       <c r="C119" s="1">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
@@ -13405,7 +13385,7 @@
         <v>119</v>
       </c>
       <c r="C120" s="1">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
@@ -13416,7 +13396,7 @@
         <v>120</v>
       </c>
       <c r="C121" s="1">
-        <v>100</v>
+        <v>17</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
@@ -13427,7 +13407,7 @@
         <v>121</v>
       </c>
       <c r="C122" s="1">
-        <v>100</v>
+        <v>17</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
@@ -13438,7 +13418,7 @@
         <v>122</v>
       </c>
       <c r="C123" s="1">
-        <v>100</v>
+        <v>17</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
@@ -13449,7 +13429,7 @@
         <v>123</v>
       </c>
       <c r="C124" s="1">
-        <v>100</v>
+        <v>17</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
@@ -13460,7 +13440,7 @@
         <v>124</v>
       </c>
       <c r="C125" s="1">
-        <v>100</v>
+        <v>17</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
@@ -13471,7 +13451,7 @@
         <v>125</v>
       </c>
       <c r="C126" s="1">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
@@ -13482,7 +13462,7 @@
         <v>126</v>
       </c>
       <c r="C127" s="1">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
@@ -13493,7 +13473,7 @@
         <v>127</v>
       </c>
       <c r="C128" s="1">
-        <v>100</v>
+        <v>17</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
@@ -13504,7 +13484,7 @@
         <v>128</v>
       </c>
       <c r="C129" s="1">
-        <v>100</v>
+        <v>17</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
@@ -13515,7 +13495,7 @@
         <v>129</v>
       </c>
       <c r="C130" s="1">
-        <v>100</v>
+        <v>17</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
@@ -13523,10 +13503,10 @@
         <v>295</v>
       </c>
       <c r="B131" s="1">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="C131" s="1">
-        <v>100</v>
+        <v>17</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
@@ -13537,7 +13517,7 @@
         <v>131</v>
       </c>
       <c r="C132" s="1">
-        <v>100</v>
+        <v>17</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
@@ -13548,7 +13528,7 @@
         <v>132</v>
       </c>
       <c r="C133" s="1">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
@@ -13559,7 +13539,7 @@
         <v>133</v>
       </c>
       <c r="C134" s="1">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
@@ -13570,7 +13550,7 @@
         <v>134</v>
       </c>
       <c r="C135" s="1">
-        <v>100</v>
+        <v>17</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
@@ -13581,7 +13561,7 @@
         <v>135</v>
       </c>
       <c r="C136" s="1">
-        <v>100</v>
+        <v>17</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
@@ -13592,7 +13572,7 @@
         <v>136</v>
       </c>
       <c r="C137" s="1">
-        <v>100</v>
+        <v>17</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
@@ -13603,7 +13583,7 @@
         <v>137</v>
       </c>
       <c r="C138" s="1">
-        <v>100</v>
+        <v>17</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
@@ -13614,7 +13594,7 @@
         <v>138</v>
       </c>
       <c r="C139" s="1">
-        <v>100</v>
+        <v>17</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
@@ -13625,7 +13605,7 @@
         <v>139</v>
       </c>
       <c r="C140" s="1">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
@@ -13636,7 +13616,7 @@
         <v>140</v>
       </c>
       <c r="C141" s="1">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
@@ -13647,7 +13627,7 @@
         <v>141</v>
       </c>
       <c r="C142" s="1">
-        <v>100</v>
+        <v>17</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
@@ -13658,7 +13638,7 @@
         <v>142</v>
       </c>
       <c r="C143" s="1">
-        <v>100</v>
+        <v>17</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
@@ -13669,7 +13649,7 @@
         <v>143</v>
       </c>
       <c r="C144" s="1">
-        <v>100</v>
+        <v>17</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
@@ -13680,7 +13660,7 @@
         <v>144</v>
       </c>
       <c r="C145" s="1">
-        <v>100</v>
+        <v>17</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
@@ -13691,7 +13671,7 @@
         <v>145</v>
       </c>
       <c r="C146" s="1">
-        <v>100</v>
+        <v>17</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
@@ -13702,7 +13682,7 @@
         <v>146</v>
       </c>
       <c r="C147" s="1">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
@@ -13713,7 +13693,7 @@
         <v>147</v>
       </c>
       <c r="C148" s="1">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
@@ -13724,7 +13704,7 @@
         <v>148</v>
       </c>
       <c r="C149" s="1">
-        <v>100</v>
+        <v>17</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
@@ -13735,7 +13715,7 @@
         <v>149</v>
       </c>
       <c r="C150" s="1">
-        <v>100</v>
+        <v>17</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
@@ -13746,7 +13726,7 @@
         <v>150</v>
       </c>
       <c r="C151" s="1">
-        <v>100</v>
+        <v>17</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
@@ -13757,7 +13737,7 @@
         <v>151</v>
       </c>
       <c r="C152" s="1">
-        <v>100</v>
+        <v>17</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
@@ -13768,7 +13748,7 @@
         <v>152</v>
       </c>
       <c r="C153" s="1">
-        <v>100</v>
+        <v>17</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
@@ -13779,7 +13759,7 @@
         <v>153</v>
       </c>
       <c r="C154" s="1">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
@@ -13790,7 +13770,7 @@
         <v>154</v>
       </c>
       <c r="C155" s="1">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
@@ -13801,7 +13781,7 @@
         <v>155</v>
       </c>
       <c r="C156" s="1">
-        <v>100</v>
+        <v>17</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
@@ -13812,7 +13792,7 @@
         <v>156</v>
       </c>
       <c r="C157" s="1">
-        <v>100</v>
+        <v>17</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
@@ -13823,7 +13803,7 @@
         <v>157</v>
       </c>
       <c r="C158" s="1">
-        <v>100</v>
+        <v>17</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
@@ -13834,7 +13814,7 @@
         <v>158</v>
       </c>
       <c r="C159" s="1">
-        <v>100</v>
+        <v>17</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
@@ -13845,7 +13825,7 @@
         <v>159</v>
       </c>
       <c r="C160" s="1">
-        <v>100</v>
+        <v>17</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
@@ -13856,7 +13836,7 @@
         <v>160</v>
       </c>
       <c r="C161" s="1">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
@@ -13867,7 +13847,7 @@
         <v>161</v>
       </c>
       <c r="C162" s="1">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
@@ -13878,7 +13858,7 @@
         <v>162</v>
       </c>
       <c r="C163" s="1">
-        <v>100</v>
+        <v>17</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
@@ -13889,7 +13869,7 @@
         <v>163</v>
       </c>
       <c r="C164" s="1">
-        <v>100</v>
+        <v>17</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
@@ -13900,7 +13880,7 @@
         <v>164</v>
       </c>
       <c r="C165" s="1">
-        <v>100</v>
+        <v>17</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
@@ -13911,7 +13891,7 @@
         <v>165</v>
       </c>
       <c r="C166" s="1">
-        <v>100</v>
+        <v>17</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
@@ -13922,7 +13902,7 @@
         <v>166</v>
       </c>
       <c r="C167" s="1">
-        <v>100</v>
+        <v>17</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
@@ -13933,7 +13913,7 @@
         <v>167</v>
       </c>
       <c r="C168" s="1">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
@@ -13944,7 +13924,7 @@
         <v>168</v>
       </c>
       <c r="C169" s="1">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
@@ -13955,7 +13935,7 @@
         <v>169</v>
       </c>
       <c r="C170" s="1">
-        <v>100</v>
+        <v>17</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
@@ -13966,7 +13946,7 @@
         <v>170</v>
       </c>
       <c r="C171" s="1">
-        <v>100</v>
+        <v>17</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
@@ -13977,7 +13957,7 @@
         <v>171</v>
       </c>
       <c r="C172" s="1">
-        <v>100</v>
+        <v>17</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
@@ -13988,7 +13968,7 @@
         <v>172</v>
       </c>
       <c r="C173" s="1">
-        <v>100</v>
+        <v>17</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
@@ -13999,7 +13979,7 @@
         <v>173</v>
       </c>
       <c r="C174" s="1">
-        <v>100</v>
+        <v>17</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
@@ -14010,7 +13990,7 @@
         <v>174</v>
       </c>
       <c r="C175" s="1">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
@@ -14021,7 +14001,7 @@
         <v>175</v>
       </c>
       <c r="C176" s="1">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
@@ -14032,7 +14012,7 @@
         <v>176</v>
       </c>
       <c r="C177" s="1">
-        <v>100</v>
+        <v>17</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
@@ -14043,7 +14023,7 @@
         <v>177</v>
       </c>
       <c r="C178" s="1">
-        <v>100</v>
+        <v>17</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
@@ -14054,7 +14034,7 @@
         <v>178</v>
       </c>
       <c r="C179" s="1">
-        <v>100</v>
+        <v>17</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
@@ -14065,7 +14045,7 @@
         <v>179</v>
       </c>
       <c r="C180" s="1">
-        <v>100</v>
+        <v>17</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
@@ -14076,7 +14056,7 @@
         <v>180</v>
       </c>
       <c r="C181" s="1">
-        <v>100</v>
+        <v>17</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
